--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,66 +629,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SKRTB67OEL</t>
+          <t>SKB8DXCYGE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Salobo 2</t>
+          <t>Dilmatec</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
+          <t>Diagnostico e resoluçao problema em 02 equipamentos que nao estavam atingindo temperatura</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-04T15:24:13.519Z</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>2025-08-28T15:35:41.479Z</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NjU3ZmQ5M2UtYjlmZC00NTdmLTlmM2EtZGI0YzE2MmZhMGQ3OjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -706,79 +706,75 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-08T18:27:17.728Z</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -789,44 +785,44 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -835,39 +831,43 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>2023-06-07T21:55:05.692Z</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -878,105 +878,194 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>2024-09-05T20:49:15.417Z</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>NDIxMTExMTo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -993,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,91 +1185,95 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
+          <t>MTc3NWUyYTAtZjAxNy00NWQwLTg2ZTMtYWFiZjYzMzZhOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>47370</v>
+        <v>680</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NGMwNTQyYWMtNGNjZC00NjljLThlZWItMDYxMjg2NzkzMmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1195,7 +1288,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1213,25 +1306,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1239,23 +1332,107 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -672,23 +672,27 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Rafael Machado Barboza</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/2a7e8c69-1223-41d3-967d-474788d2fb01/signatures/51c1ade7-ff37-4ee9-b84d-46ee75381607.png</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>2025-08-28T15:35:41.479Z</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NjU3ZmQ5M2UtYjlmZC00NTdmLTlmM2EtZGI0YzE2MmZhMGQ3OjU3MDE2</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -711,7 +715,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
@@ -827,7 +831,7 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,67 +811,63 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -882,85 +878,89 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>2023-06-07T21:55:05.692Z</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -971,105 +971,287 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-08-28T16:10:11.398Z</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HYICEAM_GE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Recusada</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2024-09-12T20:48:10.536Z</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
         <is>
           <t>2024-09-05T20:49:15.417Z</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>NDIxMTExMTo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -1086,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,7 +1403,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1317,75 +1499,79 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>47370</v>
+        <v>855</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1394,25 +1580,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1420,23 +1606,195 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>680</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>680</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>855</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>855</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,27 +722,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SKRTB67OEL</t>
+          <t>HYS55O45GG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Salobo 2</t>
+          <t>Bayer Uberlandia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Cliente informa: equipamento nao gela
+Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
+Diagnostico do  tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo do  nitrogenio que vai utlizado + laudo de garrafa  maçarico e caneta (laudo )  para poder entrar com esses produtos para realizaçao do atendimento 
+senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer
+OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Cliente informa: equipamento nao gela
+Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
+Diagnostico do  tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo do  nitrogenio que vai utlizado + laudo de garrafa  maçarico e caneta (laudo )  para poder entrar com esses produtos para realizaçao do atendimento 
+senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer
+OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -750,35 +758,35 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -799,39 +807,39 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -839,35 +847,35 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
+          <t>2025-08-08T18:27:17.728Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -888,79 +896,75 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -971,58 +975,58 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1032,28 +1036,28 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -1064,17 +1068,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1086,22 +1090,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1110,39 +1114,43 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1163,97 +1171,285 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>2024-09-05T20:49:15.417Z</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>NDIxMTExMTo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HJE6OUN5LE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bayer Uberlandia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cliente informa: equipamento nao gela
+Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
+Diagnostico do  tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo do  nitrogenio que vai utlizado + laudo de garrafa  maçarico e caneta (laudo )  para poder entrar com esses produtos para realizaçao do atendimento 
+senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cliente informa: equipamento nao gela
+Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
+Diagnostico tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo nitrogenio, maçarico (laudo da garrafa) e caneta para poder entrar com esses produtos para realizaçao do atendimento 
+senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
+        </is>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-09-09T13:53:17.012Z</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>pending</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,31 +1655,38 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
+          <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>1700</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cliente informa: equipamento nao gela
+Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
+Diagnostico tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo nitrogenio, maçarico (laudo da garrafa) e caneta para poder entrar com esses produtos para realizaçao do atendimento 
+senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
+        </is>
+      </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>47370</v>
+        <v>1700</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1492,42 +1695,38 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>680</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>47370</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>680</v>
+        <v>47370</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1536,25 +1735,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1567,11 +1766,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1587,106 +1786,106 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>680</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>680</v>
+        <v>10000</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1699,11 +1898,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1719,31 +1918,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>47370</v>
+        <v>855</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1752,51 +1955,138 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>47370</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cliente informa: equipamento nao gela
+Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
+Diagnostico tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo nitrogenio, maçarico (laudo da garrafa) e caneta para poder entrar com esses produtos para realizaçao do atendimento 
+senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1700</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -946,7 +946,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,50 +908,46 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -964,10 +960,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>2025-09-08T22:01:45.251Z</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -985,79 +985,75 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -1068,58 +1064,58 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1129,28 +1125,28 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1161,17 +1157,17 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1183,22 +1179,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1207,39 +1203,43 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1260,74 +1260,78 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1345,32 +1349,117 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1378,7 +1467,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1386,68 +1475,153 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F11" t="b">
+      <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>2025-09-02T14:01:32.021Z</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BYOHBAHQXX</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5996.77</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5996.77</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-09-15T21:48:09.008Z</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
@@ -1464,7 +1638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,35 +1916,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>680</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>680</v>
+        <v>1050</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1779,25 +1949,38 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>855</v>
+        <v>494677</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
+B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
+B527034 - MANTA ISOL FIBRA CERAMICA  ALUM 3810X610X38MM 2.32 M³ P/ROLO Qtd = 0,2 M2
+B538109 - TERMINAL C/ ISOLACAO CABO 1,5 - 2,5MM OLHAL AZUL TP2,5-4 - INTELLI Qtd = 6 PC
+B538119 - LUVA C/ ISOLACAO CABO 1,5 / 2,5 (EMENDA AZUL) INTELLI LEP-22 Qtd = 2 PC
+B538121 - CONJ.TERMOSTATO CAEM TU HC 120°C 30A 5MMX080MM 980MM 3/8CBP Qtd = 1 PC
+B538233 - INTERRUPTOR DE TECLA MARGIRUS 30223 M2FT1DE3Q/197 BIP. 10A VERDE Qtd = 1 PC
+B538345 - CABO ELETRICO FLEX. 1,5MM SILICONE C/ FIBRA DE VIDRO 200º Qtd = 2 MT
+B538683 - CABO PP C/PLUG CABO INJETADO 90º10A(3.0X1.5X2000MM) Qtd = 1 PC
+B538806 - TERMINAL DE ENCAIXE FEMEA "FASTON" C/ ISOL. (AZUL 1,5 - 2,5MM) Qtd = 4 PC
+B538A84 - PRENSA CABO BSP 1/2 LP+P/UV-LT-PA-40 DAN KRAUS MULLER Qtd = 1 PC
+B538I97 - ESPELHO PLASTICO CAEM PRETO Qtd = 1 PC
+B546053 - MICROVENT. LINEAR 110/220V 60HZ MOD. MINILINE Qtd = 1 PC
+B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1805,87 +1988,87 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>855</v>
+        <v>494677</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1893,16 +2076,16 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1911,82 +2094,86 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>855</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>855</v>
+        <v>10000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>47370</v>
+        <v>680</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1995,67 +2182,151 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>1700</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2063,30 +2334,127 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>1700</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>494677</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
+B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
+B527034 - MANTA ISOL FIBRA CERAMICA  ALUM 3810X610X38MM 2.32 M³ P/ROLO Qtd = 0,2 M2
+B538109 - TERMINAL C/ ISOLACAO CABO 1,5 - 2,5MM OLHAL AZUL TP2,5-4 - INTELLI Qtd = 6 PC
+B538119 - LUVA C/ ISOLACAO CABO 1,5 / 2,5 (EMENDA AZUL) INTELLI LEP-22 Qtd = 2 PC
+B538121 - CONJ.TERMOSTATO CAEM TU HC 120°C 30A 5MMX080MM 980MM 3/8CBP Qtd = 1 PC
+B538233 - INTERRUPTOR DE TECLA MARGIRUS 30223 M2FT1DE3Q/197 BIP. 10A VERDE Qtd = 1 PC
+B538345 - CABO ELETRICO FLEX. 1,5MM SILICONE C/ FIBRA DE VIDRO 200º Qtd = 2 MT
+B538683 - CABO PP C/PLUG CABO INJETADO 90º10A(3.0X1.5X2000MM) Qtd = 1 PC
+B538806 - TERMINAL DE ENCAIXE FEMEA "FASTON" C/ ISOL. (AZUL 1,5 - 2,5MM) Qtd = 4 PC
+B538A84 - PRENSA CABO BSP 1/2 LP+P/UV-LT-PA-40 DAN KRAUS MULLER Qtd = 1 PC
+B538I97 - ESPELHO PLASTICO CAEM PRETO Qtd = 1 PC
+B546053 - MICROVENT. LINEAR 110/220V 60HZ MOD. MINILINE Qtd = 1 PC
+B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>494677</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -768,7 +768,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -942,7 +942,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,20 +722,113 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HJ0GXQO2EG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JOANA DARC OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Orçamento  para reforma de TFK 02 kg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Reforma</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2167.29</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2167.29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-10-06T13:42:48.402Z</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-09-29T15:17:10.234Z</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>MzM3ODI5ODo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -744,7 +837,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -753,106 +846,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -862,20 +866,20 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -896,7 +900,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -908,36 +912,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -947,27 +955,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -985,7 +989,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -997,40 +1001,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1053,10 +1053,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+          <t>2025-09-08T22:01:45.251Z</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1074,7 +1078,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1086,67 +1090,63 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1157,58 +1157,58 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1218,28 +1218,28 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1250,17 +1250,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1272,22 +1272,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1296,39 +1296,43 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1349,74 +1353,78 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1434,32 +1442,117 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1467,7 +1560,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1475,106 +1568,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1584,7 +1588,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1597,31 +1601,120 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BYOHBAHQXX</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5996.77</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5996.77</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-09-15T21:48:09.008Z</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>2025-09-08T21:59:15.256Z</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -1638,7 +1731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,16 +1922,656 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1365</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>375</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>375</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.152e+16</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.152e+16</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>168</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>700</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>350</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>350</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>350</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>85</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>85</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>72</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>18</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25625</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>18</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>25625</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>182225</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>182225</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9940000000000000</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>18</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9940000000000000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2073</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1578</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1578</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
         <v>1700</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1846,126 +2579,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H21" t="n">
         <v>1700</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
         <v>47370</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H22" t="n">
         <v>47370</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>1050</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H23" t="n">
         <v>1050</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
         <v>494677</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -1983,350 +2716,350 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H24" t="n">
         <v>494677</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>680</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H25" t="n">
         <v>680</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
         <v>855</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H26" t="n">
         <v>855</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>10000</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H27" t="n">
         <v>10000</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
         <v>680</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E28" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H28" t="n">
         <v>680</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>855</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H29" t="n">
         <v>855</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
         <v>47370</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H30" t="n">
         <v>47370</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ORCAMENTO REALIZADO PELO BLING</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
         <v>1700</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2334,46 +3067,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E32" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H32" t="n">
         <v>1700</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
         <v>494677</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -2391,68 +3124,68 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E33" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H33" t="n">
         <v>494677</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
         <v>1050</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H34" t="n">
         <v>1050</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,20 +815,190 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HYTE7IDHEX</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MAQUINA 02</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>979.73</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>979.73</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-10-06T18:41:42.725Z</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2025-09-29T18:42:56.833Z</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SYLVG8O3EG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MAQUINA 01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1298.9</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1298.9</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-10-06T18:34:31.188Z</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-09-29T18:38:37.635Z</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -837,7 +1007,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -846,191 +1016,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>47370</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>47370</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2025-08-15T18:25:59.379Z</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:27:17.728Z</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SJBLZ0HQLG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1040,7 +1036,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1053,14 +1049,10 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-02T14:09:17.339Z</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1078,7 +1070,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1090,27 +1082,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -1118,12 +1110,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1133,20 +1125,20 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
+          <t>2025-08-08T18:27:17.728Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1167,7 +1159,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1179,70 +1171,66 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
+          <t>2025-09-08T22:01:45.251Z</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1250,92 +1238,84 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1353,75 +1333,75 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-09-04T16:01:06.048Z</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1442,74 +1422,82 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1517,42 +1505,309 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>S1SWKWAKXG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-08-28T16:10:11.398Z</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HYICEAM_GE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Recusada</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1560,7 +1815,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1568,153 +1823,153 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F13" t="b">
+      <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>2025-09-02T14:01:32.021Z</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>BYOHBAHQXX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>OUTBACK MORUMBI</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="b">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>5996.77</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>5996.77</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>2025-09-08T21:59:15.256Z</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -1731,7 +1986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2562,16 +2817,616 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>350</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>350</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>85</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>85</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1365</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>350</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>350</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>375</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>375</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2073</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>85</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>85</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>700</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>350</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>375</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>375</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>350</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>350</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2073</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2502</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2502</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6325</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6325</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
         <v>1700</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2579,126 +3434,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H36" t="n">
         <v>1700</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
         <v>47370</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H37" t="n">
         <v>47370</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
         <v>1050</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H38" t="n">
         <v>1050</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
         <v>494677</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -2716,350 +3571,550 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E39" t="n">
         <v>3</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H39" t="n">
         <v>494677</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>350</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>350</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2073</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7375</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7375</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>375</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>375</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
         <v>680</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H45" t="n">
         <v>680</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
         <v>855</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H46" t="n">
         <v>855</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
         <v>10000</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="E47" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H47" t="n">
         <v>10000</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
         <v>680</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="E48" t="n">
         <v>3</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H48" t="n">
         <v>680</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
         <v>855</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E49" t="n">
         <v>3</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H49" t="n">
         <v>855</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
         <v>47370</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H50" t="n">
         <v>47370</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ORCAMENTO REALIZADO PELO BLING</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E51" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
         <v>1700</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -3067,46 +4122,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="E52" t="n">
         <v>2</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H52" t="n">
         <v>1700</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
         <v>494677</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -3124,68 +4179,68 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H53" t="n">
         <v>494677</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
         <v>1050</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>3</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H54" t="n">
         <v>1050</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,6 +1972,96 @@
       <c r="U17" t="inlineStr">
         <is>
           <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2025-09-29T20:26:53.403Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NDgyNTE1Mzo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>pending</t>
         </is>
       </c>
     </row>
@@ -1986,7 +2076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4246,6 +4336,490 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>43</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>43</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3325</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>13</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3325</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>717</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>13</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>717</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7375</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7375</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>117</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>13</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>117</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.2e+16</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>13</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4.2e+16</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6449999999999999</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>13</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6449999999999999</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>48</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>13</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>48</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>475</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>13</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>475</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>13</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>13</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,40 +722,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HJ0GXQO2EG</t>
+          <t>RYUVNWH3EG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JOANA DARC OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Orçamento  para reforma de TFK 02 kg</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Reforma</t>
-        </is>
-      </c>
+          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -765,7 +757,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-10-06T13:42:48.402Z</t>
+          <t>2025-10-09T21:18:04.630Z</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -778,12 +770,12 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-29T15:17:10.234Z</t>
+          <t>2025-10-02T21:19:25.794Z</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
+          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -803,7 +795,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>MzM3ODI5ODo1NzAxNg==</t>
+          <t>NDcxNTkzODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -815,32 +807,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HYTE7IDHEX</t>
+          <t>HJ0GXQO2EG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MAQUINA 02</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>JOANA DARC OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Orçamento  para reforma de TFK 02 kg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Reforma</t>
+        </is>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-10-06T18:41:42.725Z</t>
+          <t>2025-10-06T13:42:48.402Z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -863,12 +863,12 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-29T18:42:56.833Z</t>
+          <t>2025-09-29T15:17:10.234Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzM3ODI5ODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -900,17 +900,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SYLVG8O3EG</t>
+          <t>HYTE7IDHEX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>MAQUINA 02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -920,12 +920,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-10-06T18:34:31.188Z</t>
+          <t>2025-10-06T18:41:42.725Z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -948,7 +948,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-09-29T18:38:37.635Z</t>
+          <t>2025-09-29T18:42:56.833Z</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -985,20 +985,105 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SYLVG8O3EG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MAQUINA 01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1298.9</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1298.9</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-10-06T18:34:31.188Z</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-09-29T18:38:37.635Z</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1007,7 +1092,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1016,106 +1101,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1125,20 +1121,20 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1159,7 +1155,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1171,36 +1167,40 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1210,27 +1210,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1248,7 +1244,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1260,42 +1256,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1308,12 +1308,12 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1333,62 +1333,54 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1401,10 +1393,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1422,79 +1418,75 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1505,58 +1497,58 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1566,28 +1558,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1598,17 +1590,17 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1620,22 +1612,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1644,39 +1636,43 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1697,74 +1693,78 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1782,32 +1782,117 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1815,7 +1900,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1823,106 +1908,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1932,7 +1928,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1945,10 +1941,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -1978,23 +1978,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -2003,22 +2002,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2031,35 +2030,121 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
@@ -2076,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2267,31 +2352,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
+          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>18025</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>18025</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2300,38 +2389,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
+          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1365</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1365</v>
+        <v>350</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2340,21 +2433,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
+          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
@@ -2367,11 +2460,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2387,14 +2480,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
+          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.152e+16</v>
+        <v>1365</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -2407,11 +2500,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.152e+16</v>
+        <v>1365</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2427,14 +2520,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
+          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>168</v>
+        <v>375</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
@@ -2447,15 +2540,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>375</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2467,14 +2560,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
+          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>700</v>
+        <v>1.152e+16</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
@@ -2487,15 +2580,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>350</v>
+        <v>1.152e+16</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2507,14 +2600,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
+          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C11" t="n">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -2527,15 +2620,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2547,14 +2640,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
+          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -2567,15 +2660,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2587,14 +2680,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
+          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -2607,11 +2700,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2627,14 +2720,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
+          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>18025</v>
+        <v>85</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
@@ -2647,11 +2740,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>18025</v>
+        <v>85</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2667,14 +2760,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
+          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>25625</v>
+        <v>72</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
@@ -2687,11 +2780,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
+          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25625</v>
+        <v>18</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2707,14 +2800,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
+          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>182225</v>
+        <v>18025</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
@@ -2727,11 +2820,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>182225</v>
+        <v>18025</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2747,14 +2840,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
+          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9940000000000000</v>
+        <v>25625</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
@@ -2767,11 +2860,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
+          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9940000000000000</v>
+        <v>25625</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2787,14 +2880,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
+          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2073</v>
+        <v>182225</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
@@ -2807,11 +2900,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2073</v>
+        <v>182225</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2827,14 +2920,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
+          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>9940000000000000</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
@@ -2847,11 +2940,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
+          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>9940000000000000</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2867,14 +2960,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
+          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1578</v>
+        <v>2073</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
@@ -2887,11 +2980,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1578</v>
+        <v>2073</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2907,71 +3000,71 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
+          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
+          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>85</v>
+        <v>1578</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>85</v>
+        <v>1578</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2980,21 +3073,21 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
+          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1365</v>
+        <v>350</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
@@ -3007,15 +3100,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1365</v>
+        <v>350</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3027,14 +3120,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
+          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
@@ -3047,11 +3140,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -3067,14 +3160,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
+          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>375</v>
+        <v>1365</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
@@ -3087,11 +3180,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>375</v>
+        <v>1365</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -3107,14 +3200,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
+          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -3127,11 +3220,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -3147,31 +3240,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
+          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -3180,38 +3273,38 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
+          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -3220,21 +3313,21 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
+          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>700</v>
+        <v>9</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
@@ -3247,15 +3340,15 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3267,14 +3360,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
+          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
@@ -3287,11 +3380,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3307,14 +3400,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
+          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
@@ -3327,7 +3420,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3335,7 +3428,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3347,14 +3440,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
+          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>8399999999999999</v>
+        <v>375</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
@@ -3367,11 +3460,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8399999999999999</v>
+        <v>375</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3387,14 +3480,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
+          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
@@ -3407,11 +3500,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3427,14 +3520,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2502</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
@@ -3447,11 +3540,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2502</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3467,14 +3560,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>6325</v>
+        <v>2073</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
@@ -3487,11 +3580,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6325</v>
+        <v>2073</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3507,16 +3600,96 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2502</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2502</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6325</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6325</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
         <v>1700</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -3524,126 +3697,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>1700</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>47370</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
         <v>494677</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -3661,124 +3834,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="E41" t="n">
         <v>3</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H41" t="n">
         <v>494677</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>350</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>6</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>350</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>6</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
@@ -3791,15 +3884,15 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3811,14 +3904,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>8399999999999999</v>
+        <v>2073</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
@@ -3831,11 +3924,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8399999999999999</v>
+        <v>2073</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -3851,14 +3944,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>375</v>
+        <v>7375</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
@@ -3871,11 +3964,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>375</v>
+        <v>7375</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3891,150 +3984,142 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>680</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>680</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>855</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>855</v>
+        <v>375</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -4042,16 +4127,16 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4060,82 +4145,86 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>855</v>
+        <v>10000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>855</v>
+        <v>10000</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>47370</v>
+        <v>680</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4144,67 +4233,151 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
         <v>1700</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4212,46 +4385,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="E54" t="n">
         <v>2</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="H54" t="n">
         <v>1700</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
         <v>494677</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -4269,170 +4442,90 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="E55" t="n">
         <v>3</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="H55" t="n">
         <v>494677</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>43</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>13</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>43</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>3325</v>
+        <v>1050</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3325</v>
+        <v>1050</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>717</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E57" t="n">
         <v>13</v>
       </c>
@@ -4443,11 +4536,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>717</v>
+        <v>43</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -4463,14 +4556,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>7375</v>
+        <v>3325</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
@@ -4483,11 +4576,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>7375</v>
+        <v>3325</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4503,14 +4596,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>117</v>
+        <v>717</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
@@ -4523,11 +4616,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>117</v>
+        <v>717</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4543,14 +4636,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>4.2e+16</v>
+        <v>7375</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
@@ -4563,11 +4656,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>4.2e+16</v>
+        <v>7375</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4583,14 +4676,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>6449999999999999</v>
+        <v>117</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
@@ -4603,11 +4696,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6449999999999999</v>
+        <v>117</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -4623,14 +4716,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>4.2e+16</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
@@ -4643,11 +4736,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>48</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -4663,14 +4756,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>475</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
@@ -4683,11 +4776,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>475</v>
+        <v>6449999999999999</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -4703,14 +4796,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1725</v>
+        <v>48</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
@@ -4723,11 +4816,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1725</v>
+        <v>48</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4743,14 +4836,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>6000000000000001</v>
+        <v>475</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -4763,11 +4856,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6000000000000001</v>
+        <v>475</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4783,14 +4876,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>8399999999999999</v>
+        <v>1725</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -4803,18 +4896,98 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>13</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>13</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="H68" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -845,7 +845,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -854,13 +854,21 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joana D’Arc Oliveira </t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>2025-09-29T15:17:10.234Z</t>
@@ -893,7 +901,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -938,7 +938,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,47 +2071,50 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>H16WCCZPEG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>FRANCESCO DE TOMMASO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-10-14T18:12:15.015Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2124,35 +2127,125 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2169,7 +2262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4520,35 +4613,31 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>43</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>1086</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>43</v>
+        <v>1086</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -4557,38 +4646,38 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>3325</v>
+        <v>350</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3325</v>
+        <v>350</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4597,38 +4686,38 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>717</v>
+        <v>4050000000000001</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>717</v>
+        <v>4050000000000001</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4637,38 +4726,38 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>7375</v>
+        <v>3795</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>7375</v>
+        <v>3795</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4677,78 +4766,78 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>4.2e+16</v>
+        <v>18025</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4.2e+16</v>
+        <v>18025</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -4757,38 +4846,38 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>6449999999999999</v>
+        <v>1.68e+16</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6449999999999999</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -4797,23 +4886,27 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>48</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E64" t="n">
         <v>13</v>
       </c>
@@ -4824,11 +4917,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4844,14 +4937,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>475</v>
+        <v>3325</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -4864,11 +4957,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>475</v>
+        <v>3325</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4884,14 +4977,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1725</v>
+        <v>717</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -4904,11 +4997,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1725</v>
+        <v>717</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -4924,14 +5017,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>6000000000000001</v>
+        <v>7375</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
@@ -4944,11 +5037,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6000000000000001</v>
+        <v>7375</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4964,14 +5057,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>8399999999999999</v>
+        <v>117</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -4984,18 +5077,298 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>117</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.2e+16</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4.2e+16</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6449999999999999</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6449999999999999</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>48</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>13</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>48</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>475</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>13</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>475</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>13</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>13</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="H75" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,20 +1078,105 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BJFPMUNTXG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4984</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4984</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-10-15T21:09:42.233Z</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-10-08T21:12:33.362Z</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NDgzNDc2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1100,7 +1185,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1109,106 +1194,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1218,20 +1214,20 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1252,7 +1248,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1264,36 +1260,40 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1303,27 +1303,23 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1341,7 +1337,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1353,32 +1349,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1401,12 +1401,12 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1438,40 +1438,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1481,7 +1473,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1494,10 +1486,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1515,7 +1511,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1527,67 +1523,63 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1598,58 +1590,58 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1659,28 +1651,28 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1691,17 +1683,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1713,22 +1705,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1737,39 +1729,43 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1790,74 +1786,78 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1875,32 +1875,117 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1908,7 +1993,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1916,106 +2001,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2038,10 +2034,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2071,50 +2071,46 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2127,14 +2123,10 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2152,59 +2144,62 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>H16WCCZPEG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>FRANCESCO DE TOMMASO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-10-14T18:12:15.015Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2217,35 +2212,125 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2262,7 +2347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3781,16 +3866,140 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1793</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1793</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>350</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>350</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2841</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
         <v>1700</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -3798,126 +4007,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>1700</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
         <v>47370</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>47370</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
         <v>1050</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>3</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>1050</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
         <v>494677</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -3935,164 +4144,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>494677</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>350</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>6</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>350</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>6</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
@@ -4105,15 +4194,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4125,14 +4214,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>375</v>
+        <v>2073</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
@@ -4145,11 +4234,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>375</v>
+        <v>2073</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4165,123 +4254,111 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>680</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>7375</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>680</v>
+        <v>7375</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>855</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>855</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10000</v>
+        <v>375</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4290,14 +4367,14 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4316,7 +4393,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4334,14 +4411,14 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4360,7 +4437,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4378,107 +4455,239 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>47370</v>
+        <v>10000</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>855</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>855</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
         <v>1700</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4486,46 +4695,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="E57" t="n">
         <v>2</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="H57" t="n">
         <v>1700</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
         <v>494677</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -4543,204 +4752,84 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="E58" t="n">
         <v>3</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="H58" t="n">
         <v>494677</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>3</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1086</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1086</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>350</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>350</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>4050000000000001</v>
+        <v>1050</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>4050000000000001</v>
+        <v>1050</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>3795</v>
+        <v>1086</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
@@ -4753,11 +4842,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3795</v>
+        <v>1086</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4773,7 +4862,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4793,7 +4882,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -4801,7 +4890,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4813,14 +4902,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>18025</v>
+        <v>4050000000000001</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
@@ -4833,11 +4922,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>18025</v>
+        <v>4050000000000001</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -4853,14 +4942,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1.68e+16</v>
+        <v>3795</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
@@ -4873,11 +4962,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2.1e+16</v>
+        <v>3795</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -4893,75 +4982,71 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>43</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>3325</v>
+        <v>18025</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3325</v>
+        <v>18025</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4970,38 +5055,38 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>717</v>
+        <v>1.68e+16</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>717</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5010,23 +5095,27 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E67" t="n">
         <v>13</v>
       </c>
@@ -5037,11 +5126,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>7375</v>
+        <v>43</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5057,14 +5146,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>117</v>
+        <v>3325</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -5077,11 +5166,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>117</v>
+        <v>3325</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5097,14 +5186,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>4.2e+16</v>
+        <v>717</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
@@ -5117,11 +5206,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>4.2e+16</v>
+        <v>717</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5137,14 +5226,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>6449999999999999</v>
+        <v>7375</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -5157,11 +5246,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>6449999999999999</v>
+        <v>7375</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5177,14 +5266,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -5197,11 +5286,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -5217,14 +5306,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>475</v>
+        <v>4.2e+16</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
@@ -5237,11 +5326,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>475</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5257,14 +5346,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1725</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
@@ -5277,11 +5366,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1725</v>
+        <v>6449999999999999</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5297,14 +5386,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>6000000000000001</v>
+        <v>48</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -5317,11 +5406,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6000000000000001</v>
+        <v>48</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5337,14 +5426,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>8399999999999999</v>
+        <v>475</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -5357,18 +5446,138 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>475</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>13</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>13</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="H78" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -752,7 +752,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,20 +1163,113 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BYCZRKIPEL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GARANTIA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>garantia</t>
+        </is>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-10-17T12:48:39.389Z</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2025-10-10T13:07:18.487Z</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NDgyMzMyODo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1185,7 +1278,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1194,106 +1287,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1303,20 +1307,20 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1337,7 +1341,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1349,36 +1353,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1388,27 +1396,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1426,7 +1430,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1438,32 +1442,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1473,7 +1481,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1486,12 +1494,12 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1511,7 +1519,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1523,40 +1531,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1579,10 +1579,14 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1612,67 +1616,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1683,58 +1683,58 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1744,28 +1744,28 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1798,22 +1798,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1822,39 +1822,43 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1875,74 +1879,78 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1960,32 +1968,117 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1993,7 +2086,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2001,106 +2094,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2110,7 +2114,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2123,10 +2127,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2144,7 +2152,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2156,50 +2164,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2212,14 +2216,10 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2237,59 +2237,62 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>H16WCCZPEG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>FRANCESCO DE TOMMASO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-10-14T18:12:15.015Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2302,35 +2305,125 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2347,7 +2440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3990,16 +4083,96 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>350</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>350</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
         <v>1700</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4007,126 +4180,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E43" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>1700</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>47370</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
         <v>494677</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -4144,124 +4317,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>494677</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>350</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>6</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>350</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>6</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
@@ -4274,15 +4367,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4294,14 +4387,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>8399999999999999</v>
+        <v>2073</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
@@ -4314,11 +4407,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8399999999999999</v>
+        <v>2073</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4334,14 +4427,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>375</v>
+        <v>7375</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
@@ -4354,11 +4447,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>375</v>
+        <v>7375</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4374,150 +4467,142 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>680</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>680</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>855</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>855</v>
+        <v>375</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10000</v>
+        <v>680</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4525,16 +4610,16 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -4543,82 +4628,86 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>855</v>
+        <v>10000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>855</v>
+        <v>10000</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>47370</v>
+        <v>680</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -4627,67 +4716,151 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
         <v>1700</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4695,46 +4868,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E59" t="n">
         <v>2</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="H59" t="n">
         <v>1700</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
         <v>494677</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -4752,164 +4925,84 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="H60" t="n">
         <v>494677</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1086</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1086</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>4050000000000001</v>
+        <v>1086</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
@@ -4922,11 +5015,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4050000000000001</v>
+        <v>1086</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -4942,14 +5035,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>3795</v>
+        <v>350</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
@@ -4962,11 +5055,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3795</v>
+        <v>350</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -4982,14 +5075,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>350</v>
+        <v>4050000000000001</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
@@ -5002,15 +5095,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>350</v>
+        <v>4050000000000001</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5022,14 +5115,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>18025</v>
+        <v>3795</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -5042,11 +5135,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>18025</v>
+        <v>3795</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5062,14 +5155,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
+          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1.68e+16</v>
+        <v>350</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -5082,15 +5175,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2.1e+16</v>
+        <v>350</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5102,35 +5195,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>43</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>18025</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>43</v>
+        <v>18025</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5139,38 +5228,38 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>3325</v>
+        <v>1.68e+16</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3325</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5179,23 +5268,27 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>717</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E69" t="n">
         <v>13</v>
       </c>
@@ -5206,11 +5299,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>717</v>
+        <v>43</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5226,14 +5319,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>7375</v>
+        <v>3325</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -5246,11 +5339,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>7375</v>
+        <v>3325</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5266,14 +5359,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>117</v>
+        <v>717</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -5286,11 +5379,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>117</v>
+        <v>717</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -5306,14 +5399,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>4.2e+16</v>
+        <v>7375</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
@@ -5326,11 +5419,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>4.2e+16</v>
+        <v>7375</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5346,14 +5439,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>6449999999999999</v>
+        <v>117</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
@@ -5366,11 +5459,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>6449999999999999</v>
+        <v>117</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5386,14 +5479,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>48</v>
+        <v>4.2e+16</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -5406,11 +5499,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>48</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5426,14 +5519,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>475</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -5446,11 +5539,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>475</v>
+        <v>6449999999999999</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -5466,14 +5559,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1725</v>
+        <v>48</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -5486,11 +5579,11 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1725</v>
+        <v>48</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -5506,14 +5599,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>6000000000000001</v>
+        <v>475</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -5526,11 +5619,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>6000000000000001</v>
+        <v>475</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -5546,14 +5639,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>8399999999999999</v>
+        <v>1725</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -5566,18 +5659,98 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>13</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>13</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="H80" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,40 +2249,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>SK1FN_56XX</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>1172.55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>1172.55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2292,7 +2284,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-10-20T12:26:24.223Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2305,12 +2297,12 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
+          <t>2025-10-13T12:45:43.188Z</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2330,7 +2322,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>MzQ2NDM2Nzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2342,47 +2334,50 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>H16WCCZPEG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>FRANCESCO DE TOMMASO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-10-14T18:12:15.015Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2395,35 +2390,125 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2440,7 +2525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4995,31 +5080,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
+          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>1086</v>
+        <v>99</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1086</v>
+        <v>33</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5028,38 +5113,38 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>350</v>
+        <v>38656</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5068,38 +5153,38 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5108,38 +5193,38 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>3795</v>
+        <v>85</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3795</v>
+        <v>85</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5148,14 +5233,14 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
+          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5166,11 +5251,11 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5188,21 +5273,21 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>18025</v>
+        <v>1086</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
@@ -5215,11 +5300,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>18025</v>
+        <v>1086</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5235,14 +5320,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1.68e+16</v>
+        <v>350</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -5255,11 +5340,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2.1e+16</v>
+        <v>350</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5275,35 +5360,31 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>43</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>4050000000000001</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>43</v>
+        <v>4050000000000001</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5312,38 +5393,38 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>3325</v>
+        <v>3795</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>3325</v>
+        <v>3795</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5352,78 +5433,78 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>717</v>
+        <v>350</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>717</v>
+        <v>350</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>7375</v>
+        <v>18025</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>7375</v>
+        <v>18025</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5432,38 +5513,38 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>117</v>
+        <v>1.68e+16</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>117</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5472,23 +5553,27 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>4.2e+16</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E74" t="n">
         <v>13</v>
       </c>
@@ -5499,11 +5584,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4.2e+16</v>
+        <v>43</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5519,14 +5604,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>6449999999999999</v>
+        <v>3325</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -5539,11 +5624,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6449999999999999</v>
+        <v>3325</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -5559,14 +5644,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -5579,11 +5664,11 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -5599,14 +5684,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>475</v>
+        <v>7375</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -5619,11 +5704,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>475</v>
+        <v>7375</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -5639,14 +5724,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1725</v>
+        <v>117</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -5659,11 +5744,11 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1725</v>
+        <v>117</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5679,14 +5764,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>6000000000000001</v>
+        <v>4.2e+16</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
@@ -5699,11 +5784,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>6000000000000001</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5719,14 +5804,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>8399999999999999</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
@@ -5739,18 +5824,218 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6449999999999999</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>48</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>48</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>475</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>475</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>13</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>13</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="H85" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,63 +1891,55 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1968,74 +1960,78 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2053,32 +2049,117 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2086,7 +2167,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2094,106 +2175,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2203,7 +2195,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2216,10 +2208,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2237,7 +2233,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2249,42 +2245,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SK1FN_56XX</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-10-20T12:26:24.223Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2297,14 +2297,10 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-10-13T12:45:43.188Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2322,52 +2318,44 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MzQ2NDM2Nzo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>SK1FN_56XX</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>1172.55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>1172.55</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2377,7 +2365,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-10-20T12:26:24.223Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2390,12 +2378,12 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
+          <t>2025-10-13T12:45:43.188Z</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2415,7 +2403,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>MzQ2NDM2Nzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2427,47 +2415,50 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>H16WCCZPEG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>FRANCESCO DE TOMMASO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-10-14T18:12:15.015Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2480,35 +2471,125 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2525,7 +2606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4852,75 +4933,71 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>47370</v>
+        <v>96</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>47370</v>
+        <v>48</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>6000000000000001</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4929,23 +5006,227 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
         <v>1700</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4953,46 +5234,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="E64" t="n">
         <v>2</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="H64" t="n">
         <v>1700</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
         <v>494677</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5010,261 +5291,61 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="H65" t="n">
         <v>494677</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>99</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>6</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>33</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>38656</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>6</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>350</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>6</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>350</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>85</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>6</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>85</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5273,38 +5354,38 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
+          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>1086</v>
+        <v>99</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1086</v>
+        <v>33</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5313,38 +5394,38 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>350</v>
+        <v>38656</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5353,38 +5434,38 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5393,38 +5474,38 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>3795</v>
+        <v>85</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>3795</v>
+        <v>85</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5433,14 +5514,14 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
+          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5451,11 +5532,11 @@
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5473,21 +5554,21 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>18025</v>
+        <v>1086</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
@@ -5500,11 +5581,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>18025</v>
+        <v>1086</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5520,14 +5601,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1.68e+16</v>
+        <v>350</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
@@ -5540,11 +5621,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2.1e+16</v>
+        <v>350</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5560,35 +5641,31 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>43</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>4050000000000001</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>43</v>
+        <v>4050000000000001</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5597,38 +5674,38 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>3325</v>
+        <v>3795</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3325</v>
+        <v>3795</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -5637,78 +5714,78 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>717</v>
+        <v>350</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>717</v>
+        <v>350</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>7375</v>
+        <v>18025</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>7375</v>
+        <v>18025</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -5717,38 +5794,38 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>117</v>
+        <v>1.68e+16</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>117</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5757,23 +5834,27 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>4.2e+16</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E79" t="n">
         <v>13</v>
       </c>
@@ -5784,11 +5865,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>4.2e+16</v>
+        <v>43</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5804,14 +5885,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>6449999999999999</v>
+        <v>3325</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
@@ -5824,11 +5905,11 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>6449999999999999</v>
+        <v>3325</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -5844,14 +5925,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
@@ -5864,11 +5945,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -5884,14 +5965,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>475</v>
+        <v>7375</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
@@ -5904,11 +5985,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>475</v>
+        <v>7375</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -5924,14 +6005,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1725</v>
+        <v>117</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
@@ -5944,11 +6025,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1725</v>
+        <v>117</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -5964,14 +6045,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>6000000000000001</v>
+        <v>4.2e+16</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
@@ -5984,11 +6065,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>6000000000000001</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6004,14 +6085,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>8399999999999999</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -6024,18 +6105,218 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6449999999999999</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>48</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>13</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>48</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>475</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>13</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>475</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>13</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>13</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>13</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H85" t="n">
+      <c r="H90" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1921,7 +1921,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,62 +2330,62 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SK1FN_56XX</t>
+          <t>SYSJ0HARXL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-10-20T12:26:24.223Z</t>
+          <t>2025-11-04T13:33:37.491Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-10-13T12:45:43.188Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-10-28T14:06:21.222Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2403,52 +2403,44 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MzQ2NDM2Nzo1NzAxNg==</t>
+          <t>NDgyMTM3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>SK1FN_56XX</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>1172.55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>1172.55</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2458,7 +2450,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-10-20T12:26:24.223Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2471,12 +2463,12 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
+          <t>2025-10-13T12:45:43.188Z</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2496,7 +2488,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>MzQ2NDM2Nzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2508,37 +2500,40 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>H16WCCZPEG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>FRANCESCO DE TOMMASO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>1047.65</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2548,7 +2543,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-10-06T19:05:55.326Z</t>
+          <t>2025-10-14T18:12:15.015Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2561,35 +2556,125 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R1BQOWO2EE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GRALHA AZUL PONTA GROSSA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
+BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>549.22</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-10-06T19:05:55.326Z</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>2025-09-29T20:26:53.403Z</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>NDgyNTE1Mzo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2606,7 +2691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5361,31 +5446,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
+          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>99</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
+          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>33</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5394,78 +5479,86 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
+          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>38656</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>823</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>310Km</t>
+        </is>
+      </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
+          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>350</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Enviado por Sedex10 de SP para DF</t>
+        </is>
+      </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5474,61 +5567,65 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
+          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>85</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>908</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
+          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -5541,15 +5638,15 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>350</v>
+        <v>33</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5561,31 +5658,31 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
+          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1086</v>
+        <v>38656</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5594,14 +5691,14 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5612,11 +5709,11 @@
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5634,38 +5731,38 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>4050000000000001</v>
+        <v>85</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4050000000000001</v>
+        <v>85</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5674,61 +5771,61 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>3795</v>
+        <v>350</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3795</v>
+        <v>350</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>350</v>
+        <v>1086</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -5741,15 +5838,15 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>350</v>
+        <v>1086</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5761,14 +5858,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -5781,11 +5878,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -5801,14 +5898,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1.68e+16</v>
+        <v>4050000000000001</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -5821,11 +5918,11 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2.1e+16</v>
+        <v>4050000000000001</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5841,35 +5938,31 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>43</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>3795</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>43</v>
+        <v>3795</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5878,78 +5971,78 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>3325</v>
+        <v>350</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3325</v>
+        <v>350</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>717</v>
+        <v>18025</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>717</v>
+        <v>18025</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -5958,38 +6051,38 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>7375</v>
+        <v>1.68e+16</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>7375</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -5998,23 +6091,27 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>117</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CORREIO VIA SEDEX 43,00</t>
+        </is>
+      </c>
       <c r="E83" t="n">
         <v>13</v>
       </c>
@@ -6025,11 +6122,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6045,14 +6142,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>4.2e+16</v>
+        <v>3325</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
@@ -6065,11 +6162,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>4.2e+16</v>
+        <v>3325</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6085,14 +6182,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>6449999999999999</v>
+        <v>717</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -6105,11 +6202,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>6449999999999999</v>
+        <v>717</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6125,14 +6222,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>48</v>
+        <v>7375</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
@@ -6145,11 +6242,11 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>48</v>
+        <v>7375</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6165,14 +6262,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>475</v>
+        <v>117</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
@@ -6185,11 +6282,11 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>475</v>
+        <v>117</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6205,14 +6302,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1725</v>
+        <v>4.2e+16</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
@@ -6225,11 +6322,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1725</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6245,14 +6342,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>6000000000000001</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
@@ -6265,11 +6362,11 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>6000000000000001</v>
+        <v>6449999999999999</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -6285,14 +6382,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>8399999999999999</v>
+        <v>48</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
@@ -6305,18 +6402,178 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>48</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>475</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>13</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>475</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>13</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8399999999999999</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>13</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="H94" t="n">
         <v>8399999999999999</v>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
         </is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,60 +544,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B1IJGVB5A</t>
+          <t>SYXJ3ADJZX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R6IHIJPUZR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>7722118000140 - FUND DE APOIO AO ENSINO PESQ E ASSISTENCIA HCFMRPUSP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Preventiva já foi paga que o atendimento de limpeza da maquina, somente estamos cobrando as peças e 01 hora do técnico</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1056.4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1056.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-08-14T17:42:21.925Z</t>
+          <t>2025-11-12T12:52:46.887Z</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>IRACILDA LOPES</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2024-08-07T17:45:02.123Z</t>
+          <t>2025-11-05T13:06:35.085Z</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ZDM4ZDY1NjMtN2E5Yy00ZDQ3LWFlMDktYzUwYzk4NDQ4NWY1OjU3MDE2</t>
+          <t>ZWMwNWE3NTgtODkyOC00ZjE5LWI0YTgtYjY0NmYwMDY2OGIwOjU3MDE2</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -617,82 +621,74 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>MzMxMDM0OTo1NzAxNg==</t>
+          <t>NDE2MTc1Nzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SKB8DXCYGE</t>
+          <t>B1IJGVB5A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dilmatec</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Diagnostico e resoluçao problema em 02 equipamentos que nao estavam atingindo temperatura</t>
-        </is>
-      </c>
+          <t>R6IHIJPUZR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>300</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-09-04T15:24:13.519Z</t>
+          <t>2024-08-14T17:42:21.925Z</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Rafael Machado Barboza</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/2a7e8c69-1223-41d3-967d-474788d2fb01/signatures/51c1ade7-ff37-4ee9-b84d-46ee75381607.png</t>
-        </is>
-      </c>
+          <t>IRACILDA LOPES</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-08-28T15:35:41.479Z</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>2024-08-07T17:45:02.123Z</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ZDM4ZDY1NjMtN2E5Yy00ZDQ3LWFlMDktYzUwYzk4NDQ4NWY1OjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -710,74 +706,82 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzMxMDM0OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RYUVNWH3EG</t>
+          <t>SKB8DXCYGE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Dilmatec</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Diagnostico e resoluçao problema em 02 equipamentos que nao estavam atingindo temperatura</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-10-09T21:18:04.630Z</t>
+          <t>2025-09-04T15:24:13.519Z</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Rafael Machado Barboza</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/2a7e8c69-1223-41d3-967d-474788d2fb01/signatures/51c1ade7-ff37-4ee9-b84d-46ee75381607.png</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-10-02T21:19:25.794Z</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T15:35:41.479Z</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -795,88 +799,72 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>NDcxNTkzODo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HJ0GXQO2EG</t>
+          <t>RYUVNWH3EG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JOANA DARC OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Orçamento  para reforma de TFK 02 kg</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Reforma</t>
-        </is>
-      </c>
+          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-10-06T13:42:48.402Z</t>
+          <t>2025-10-09T21:18:04.630Z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joana D’Arc Oliveira </t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-29T15:17:10.234Z</t>
+          <t>2025-10-02T21:19:25.794Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
+          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -896,72 +884,88 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>MzM3ODI5ODo1NzAxNg==</t>
+          <t>NDcxNTkzODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HYTE7IDHEX</t>
+          <t>HJ0GXQO2EG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAQUINA 02</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>JOANA DARC OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Orçamento  para reforma de TFK 02 kg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reforma</t>
+        </is>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-10-06T18:41:42.725Z</t>
+          <t>2025-10-06T13:42:48.402Z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joana D’Arc Oliveira </t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-09-29T18:42:56.833Z</t>
+          <t>2025-09-29T15:17:10.234Z</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -981,29 +985,29 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzM3ODI5ODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SYLVG8O3EG</t>
+          <t>HYTE7IDHEX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>MAQUINA 02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1013,12 +1017,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1028,7 +1032,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-10-06T18:34:31.188Z</t>
+          <t>2025-10-06T18:41:42.725Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1041,7 +1045,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-09-29T18:38:37.635Z</t>
+          <t>2025-09-29T18:42:56.833Z</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1078,17 +1082,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJFPMUNTXG</t>
+          <t>SYLVG8O3EG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1098,12 +1102,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1113,7 +1117,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-10-15T21:09:42.233Z</t>
+          <t>2025-10-06T18:34:31.188Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1126,12 +1130,12 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-10-08T21:12:33.362Z</t>
+          <t>2025-09-29T18:38:37.635Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1151,7 +1155,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NDgzNDc2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1163,40 +1167,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BYCZRKIPEL</t>
+          <t>BJFPMUNTXG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GARANTIA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>garantia</t>
-        </is>
-      </c>
+          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1206,7 +1202,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-10-17T12:48:39.389Z</t>
+          <t>2025-10-15T21:09:42.233Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1219,12 +1215,12 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-10-10T13:07:18.487Z</t>
+          <t>2025-10-08T21:12:33.362Z</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1244,7 +1240,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NDgyMzMyODo1NzAxNg==</t>
+          <t>NDgzNDc2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1256,20 +1252,113 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BYCZRKIPEL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GARANTIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>garantia</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-10-17T12:48:39.389Z</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2025-10-10T13:07:18.487Z</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NDgyMzMyODo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1278,7 +1367,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1287,106 +1376,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1396,20 +1396,20 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1442,36 +1442,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1481,27 +1485,23 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1531,32 +1531,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1566,7 +1570,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1579,12 +1583,12 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1604,7 +1608,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1616,40 +1620,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1659,7 +1655,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1672,10 +1668,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1705,67 +1705,63 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1776,44 +1772,44 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1822,46 +1818,42 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1879,67 +1871,79 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1950,44 +1954,44 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1996,39 +2000,43 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -2049,29 +2057,29 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -2081,12 +2089,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2096,27 +2104,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
+          <t>2025-10-20T12:54:09.917Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-10-13T13:10:02.576Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2134,7 +2138,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2146,20 +2150,194 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HYICEAM_GE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Recusada</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2167,7 +2345,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2175,217 +2353,47 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5996.77</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>5996.77</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2025-09-15T21:48:09.008Z</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SYSJ0HARXL</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-11-04T13:33:37.491Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-10-28T14:06:21.222Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2403,44 +2411,48 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NDgyMTM3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SK1FN_56XX</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2450,7 +2462,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-10-20T12:26:24.223Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2463,14 +2475,10 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-10-13T12:45:43.188Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2488,7 +2496,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>MzQ2NDM2Nzo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2500,40 +2508,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>SYSJ0HARXL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
+          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2543,27 +2547,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-11-04T13:33:37.491Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-10-28T14:06:21.222Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>NDgyMTM3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2593,23 +2593,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R1BQOWO2EE</t>
+          <t>SJH_RHL1BL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GRALHA AZUL PONTA GROSSA</t>
+          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ORÇAMENTO REFERENTE BALDE DANIFICADO POR MAL USO
-BALDE NOVO , SE FOR ENTREGAR O BALDE 43,00 PELO CORREIO VIA SEDEX</t>
+          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2618,63 +2617,245 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>511.65999999999997</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>549.22</t>
+          <t>511.65999999999997</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-11-10T14:43:09.194Z</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Viktor Chagas</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2025-11-03T15:08:36.141Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>MzkzMzA3Mjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SK1FN_56XX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1172.55</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1172.55</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2025-10-06T19:05:55.326Z</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-10-20T12:26:24.223Z</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>2025-09-29T20:26:53.403Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>MDBmZTJkNzktN2M1YS00MDc0LWE2YTctNzZiZGNkZWFmYTIwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2025-10-13T12:45:43.188Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>NDgyNTE1Mzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>MzQ2NDM2Nzo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>H16WCCZPEG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FRANCESCO DE TOMMASO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-10-14T18:12:15.015Z</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2025-10-07T18:22:28.553Z</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -2691,7 +2872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2754,119 +2935,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OTlhNzk3NzYtZGMzZC00MzBjLTlkY2MtNTQ4YzQ4MGE2YWQ1OjU3MDE2</t>
+          <t>MTZhZjRmN2MtYTIzMC00OWFiLWIzNzAtMmFiZmRjMGMyZGM0OjU3MDE2</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>300</v>
+        <v>6445</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NzQ3ZWZjY2YtNzk1MC00ZTI3LWI0NjItOTJmYWQ2YmQzOTY4OjU3MDE2</t>
+          <t>NjliMThkYjktMTc0Yy00OTg4LTg3OWMtNzEyZThiNjgyM2QzOjU3MDE2</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>6445</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MTc3NWUyYTAtZjAxNy00NWQwLTg2ZTMtYWFiZjYzMzZhOWUzOjU3MDE2</t>
+          <t>MjY4ZDZjNjItYzY0Mi00MzliLWJjYzEtM2E5ZjY1NTFiMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>680</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>6232</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>ZjViZmRhN2QtZTFkMi00NmU4LWI4MjAtMDliMWEwODkwZTY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>680</v>
+        <v>3116</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NGMwNTQyYWMtNGNjZC00NjljLThlZWItMDYxMjg2NzkzMmJhOjU3MDE2</t>
+          <t>NGM2OWY4ZDUtOGZhNC00OWVlLTgyOTAtNmE1MDQ5ZDc0YzVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>855</v>
+        <v>350</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>Hora de trabalho ECO</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>855</v>
+        <v>350</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2875,42 +3052,38 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
+          <t>Y2VjYzM3NTEtMTNjMi00OGEzLTlhMjMtZGM1OThiOTVkMWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>18025</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TROCADO EM GARANTIA</t>
-        </is>
-      </c>
+        <v>1875</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>OGIxODU3NTgtMGQwNS00YjNmLThmYTMtMDI1ZjZlNWM0OTMzOjU3MDE2</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18025</v>
+        <v>1875</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2919,162 +3092,170 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
+          <t>OTlhNzk3NzYtZGMzZC00MzBjLTlkY2MtNTQ4YzQ4MGE2YWQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>350</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TROCADO EM GARANTIA</t>
-        </is>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NzQ3ZWZjY2YtNzk1MC00ZTI3LWI0NjItOTJmYWQ2YmQzOTY4OjU3MDE2</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
+          <t>MTc3NWUyYTAtZjAxNy00NWQwLTg2ZTMtYWFiZjYzMzZhOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>680</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
+          <t>NGMwNTQyYWMtNGNjZC00NjljLThlZWItMDYxMjg2NzkzMmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1365</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1365</v>
+        <v>855</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
+          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>375</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>18025</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>375</v>
+        <v>18025</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -3083,38 +3264,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
+          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.152e+16</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.152e+16</v>
+        <v>350</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3123,21 +3308,21 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
+          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -3150,15 +3335,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3170,14 +3355,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
+          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>700</v>
+        <v>1365</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -3190,15 +3375,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>350</v>
+        <v>1365</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3210,14 +3395,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
+          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -3230,11 +3415,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3250,14 +3435,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
+          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>85</v>
+        <v>1.152e+16</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
@@ -3270,11 +3455,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>85</v>
+        <v>1.152e+16</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3290,14 +3475,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
+          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
@@ -3310,15 +3495,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3330,14 +3515,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
+          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>18025</v>
+        <v>700</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
@@ -3350,15 +3535,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3370,14 +3555,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
+          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>25625</v>
+        <v>350</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
@@ -3390,11 +3575,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>25625</v>
+        <v>350</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3410,14 +3595,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
+          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>182225</v>
+        <v>85</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
@@ -3430,11 +3615,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>182225</v>
+        <v>85</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -3450,14 +3635,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
+          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>9940000000000000</v>
+        <v>72</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
@@ -3470,11 +3655,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
+          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9940000000000000</v>
+        <v>18</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3490,14 +3675,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
+          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2073</v>
+        <v>18025</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
@@ -3510,11 +3695,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2073</v>
+        <v>18025</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3530,14 +3715,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
+          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>25625</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
@@ -3550,11 +3735,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
+          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>25625</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3570,14 +3755,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
+          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1578</v>
+        <v>182225</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
@@ -3590,11 +3775,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
+          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1578</v>
+        <v>182225</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3610,71 +3795,71 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
+          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>350</v>
+        <v>9940000000000000</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>350</v>
+        <v>9940000000000000</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
+          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -3683,38 +3868,38 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
+          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>1365</v>
+        <v>36</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1365</v>
+        <v>9</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -3723,38 +3908,38 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
+          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>350</v>
+        <v>1578</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>350</v>
+        <v>1578</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -3763,21 +3948,21 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
+          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
@@ -3790,15 +3975,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3810,14 +3995,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
+          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2073</v>
+        <v>85</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
@@ -3830,11 +4015,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2073</v>
+        <v>85</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -3850,31 +4035,31 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
+          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>1365</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>1365</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3883,38 +4068,38 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
+          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3923,78 +4108,78 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
+          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
+          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>375</v>
+        <v>2073</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>375</v>
+        <v>2073</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -4003,21 +4188,21 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
+          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
@@ -4030,11 +4215,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -4050,14 +4235,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
+          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>8399999999999999</v>
+        <v>85</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
@@ -4070,11 +4255,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8399999999999999</v>
+        <v>85</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -4090,14 +4275,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
+          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2073</v>
+        <v>700</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
@@ -4110,15 +4295,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4130,14 +4315,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2502</v>
+        <v>375</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
@@ -4150,11 +4335,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2502</v>
+        <v>375</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -4170,14 +4355,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>6325</v>
+        <v>350</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
@@ -4190,11 +4375,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6325</v>
+        <v>350</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -4210,31 +4395,31 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
+          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1793</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1793</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -4243,82 +4428,78 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
+          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>350</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>350</v>
+        <v>2073</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
+          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2841</v>
+        <v>2502</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2841</v>
+        <v>2502</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4327,38 +4508,38 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>350</v>
+        <v>6325</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>350</v>
+        <v>6325</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4367,38 +4548,38 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>18025</v>
+        <v>1793</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>18025</v>
+        <v>1793</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4407,23 +4588,187 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>350</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>350</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2841</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>350</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>350</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
         <v>1700</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4431,126 +4776,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="E47" t="n">
         <v>2</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>1700</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
         <v>47370</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>2</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>47370</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
         <v>1050</v>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>1050</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
         <v>494677</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -4568,204 +4913,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="E50" t="n">
         <v>3</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>494677</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>350</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>350</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>6</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
@@ -4778,15 +4963,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4798,123 +4983,111 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>680</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>680</v>
+        <v>2073</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>855</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>7375</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>855</v>
+        <v>7375</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>10000</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -4923,69 +5096,65 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>680</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>680</v>
+        <v>375</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -4993,16 +5162,16 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5011,78 +5180,82 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>96</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>48</v>
+        <v>855</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>6000000000000001</v>
+        <v>43</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6000000000000001</v>
+        <v>43</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5091,38 +5264,38 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>3.8825e+16</v>
+        <v>85</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3.8825e+16</v>
+        <v>85</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5131,38 +5304,38 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2.1e+16</v>
+        <v>350</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2.1e+16</v>
+        <v>350</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5171,38 +5344,42 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>3e+16</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3e+16</v>
+        <v>10000</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5211,38 +5388,42 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>47370</v>
+        <v>680</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5251,67 +5432,351 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>96</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>48</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
         <v>1700</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -5319,46 +5784,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="E71" t="n">
         <v>2</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="H71" t="n">
         <v>1700</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
         <v>494677</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5376,393 +5841,101 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="E72" t="n">
         <v>3</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="H72" t="n">
         <v>494677</v>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>5</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>823</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>310Km</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>5</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>70</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Enviado por Sedex10 de SP para DF</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>5</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>43</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>908</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>5</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>350</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" t="n">
-        <v>99</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>6</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>33</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>38656</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
+          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>85</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>85</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5771,38 +5944,42 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
+          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>350</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>823</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>310Km</t>
+        </is>
+      </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -5811,38 +5988,42 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
+          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1086</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Enviado por Sedex10 de SP para DF</t>
+        </is>
+      </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1086</v>
+        <v>43</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -5851,34 +6032,38 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>350</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>908</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -5886,43 +6071,43 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>4050000000000001</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>4050000000000001</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5931,38 +6116,38 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>MTE2ZmIzMDUtYWVlNC00N2M1LWI2YWEtYmQ4ZmZmNDMyY2M5OjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>3795</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>3795</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5971,78 +6156,78 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ODg5MGUyMTItOTI1MC00OTY0LWE1ODItODZjOWQ0M2RmYzQwOjU3MDE2</t>
+          <t>M2E2MGI3YzMtNmIxZi00NGM4LWEyMzctNWUyNzcxODM0ZWM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YTVhMDdmMzQtMzFmZi00Y2ExLThlZTctODU2N2EwYzFjNGQ4OjU3MDE2</t>
+          <t>NGI5MDNkYWQtNzdhZC00NTM4LTgxNGItNzE4NDRjZWNlYmYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>18025</v>
+        <v>9000000000000001</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>18025</v>
+        <v>3e+16</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -6051,38 +6236,38 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>YTcwZWEzNDAtMDc4MC00ZGYzLWIxZjItMWY3ZmQ1MTJkOGEyOjU3MDE2</t>
+          <t>NTM1MTUxMDQtZGQxYi00ODQ4LWE2YmYtNGZkNDgxY2RlOWU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1.68e+16</v>
+        <v>825</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2.1e+16</v>
+        <v>825</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6091,42 +6276,38 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MWUxOTRiYWItMTljOC00NTMwLWIzODQtZjA3YTRjMDYzMjZlOjU3MDE2</t>
+          <t>NTQ5YjVkYWItMzYyOS00ODg5LWIwOWEtODVjZDhlMWY3N2FkOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>43</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>CORREIO VIA SEDEX 43,00</t>
-        </is>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>43</v>
+        <v>717</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6135,38 +6316,38 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MzViYTlhNTItOTE2MC00NmJlLTlkNGMtN2MyZTQ3M2NlNzFiOjU3MDE2</t>
+          <t>NWE2NzVhZjgtYTQ5OC00NjgxLTkxNmYtNzc4YWZhMjZjZTNlOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>3325</v>
+        <v>7375</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ZDNmZWYzYTctMmQwZC00YTJjLWJjYjAtYTZiYzQ4ZjBiYTIxOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3325</v>
+        <v>7375</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6175,38 +6356,38 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NGNmZDE3ZWQtZTFhMy00MWZkLWE3ZTgtYjg5ZDA1MTQ2MjUwOjU3MDE2</t>
+          <t>NjM4Y2JlY2EtMTNjZS00ZmRkLWJjMTQtZTU2OTZkMGE1NTM2OjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>717</v>
+        <v>96</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>717</v>
+        <v>48</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6215,38 +6396,42 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NmRhZDJlMTQtZWQ0My00NWIzLThhMmMtYmM1OTIxYTUxN2UwOjU3MDE2</t>
+          <t>N2I3ZTkxNTUtMWY0NC00MjhhLWIxZDctYWMxZTFhZWYxOGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Troca do Balde via correio</t>
+        </is>
+      </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>7375</v>
+        <v>43</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6255,38 +6440,38 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>OGZmOWRhOTQtNDdiZC00MDNlLWE5MTctZTc5MTVlY2FmZWYzOjU3MDE2</t>
+          <t>YTdmOGYzMDctZDg5ZS00MGYyLWFkMzAtMTEzNzkzNmI5MjZmOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>117</v>
+        <v>3.33e+16</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>ODEwYWQzODUtY2JhYy00NmM5LWE5M2UtYzQ1MDMyY2JmZjNlOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>117</v>
+        <v>1.11e+16</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6295,38 +6480,38 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>YWQ4YTM5MmEtZDQ0OC00ZjdhLWE3NjQtNGI0MjJlYzBjNGFkOjU3MDE2</t>
+          <t>YWVhMDUwNDEtMWZjMy00MGY0LTliMjEtZmQ0Njc2ZmYxMmRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>4.2e+16</v>
+        <v>2525</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>YTI5MDAxYjctNzYxNS00Yzc0LTk1MWItYWJjMDg5NWJiN2QzOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>4.2e+16</v>
+        <v>2525</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6335,38 +6520,38 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>YWVmZTk0M2ItZWU2ZS00ODMyLTgzZWUtMGYwMTdkMmVjMmYwOjU3MDE2</t>
+          <t>YzczZTA5NTktMzAzNS00NWE1LWJiYWUtNWQ5YWYzOTcwOTYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>6449999999999999</v>
+        <v>1.89e+16</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>6449999999999999</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -6375,38 +6560,38 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>YjA5NTJjYmItOTU2MS00NThlLTliZDQtMzhkNGQwNWY4MGFmOjU3MDE2</t>
+          <t>ZDk0OTlmM2UtNGFlYy00MzM3LWFiY2UtYzRmMjBhYjFiN2ZiOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>48</v>
+        <v>6449999999999999</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>48</v>
+        <v>6449999999999999</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -6415,38 +6600,38 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Yjk1N2RlZTctZDMxZi00YzJlLWI1NTktZmEyMjQ1NjQ1ZDg3OjU3MDE2</t>
+          <t>ZDk1OWFkMjYtZGJkZi00OWRkLWI5ZTktMjJiOTZlN2VlYzBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>475</v>
+        <v>1.26e+16</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ODNiOGMzNWItYjY5NC00ZWNlLWFjYzAtNGFmYjE5MTRjZjY0OjU3MDE2</t>
+          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>475</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -6455,14 +6640,14 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>YmY5ZDcxOGUtOTg3Ny00YjYyLTk4ZmMtZDY4MTk3OTM4MmFjOjU3MDE2</t>
+          <t>ZTk0MDQ3MTktYzcwMy00ZTU5LTg5MjMtOGU3MDllYTg0MjAyOjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6473,11 +6658,11 @@
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6495,38 +6680,38 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>YzMxNzM5OTQtY2Y0MS00NjdmLWI3MzctMzVhYTk3ODgzMWM4OjU3MDE2</t>
+          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>6000000000000001</v>
+        <v>99</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6000000000000001</v>
+        <v>33</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -6535,38 +6720,38 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ZTNmNTk0NDctYjYxYy00MzgyLWE0NWQtZDY5NjI3NTdkNGQ4OjU3MDE2</t>
+          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>8399999999999999</v>
+        <v>38656</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>8399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -6575,7 +6760,287 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>ZWQ5MzRmMGYtZDE1Yy00ODY1LWFjMDAtZTY4ZWE1YzRkODk5OjU3MDE2</t>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>350</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>350</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>85</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>85</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>350</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>350</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1086</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>350</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>350</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3795</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>8</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3795</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1976,22 +1976,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -2000,46 +2000,42 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2057,67 +2053,79 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-09-04T16:07:52.834Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -2138,75 +2146,67 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2227,74 +2227,78 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2312,32 +2316,117 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2345,7 +2434,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2353,106 +2442,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2475,10 +2475,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2496,7 +2500,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2508,22 +2512,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SYSJ0HARXL</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2532,12 +2536,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2547,20 +2551,20 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-11-04T13:33:37.491Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-10-28T14:06:21.222Z</t>
+          <t>2025-09-08T21:59:15.256Z</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2581,7 +2585,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NDgyMTM3Mjo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2593,22 +2597,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SJH_RHL1BL</t>
+          <t>BKODRN5YZX</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
+          <t>MAQUINA 03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2617,46 +2621,42 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>511.65999999999997</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>511.65999999999997</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-11-10T14:43:09.194Z</t>
+          <t>2025-11-13T15:27:36.746Z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Viktor Chagas</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-11-03T15:08:36.141Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>2025-11-06T15:27:46.917Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2674,44 +2674,48 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>MzkzMzA3Mjo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SK1FN_56XX</t>
+          <t>SYSJ0HARXL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>34875175825 - FERNANDA FIGUEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1172.55</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2721,27 +2725,23 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-10-20T12:26:24.223Z</t>
+          <t>2025-11-04T13:33:37.491Z</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-10-13T12:45:43.188Z</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>MjkyMTJlNzYtODY0OC00NTBhLTg0OTUtOThlZGQ5YzM1MDdiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-10-28T14:06:21.222Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>MzQ2NDM2Nzo1NzAxNg==</t>
+          <t>NDgyMTM3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -2771,70 +2771,70 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H16WCCZPEG</t>
+          <t>SJH_RHL1BL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
+          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
-        </is>
-      </c>
+          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>511.65999999999997</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>511.65999999999997</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-10-14T18:12:15.015Z</t>
+          <t>2025-11-10T14:43:09.194Z</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Viktor Chagas</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-10-07T18:22:28.553Z</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-11-03T15:08:36.141Z</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>MzkzMzA3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
@@ -5395,119 +5395,111 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>680</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>680</v>
+        <v>9</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>855</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>6325</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>855</v>
+        <v>6325</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5516,38 +5508,38 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>6000000000000001</v>
+        <v>350</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6000000000000001</v>
+        <v>350</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5556,38 +5548,38 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>3.8825e+16</v>
+        <v>2502</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3.8825e+16</v>
+        <v>2502</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5596,38 +5588,38 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2.1e+16</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2.1e+16</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5636,38 +5628,38 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>3e+16</v>
+        <v>2073</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3e+16</v>
+        <v>2073</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5676,107 +5668,475 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>47370</v>
+        <v>85</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>47370</v>
+        <v>85</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>680</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>680</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>855</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>855</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>96</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>48</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
         <v>1700</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -5784,46 +6144,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="E80" t="n">
         <v>2</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="H80" t="n">
         <v>1700</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
         <v>494677</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5841,473 +6201,101 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="E81" t="n">
         <v>3</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="H81" t="n">
         <v>494677</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>3</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>5</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>823</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>310Km</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>5</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>70</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Enviado por Sedex10 de SP para DF</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>5</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>43</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>908</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>5</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>350</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>6000000000000001</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>16</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>6000000000000001</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MTE2ZmIzMDUtYWVlNC00N2M1LWI2YWEtYmQ4ZmZmNDMyY2M5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>16</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>M2E2MGI3YzMtNmIxZi00NGM4LWEyMzctNWUyNzcxODM0ZWM5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>117</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>16</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>117</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>NGI5MDNkYWQtNzdhZC00NTM4LTgxNGItNzE4NDRjZWNlYmYxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>9000000000000001</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>16</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>3e+16</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NTM1MTUxMDQtZGQxYi00ODQ4LWE2YmYtNGZkNDgxY2RlOWU2OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NTQ5YjVkYWItMzYyOS00ODg5LWIwOWEtODVjZDhlMWY3N2FkOjU3MDE2</t>
+          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>717</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>717</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6316,38 +6304,38 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NWE2NzVhZjgtYTQ5OC00NjgxLTkxNmYtNzc4YWZhMjZjZTNlOjU3MDE2</t>
+          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>7375</v>
+        <v>375</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>7375</v>
+        <v>375</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6356,38 +6344,38 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NjM4Y2JlY2EtMTNjZS00ZmRkLWJjMTQtZTU2OTZkMGE1NTM2OjU3MDE2</t>
+          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>96</v>
+        <v>7375</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>48</v>
+        <v>7375</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6396,82 +6384,78 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>N2I3ZTkxNTUtMWY0NC00MjhhLWIxZDctYWMxZTFhZWYxOGYxOjU3MDE2</t>
+          <t>YjljMTRhODUtYzlmZC00ZjBhLWExZjMtYmExMTY2YzMzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Troca do Balde via correio</t>
-        </is>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>YTdmOGYzMDctZDg5ZS00MGYyLWFkMzAtMTEzNzkzNmI5MjZmOjU3MDE2</t>
+          <t>ZWM2ZTEzNTktN2U5My00MjJiLWEwNmYtZmQ3ZTIxNTg1ZWNhOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>3.33e+16</v>
+        <v>2073</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ODEwYWQzODUtY2JhYy00NmM5LWE5M2UtYzQ1MDMyY2JmZjNlOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1.11e+16</v>
+        <v>2073</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6480,38 +6464,38 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>YWVhMDUwNDEtMWZjMy00MGY0LTliMjEtZmQ0Njc2ZmYxMmRiOjU3MDE2</t>
+          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>2525</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>YTI5MDAxYjctNzYxNS00Yzc0LTk1MWItYWJjMDg5NWJiN2QzOjU3MDE2</t>
+          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2525</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6520,78 +6504,86 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>YzczZTA5NTktMzAzNS00NWE1LWJiYWUtNWQ5YWYzOTcwOTYwOjU3MDE2</t>
+          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1.89e+16</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>823</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>310Km</t>
+        </is>
+      </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2.1e+16</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ZDk0OTlmM2UtNGFlYy00MzM3LWFiY2UtYzRmMjBhYjFiN2ZiOjU3MDE2</t>
+          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>6449999999999999</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Enviado por Sedex10 de SP para DF</t>
+        </is>
+      </c>
       <c r="E90" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MGFmNjg5ODYtODc1ZC00YmFjLWE1MDgtMTE3YWU5MjExMzVkOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>6449999999999999</v>
+        <v>43</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -6600,61 +6592,65 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZDk1OWFkMjYtZGJkZi00OWRkLWI5ZTktMjJiOTZlN2VlYzBkOjU3MDE2</t>
+          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1.26e+16</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>908</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>NGRmZWRlNWQtYjFlNi00N2Q2LTkxZDItMDBmZjM2MzVhMTUxOjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>4.2e+16</v>
+        <v>350</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ZTk0MDQ3MTktYzcwMy00ZTU5LTg5MjMtOGU3MDllYTg0MjAyOjU3MDE2</t>
+          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1725</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
@@ -6667,11 +6663,11 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ODJmMjkxYjEtMDdiOC00YjFiLWEyZmMtMjExYjg2YjIwYjgyOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1725</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6687,31 +6683,31 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MWFlZWU2YmYtYzRkNS00ZmUyLWI4YzYtZmUwZmUwNTA4NmFlOjU3MDE2</t>
+          <t>MTE2ZmIzMDUtYWVlNC00N2M1LWI2YWEtYmQ4ZmZmNDMyY2M5OjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>99</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>NWQ0NDE1MTgtNmExOS00ZTg0LWI1OTYtYjI1NWJjYjM3OTcxOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>33</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -6720,38 +6716,38 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MjgyNTVkNDktZWZiOS00YzIyLTg2MmItNzBhNWJjMjBjZGYwOjU3MDE2</t>
+          <t>M2E2MGI3YzMtNmIxZi00NGM4LWEyMzctNWUyNzcxODM0ZWM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>38656</v>
+        <v>117</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MGI1NzMzYTAtNWFhNC00MGJhLWE2ZTgtNzUzYWExYTUyMzhiOjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -6760,38 +6756,38 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NTFlY2QyY2MtN2EwNy00MDY5LWIwZmYtYWNlNzE3ODA2MWMzOjU3MDE2</t>
+          <t>NGI5MDNkYWQtNzdhZC00NTM4LTgxNGItNzE4NDRjZWNlYmYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>350</v>
+        <v>9000000000000001</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>350</v>
+        <v>3e+16</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -6800,38 +6796,38 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NjQyN2Y0NDYtM2JiMi00YjczLWI3YjYtOTEyNWJkZTdjMmFhOjU3MDE2</t>
+          <t>NTM1MTUxMDQtZGQxYi00ODQ4LWE2YmYtNGZkNDgxY2RlOWU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>85</v>
+        <v>825</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>85</v>
+        <v>825</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -6840,78 +6836,78 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>OTVlMDFhMGEtZGQ2NC00OWM5LWE1OGYtYjY1YjQ3NGNjMTk1OjU3MDE2</t>
+          <t>NTQ5YjVkYWItMzYyOS00ODg5LWIwOWEtODVjZDhlMWY3N2FkOjU3MDE2</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>350</v>
+        <v>717</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>350</v>
+        <v>717</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>ZTNkOTJlYTUtYjVkZC00YjFhLWFkNjMtZGU2ODIyMDYxOTY5OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NTdmNTJiMjAtNjUzMy00ZTg1LTg2NDQtMGUxYmNiMzQzODcxOjU3MDE2</t>
+          <t>NWE2NzVhZjgtYTQ5OC00NjgxLTkxNmYtNzc4YWZhMjZjZTNlOjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1086</v>
+        <v>7375</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1086</v>
+        <v>7375</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -6920,38 +6916,38 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NmMyNmYyM2EtMDI5ZS00NjYzLWIzODYtZjA2YWUxMjMzMjY3OjU3MDE2</t>
+          <t>NjM4Y2JlY2EtMTNjZS00ZmRkLWJjMTQtZTU2OTZkMGE1NTM2OjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -6960,38 +6956,42 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>N2I0N2YwNGQtMjg2ZC00NTJlLTliMTUtMzc4ZDYwNDZjNmRjOjU3MDE2</t>
+          <t>N2I3ZTkxNTUtMWY0NC00MjhhLWIxZDctYWMxZTFhZWYxOGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>4050000000000001</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Troca do Balde via correio</t>
+        </is>
+      </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>4050000000000001</v>
+        <v>43</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -7000,38 +7000,38 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ODQ1NjM4ZTUtZWFlZi00MGE2LWFlNTMtZTkyMzMzZDRiMjJmOjU3MDE2</t>
+          <t>YTdmOGYzMDctZDg5ZS00MGYyLWFkMzAtMTEzNzkzNmI5MjZmOjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>3795</v>
+        <v>3.33e+16</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>ODEwYWQzODUtY2JhYy00NmM5LWE5M2UtYzQ1MDMyY2JmZjNlOjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>3795</v>
+        <v>1.11e+16</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>ZTVhYzhjYzQtMjFjNi00MjA4LTkwYTktNjk5ODViNzI5MWE0OjU3MDE2</t>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,50 +1252,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BYCZRKIPEL</t>
+          <t>SY9I6QSJBE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GARANTIA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>garantia</t>
-        </is>
-      </c>
+          <t>45246402000532 - CENTER NORTE S/A CONSTRUCA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>660.525</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>660.525</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-10-17T12:48:39.389Z</t>
+          <t>2025-11-14T16:10:10.258Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1308,12 +1300,12 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-10-10T13:07:18.487Z</t>
+          <t>2025-11-07T16:26:09.914Z</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+          <t>ZjA3NDk4MWMtM2JiMy00YjVkLTliNTgtYjE3ODFjNjczYmQzOjU3MDE2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1333,32 +1325,125 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDgyMzMyODo1NzAxNg==</t>
+          <t>NDE3MTYzNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BYCZRKIPEL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GARANTIA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>garantia</t>
+        </is>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-10-17T12:48:39.389Z</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2025-10-10T13:07:18.487Z</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NDgyMzMyODo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1367,7 +1452,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1376,106 +1461,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1485,20 +1481,20 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1519,7 +1515,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1531,36 +1527,40 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1570,27 +1570,23 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1608,7 +1604,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1620,32 +1616,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1668,12 +1668,12 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1705,40 +1705,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1748,7 +1740,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1761,10 +1753,14 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1782,7 +1778,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1794,46 +1790,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1846,14 +1846,10 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1871,82 +1867,78 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1954,88 +1946,92 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2043,44 +2039,44 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2089,46 +2085,42 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2146,67 +2138,79 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-09-04T16:07:52.834Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2227,75 +2231,67 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2316,74 +2312,78 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2401,32 +2401,117 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2434,7 +2519,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2442,106 +2527,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2551,7 +2547,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2564,10 +2560,14 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2597,22 +2597,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BKODRN5YZX</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2621,42 +2621,38 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:36.746Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-11-06T15:27:46.917Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2674,34 +2670,34 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SYSJ0HARXL</t>
+          <t>BKODRN5YZX</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+          <t>MAQUINA 03</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2710,22 +2706,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-11-04T13:33:37.491Z</t>
+          <t>2025-11-13T15:27:36.746Z</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2738,10 +2734,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-10-28T14:06:21.222Z</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+          <t>2025-11-06T15:27:46.917Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2759,34 +2759,34 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>NDgyMTM3Mjo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SJH_RHL1BL</t>
+          <t>SYSJ0HARXL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
+          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
+          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2795,43 +2795,35 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>511.65999999999997</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>511.65999999999997</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-11-10T14:43:09.194Z</t>
+          <t>2025-11-04T13:33:37.491Z</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Viktor Chagas</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-11-03T15:08:36.141Z</t>
+          <t>2025-10-28T14:06:21.222Z</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2852,10 +2844,103 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
+          <t>NDgyMTM3Mjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SJH_RHL1BL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>511.65999999999997</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>511.65999999999997</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-11-10T14:43:09.194Z</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Viktor Chagas</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2025-11-03T15:08:36.141Z</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
           <t>MzkzMzA3Mjo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>approved</t>
         </is>
@@ -4679,31 +4764,31 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+          <t>YmUzOThhOTAtNGYyYi00YmViLWJmYzUtNDJmYTA2NDg0OGRhOjU3MDE2</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>350</v>
+        <v>660525</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MGY5YWI3Y2UtNWJiMC00ZWMwLTgyZjktNzU4Zjc0YmUyZDg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>350</v>
+        <v>660525</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4712,21 +4797,21 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
@@ -4739,11 +4824,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4759,16 +4844,56 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
         <v>1700</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4776,61 +4901,21 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1700</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>47370</v>
+        <v>1700</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4839,38 +4924,38 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1050</v>
+        <v>47370</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1050</v>
+        <v>47370</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4879,23 +4964,63 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
         <v>494677</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -4913,84 +5038,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="E51" t="n">
         <v>3</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>494677</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>350</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>6</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>350</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
@@ -5003,15 +5088,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5023,14 +5108,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>7375</v>
+        <v>2073</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
@@ -5043,11 +5128,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7375</v>
+        <v>2073</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5063,14 +5148,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>8399999999999999</v>
+        <v>7375</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
@@ -5083,11 +5168,11 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8399999999999999</v>
+        <v>7375</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5103,14 +5188,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
@@ -5123,11 +5208,11 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5143,62 +5228,58 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>680</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>680</v>
+        <v>375</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -5211,11 +5292,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5231,54 +5312,58 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>43</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>43</v>
+        <v>855</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
@@ -5291,11 +5376,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5311,14 +5396,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
@@ -5331,11 +5416,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5351,35 +5436,31 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5388,38 +5469,42 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>9</v>
+        <v>10000</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5428,21 +5513,21 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>6325</v>
+        <v>9</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
@@ -5455,11 +5540,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6325</v>
+        <v>9</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5475,14 +5560,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>375</v>
+        <v>6325</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
@@ -5495,11 +5580,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>375</v>
+        <v>6325</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5515,14 +5600,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -5535,11 +5620,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5555,14 +5640,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>2502</v>
+        <v>350</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -5575,11 +5660,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2502</v>
+        <v>350</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5595,14 +5680,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>8399999999999999</v>
+        <v>2502</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
@@ -5615,11 +5700,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>8399999999999999</v>
+        <v>2502</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5635,14 +5720,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>2073</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -5655,11 +5740,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2073</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5675,14 +5760,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
@@ -5695,11 +5780,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5715,14 +5800,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>700</v>
+        <v>85</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -5735,15 +5820,15 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5755,35 +5840,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>680</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -5792,25 +5873,25 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -5823,11 +5904,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5843,54 +5924,58 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>96</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>48</v>
+        <v>855</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>6000000000000001</v>
+        <v>96</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -5903,11 +5988,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6000000000000001</v>
+        <v>48</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5923,14 +6008,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>3.8825e+16</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -5943,11 +6028,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3.8825e+16</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -5963,14 +6048,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>2.1e+16</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -5983,11 +6068,11 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2.1e+16</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6003,14 +6088,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>3e+16</v>
+        <v>2.1e+16</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -6023,11 +6108,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3e+16</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6043,100 +6128,140 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>47370</v>
+        <v>3e+16</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>47370</v>
+        <v>3e+16</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>47370</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>2</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>47370</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
         <v>1700</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -6144,46 +6269,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="E81" t="n">
         <v>2</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="H81" t="n">
         <v>1700</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
         <v>494677</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -6201,46 +6326,6 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>494677</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
         <v>3</v>
       </c>
@@ -6251,15 +6336,15 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1050</v>
+        <v>494677</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6271,54 +6356,54 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>8399999999999999</v>
+        <v>1050</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>8399999999999999</v>
+        <v>1050</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
+          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
@@ -6331,11 +6416,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6351,14 +6436,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
+          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>7375</v>
+        <v>375</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -6371,11 +6456,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>7375</v>
+        <v>375</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6391,14 +6476,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>YjljMTRhODUtYzlmZC00ZjBhLWExZjMtYmExMTY2YzMzZWFiOjU3MDE2</t>
+          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>350</v>
+        <v>7375</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
@@ -6411,15 +6496,15 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>350</v>
+        <v>7375</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6431,14 +6516,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ZWM2ZTEzNTktN2U5My00MjJiLWEwNmYtZmQ3ZTIxNTg1ZWNhOjU3MDE2</t>
+          <t>YjljMTRhODUtYzlmZC00ZjBhLWExZjMtYmExMTY2YzMzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
@@ -6451,15 +6536,15 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6471,31 +6556,31 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
+          <t>ZWM2ZTEzNTktN2U5My00MjJiLWEwNmYtZmQ3ZTIxNTg1ZWNhOjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>3.2215e+16</v>
+        <v>2073</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3.2215e+16</v>
+        <v>2073</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6504,27 +6589,23 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
+          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>823</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>310Km</t>
-        </is>
-      </c>
+        <v>3.2215e+16</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>5</v>
       </c>
@@ -6535,15 +6616,15 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6555,18 +6636,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
+          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>70</v>
+        <v>823</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Enviado por Sedex10 de SP para DF</t>
+          <t>310Km</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -6579,15 +6660,15 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6599,18 +6680,18 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
+          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>908</v>
+        <v>70</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hora de trabalho ECO</t>
+          <t>Enviado por Sedex10 de SP para DF</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -6623,15 +6704,15 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6643,54 +6724,58 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
+          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>6000000000000001</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>908</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>6000000000000001</v>
+        <v>350</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MTE2ZmIzMDUtYWVlNC00N2M1LWI2YWEtYmQ4ZmZmNDMyY2M5OjU3MDE2</t>
+          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>8399999999999999</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
@@ -6703,11 +6788,11 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>8399999999999999</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -6723,14 +6808,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>M2E2MGI3YzMtNmIxZi00NGM4LWEyMzctNWUyNzcxODM0ZWM5OjU3MDE2</t>
+          <t>MTE2ZmIzMDUtYWVlNC00N2M1LWI2YWEtYmQ4ZmZmNDMyY2M5OjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>117</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
@@ -6743,11 +6828,11 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>117</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -6763,14 +6848,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NGI5MDNkYWQtNzdhZC00NTM4LTgxNGItNzE4NDRjZWNlYmYxOjU3MDE2</t>
+          <t>M2E2MGI3YzMtNmIxZi00NGM4LWEyMzctNWUyNzcxODM0ZWM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>9000000000000001</v>
+        <v>117</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
@@ -6783,11 +6868,11 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>3e+16</v>
+        <v>117</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -6803,14 +6888,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NTM1MTUxMDQtZGQxYi00ODQ4LWE2YmYtNGZkNDgxY2RlOWU2OjU3MDE2</t>
+          <t>NGI5MDNkYWQtNzdhZC00NTM4LTgxNGItNzE4NDRjZWNlYmYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>825</v>
+        <v>9000000000000001</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
@@ -6823,11 +6908,11 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>825</v>
+        <v>3e+16</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -6843,14 +6928,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NTQ5YjVkYWItMzYyOS00ODg5LWIwOWEtODVjZDhlMWY3N2FkOjU3MDE2</t>
+          <t>NTM1MTUxMDQtZGQxYi00ODQ4LWE2YmYtNGZkNDgxY2RlOWU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>717</v>
+        <v>825</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
@@ -6863,11 +6948,11 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>717</v>
+        <v>825</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -6883,14 +6968,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NWE2NzVhZjgtYTQ5OC00NjgxLTkxNmYtNzc4YWZhMjZjZTNlOjU3MDE2</t>
+          <t>NTQ5YjVkYWItMzYyOS00ODg5LWIwOWEtODVjZDhlMWY3N2FkOjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>7375</v>
+        <v>717</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
@@ -6903,11 +6988,11 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>7375</v>
+        <v>717</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -6923,14 +7008,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NjM4Y2JlY2EtMTNjZS00ZmRkLWJjMTQtZTU2OTZkMGE1NTM2OjU3MDE2</t>
+          <t>NWE2NzVhZjgtYTQ5OC00NjgxLTkxNmYtNzc4YWZhMjZjZTNlOjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>96</v>
+        <v>7375</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
@@ -6943,11 +7028,11 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>48</v>
+        <v>7375</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -6963,20 +7048,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>N2I3ZTkxNTUtMWY0NC00MjhhLWIxZDctYWMxZTFhZWYxOGYxOjU3MDE2</t>
+          <t>NjM4Y2JlY2EtMTNjZS00ZmRkLWJjMTQtZTU2OTZkMGE1NTM2OjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>43</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Troca do Balde via correio</t>
-        </is>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
         <v>16</v>
       </c>
@@ -6987,11 +7068,11 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -7007,16 +7088,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>YTdmOGYzMDctZDg5ZS00MGYyLWFkMzAtMTEzNzkzNmI5MjZmOjU3MDE2</t>
+          <t>N2I3ZTkxNTUtMWY0NC00MjhhLWIxZDctYWMxZTFhZWYxOGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>3.33e+16</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Troca do Balde via correio</t>
+        </is>
+      </c>
       <c r="E101" t="n">
         <v>16</v>
       </c>
@@ -7027,11 +7112,11 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ODEwYWQzODUtY2JhYy00NmM5LWE5M2UtYzQ1MDMyY2JmZjNlOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1.11e+16</v>
+        <v>43</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1913,7 +1913,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,36 +544,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTRmZDUxYzItZjNjMi00NDk2LWE4MTUtZWM3ZWZmMzNhYjlkOjU3MDE2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SYXJ3ADJZX</t>
+          <t>SYDL1KWLBE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7722118000140 - FUND DE APOIO AO ENSINO PESQ E ASSISTENCIA HCFMRPUSP</t>
+          <t>64858525007824 - MONSANTO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Preventiva já foi paga que o atendimento de limpeza da maquina, somente estamos cobrando as peças e 01 hora do técnico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>64858525007824 - MONSANTO DO BRASIL LTDA
+CACHOEIRA DOURADA MG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ORÇAMENTO CONTEMPLANDO A VISITA TÉCNICA DE UM DIA PARA MANUTENÇÃO DA RECICLADORA
+O VALOR PODE SER ALTERADO CASO PRECISE DE MAIS TEMPO PARA A MANUTENÇÃO
+PEÇAS NÃO ESTÃO INCLUSAS NESTE ORÇAMENTO. CASO SEJA NECESSÁRIO, SERA ADICIONADO NO VALOR FINAL
+Manunteçao recicladora R$ 4.000,00
+Peças poderão ser inclusas no orçamento apos diagnostico 
+1. Dados Monsanto
+Monsanto do Brasil LTDA
+End: Rod DCD 360 Córrego da Escondida S/N
+Zona Rural, Cachoeira Dourada MG
+CEP: 38.370-000
+CNPJ: 64.858.525/0078-24
+2. Dados fornecedor:
+09.209.220/0001-02
+3. Data da cotação:
+11/11/2025
+4. Valores da cotação, incluindo valor total:
+Produto de Estoque
+5. Impostos:
+ICMS (12%)
+6. Condições de pagamento (Mínimo 30 dias):
+Faturamento para 30 dias
+7. NCM (em caso de material):
+Não tem matertial nessa proposta
+8. Código de serviço (em caso de serviço):
+14.01 / 14.01.c - Demais Casos
+9. Validade da proposta (mínimo 15 dias):
+15 Dias</t>
+        </is>
+      </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1056.4</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1056.4</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -583,7 +614,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-11-12T12:52:46.887Z</t>
+          <t>2025-11-18T15:58:38.481Z</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -596,12 +627,12 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-11-05T13:06:35.085Z</t>
+          <t>2025-11-11T16:06:07.949Z</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ZWMwNWE3NTgtODkyOC00ZjE5LWI0YTgtYjY0NmYwMDY2OGIwOjU3MDE2</t>
+          <t>NTYyNjA5ODctODA0MS00ODJlLWE1MTQtOTY0ZTQyZWRjOTYwOjU3MDE2</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -621,7 +652,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>NDE2MTc1Nzo1NzAxNg==</t>
+          <t>NDgyMzQxODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -633,17 +664,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B1IJGVB5A</t>
+          <t>RJ0AQCEX-G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R6IHIJPUZR</t>
+          <t>11025814886 - EDINA KIYOMI OSAKI MISHIMA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -653,40 +684,40 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>964.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>964.85</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-08-14T17:42:21.925Z</t>
+          <t>2025-11-18T15:45:15.510Z</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>IRACILDA LOPES</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2024-08-07T17:45:02.123Z</t>
+          <t>2025-11-11T15:48:38.327Z</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>ZDM4ZDY1NjMtN2E5Yy00ZDQ3LWFlMDktYzUwYzk4NDQ4NWY1OjU3MDE2</t>
+          <t>OTRkZmU3YjYtNDc4OC00OWJlLTk2OWMtYmQ5Y2Q4ZWRiMTY3OjU3MDE2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -706,82 +737,78 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>MzMxMDM0OTo1NzAxNg==</t>
+          <t>NDgzNDgwNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SKB8DXCYGE</t>
+          <t>SYXJ3ADJZX</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dilmatec</t>
+          <t>7722118000140 - FUND DE APOIO AO ENSINO PESQ E ASSISTENCIA HCFMRPUSP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diagnostico e resoluçao problema em 02 equipamentos que nao estavam atingindo temperatura</t>
+          <t>Preventiva já foi paga que o atendimento de limpeza da maquina, somente estamos cobrando as peças e 01 hora do técnico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1056.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1056.4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-09-04T15:24:13.519Z</t>
+          <t>2025-11-12T12:52:46.887Z</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Rafael Machado Barboza</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/2a7e8c69-1223-41d3-967d-474788d2fb01/signatures/51c1ade7-ff37-4ee9-b84d-46ee75381607.png</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-08-28T15:35:41.479Z</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+          <t>2025-11-05T13:06:35.085Z</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>ZWMwNWE3NTgtODkyOC00ZjE5LWI0YTgtYjY0NmYwMDY2OGIwOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -799,29 +826,29 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDE2MTc1Nzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RYUVNWH3EG</t>
+          <t>B1IJGVB5A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
+          <t>R6IHIJPUZR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -831,12 +858,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>300</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -846,25 +873,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-10-09T21:18:04.630Z</t>
+          <t>2024-08-14T17:42:21.925Z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>IRACILDA LOPES</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-10-02T21:19:25.794Z</t>
+          <t>2024-08-07T17:45:02.123Z</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
+          <t>ZDM4ZDY1NjMtN2E5Yy00ZDQ3LWFlMDktYzUwYzk4NDQ4NWY1OjU3MDE2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -884,7 +911,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>NDcxNTkzODo1NzAxNg==</t>
+          <t>MzMxMDM0OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -896,40 +923,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HJ0GXQO2EG</t>
+          <t>SKB8DXCYGE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JOANA DARC OLIVEIRA</t>
+          <t>Dilmatec</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Orçamento  para reforma de TFK 02 kg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Reforma</t>
-        </is>
-      </c>
+          <t>Diagnostico e resoluçao problema em 02 equipamentos que nao estavam atingindo temperatura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -939,13 +962,13 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-10-06T13:42:48.402Z</t>
+          <t>2025-09-04T15:24:13.519Z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joana D’Arc Oliveira </t>
+          <t>Rafael Machado Barboza</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -955,19 +978,15 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
+          <t>accounts/57016/quotations/2a7e8c69-1223-41d3-967d-474788d2fb01/signatures/51c1ade7-ff37-4ee9-b84d-46ee75381607.png</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-09-29T15:17:10.234Z</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T15:35:41.479Z</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -985,7 +1004,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>MzM3ODI5ODo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -997,17 +1016,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HYTE7IDHEX</t>
+          <t>RYUVNWH3EG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAQUINA 02</t>
+          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1017,12 +1036,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1032,7 +1051,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-10-06T18:41:42.725Z</t>
+          <t>2025-10-09T21:18:04.630Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1045,12 +1064,12 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-09-29T18:42:56.833Z</t>
+          <t>2025-10-02T21:19:25.794Z</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1070,7 +1089,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDcxNTkzODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1082,60 +1101,76 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SYLVG8O3EG</t>
+          <t>HJ0GXQO2EG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>JOANA DARC OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Orçamento  para reforma de TFK 02 kg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Reforma</t>
+        </is>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-10-06T18:34:31.188Z</t>
+          <t>2025-10-06T13:42:48.402Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joana D’Arc Oliveira </t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-09-29T18:38:37.635Z</t>
+          <t>2025-09-29T15:17:10.234Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1155,29 +1190,29 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzM3ODI5ODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJFPMUNTXG</t>
+          <t>HYTE7IDHEX</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
+          <t>MAQUINA 02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1187,12 +1222,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1202,7 +1237,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-10-15T21:09:42.233Z</t>
+          <t>2025-10-06T18:41:42.725Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1215,12 +1250,12 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-10-08T21:12:33.362Z</t>
+          <t>2025-09-29T18:42:56.833Z</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1240,7 +1275,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NDgzNDc2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1252,17 +1287,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SY9I6QSJBE</t>
+          <t>SYLVG8O3EG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45246402000532 - CENTER NORTE S/A CONSTRUCA</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1272,22 +1307,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>660.525</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>660.525</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-11-14T16:10:10.258Z</t>
+          <t>2025-10-06T18:34:31.188Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1300,12 +1335,12 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-11-07T16:26:09.914Z</t>
+          <t>2025-09-29T18:38:37.635Z</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ZjA3NDk4MWMtM2JiMy00YjVkLTliNTgtYjE3ODFjNjczYmQzOjU3MDE2</t>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1325,52 +1360,44 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>NDE3MTYzNjo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BYCZRKIPEL</t>
+          <t>BJFPMUNTXG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GARANTIA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>garantia</t>
-        </is>
-      </c>
+          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1380,7 +1407,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-10-17T12:48:39.389Z</t>
+          <t>2025-10-15T21:09:42.233Z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1393,12 +1420,12 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-10-10T13:07:18.487Z</t>
+          <t>2025-10-08T21:12:33.362Z</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1418,7 +1445,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDgyMzMyODo1NzAxNg==</t>
+          <t>NDgzNDc2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1430,20 +1457,198 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SY9I6QSJBE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>45246402000532 - CENTER NORTE S/A CONSTRUCA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>660.525</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>660.525</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-11-14T16:10:10.258Z</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2025-11-07T16:26:09.914Z</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ZjA3NDk4MWMtM2JiMy00YjVkLTliNTgtYjE3ODFjNjczYmQzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>NDE3MTYzNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BYCZRKIPEL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GARANTIA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>garantia</t>
+        </is>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>530.25</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-10-17T12:48:39.389Z</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-10-10T13:07:18.487Z</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NDgyMzMyODo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1452,7 +1657,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1461,191 +1666,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>47370</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>47370</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2025-08-15T18:25:59.379Z</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:27:17.728Z</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SJBLZ0HQLG</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1686,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1668,14 +1699,10 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-02T14:09:17.339Z</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1693,7 +1720,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1705,32 +1732,40 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>Salobo 2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1740,27 +1775,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1778,7 +1809,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1790,40 +1821,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1833,7 +1860,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1846,10 +1873,14 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+          <t>2025-09-08T22:01:45.251Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1867,7 +1898,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1879,36 +1910,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>orçamento</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1918,7 +1945,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1931,12 +1958,12 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
+          <t>2025-09-29T18:44:47.397Z</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1956,7 +1983,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -1968,67 +1995,63 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
+          <t>2025-08-28T16:05:56.490Z</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -2039,44 +2062,44 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2085,40 +2108,40 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
+          <t>2025-11-03T19:49:41.839Z</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2138,48 +2161,48 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2189,28 +2212,28 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>rffccfc</t>
+          <t>jose da silva</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>HENRIQUE</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
+          <t>2023-05-31T21:56:50.448Z</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2221,17 +2244,17 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2243,42 +2266,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>MAQUINA 01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Autorizado por João</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2291,10 +2318,14 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2312,34 +2343,34 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Substituição de 3 compressores</t>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2348,39 +2379,43 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>2025-09-04T16:07:52.834Z</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -2401,29 +2436,29 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2448,27 +2483,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
+          <t>2025-10-20T12:54:09.917Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-10-13T13:10:02.576Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2486,7 +2517,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2498,20 +2529,194 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HYICEAM_GE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Recusada</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2519,7 +2724,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2527,219 +2732,45 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>5996.77</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>5996.77</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2025-09-15T21:48:09.008Z</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BKODRN5YZX</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Autorizado por João</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:36.746Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-11-06T15:27:46.917Z</t>
+          <t>2025-09-02T14:01:32.021Z</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2759,34 +2790,34 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SYSJ0HARXL</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2795,12 +2826,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2810,20 +2841,20 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-11-04T13:33:37.491Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-10-28T14:06:21.222Z</t>
+          <t>2025-09-08T21:59:15.256Z</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2844,7 +2875,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>NDgyMTM3Mjo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -2856,22 +2887,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SJH_RHL1BL</t>
+          <t>BKODRN5YZX</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
+          <t>MAQUINA 03</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2880,67 +2911,241 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>490.38</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>490.38</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-11-13T15:27:36.746Z</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2025-11-06T15:27:46.917Z</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SYSJ0HARXL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2123.15</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2123.15</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-11-04T13:33:37.491Z</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2025-10-28T14:06:21.222Z</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>NDgyMTM3Mjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SJH_RHL1BL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>511.65999999999997</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>511.65999999999997</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Aprovada</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>2025-11-10T14:43:09.194Z</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Viktor Chagas</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2025-11-03T15:08:36.141Z</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>MzkzMzA3Mjo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>approved</t>
         </is>
@@ -3020,71 +3225,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MTZhZjRmN2MtYTIzMC00OWFiLWIzNzAtMmFiZmRjMGMyZGM0OjU3MDE2</t>
+          <t>OTExZjhhZDUtNzE4OC00NjZjLWIyZWUtMjRiNThjOWNiNDU0OjU3MDE2</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6445</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MANUNTENÇAO RECICLADORA-NAO INCULSO PEÇAS</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTRmZDUxYzItZjNjMi00NDk2LWE4MTUtZWM3ZWZmMzNhYjlkOjU3MDE2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NjliMThkYjktMTc0Yy00OTg4LTg3OWMtNzEyZThiNjgyM2QzOjU3MDE2</t>
+          <t>OGI0OTMyNmYtYzM4MC00NzllLWFiMGQtNmFiMTI3Y2UwMTFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6445</v>
+        <v>4000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTRmZDUxYzItZjNjMi00NDk2LWE4MTUtZWM3ZWZmMzNhYjlkOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MjY4ZDZjNjItYzY0Mi00MzliLWJjYzEtM2E5ZjY1NTFiMjM5OjU3MDE2</t>
+          <t>MDQ3NjBjMzQtM2Y3ZS00M2JiLTljYTQtMjY1ZGQ2MTEwMjg4OjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6232</v>
+        <v>350</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ZjViZmRhN2QtZTFkMi00NmU4LWI4MjAtMDliMWEwODkwZTY0OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3116</v>
+        <v>350</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -3093,82 +3302,78 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NGM2OWY4ZDUtOGZhNC00OWVlLTgyOTAtNmE1MDQ5ZDc0YzVmOjU3MDE2</t>
+          <t>N2RkY2JhMTgtZTdiOC00MWVlLTkxOGYtMTNhNzUwYWIwMWNmOjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>350</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>YmVjYmU1OWUtZDQ0Zi00ZWNlLTgxZWMtNDA5MDk3NjNlMGM0OjU3MDE2</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Y2VjYzM3NTEtMTNjMi00OGEzLTlhMjMtZGM1OThiOTVkMWE4OjU3MDE2</t>
+          <t>OTA4NmRmOTktNTYwOS00NzIwLWI5YzAtNjI5MTU0NTZhZGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1875</v>
+        <v>2.52e+16</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>OGIxODU3NTgtMGQwNS00YjNmLThmYTMtMDI1ZjZlNWM0OTMzOjU3MDE2</t>
+          <t>NDRhZmYxYjItOTQxZi00NTQ1LTk2M2MtMzEzYzY2ODdjODgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1875</v>
+        <v>2.52e+16</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3177,82 +3382,78 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OTlhNzk3NzYtZGMzZC00MzBjLTlkY2MtNTQ4YzQ4MGE2YWQ1OjU3MDE2</t>
+          <t>YjliMTk0ZmItMjE1NS00ZThlLTllZmQtZGE2YzJjMzlhZjhkOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NzQ3ZWZjY2YtNzk1MC00ZTI3LWI0NjItOTJmYWQ2YmQzOTY4OjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>600</v>
+        <v>9</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MTc3NWUyYTAtZjAxNy00NWQwLTg2ZTMtYWFiZjYzMzZhOWUzOjU3MDE2</t>
+          <t>YzhjOTU5ZmQtZGI4NS00ODE3LWEzOGYtYzNmODQwYmIyZjk0OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>680</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -3261,58 +3462,54 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NGMwNTQyYWMtNGNjZC00NjljLThlZWItMDYxMjg2NzkzMmJhOjU3MDE2</t>
+          <t>ZGE1ZTU2ZDgtMTE3OC00OTZhLTg2ZmYtM2QzMDBkODIxMjlmOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>855</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>ZTg2MzY3YjMtNGQ4Ni00MjViLWJhODQtNzk5OWM5NDgwY2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>855</v>
+        <v>204</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
+          <t>ZGU0YThiMzgtYjY1ZC00Y2I2LWI3MWItZjlkYjllN2Y1MzQ3OjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3321,17 +3518,13 @@
       <c r="C9" t="n">
         <v>18025</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TROCADO EM GARANTIA</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3349,42 +3542,38 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MTc3NGYwMDMtMzE3NS00YmU4LTgwMWMtYzdlOTU4YWYxOWE4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
+          <t>MTZhZjRmN2MtYTIzMC00OWFiLWIzNzAtMmFiZmRjMGMyZGM0OjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>350</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TROCADO EM GARANTIA</t>
-        </is>
-      </c>
+        <v>6445</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NjliMThkYjktMTc0Yy00OTg4LTg3OWMtNzEyZThiNjgyM2QzOjU3MDE2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>350</v>
+        <v>6445</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3393,38 +3582,38 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
+          <t>MjY4ZDZjNjItYzY0Mi00MzliLWJjYzEtM2E5ZjY1NTFiMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>6232</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
+          <t>ZjViZmRhN2QtZTFkMi00NmU4LWI4MjAtMDliMWEwODkwZTY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>3116</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3433,78 +3622,82 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
+          <t>NGM2OWY4ZDUtOGZhNC00OWVlLTgyOTAtNmE1MDQ5ZDc0YzVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1365</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1365</v>
+        <v>350</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
+          <t>Y2VjYzM3NTEtMTNjMi00OGEzLTlhMjMtZGM1OThiOTVkMWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>375</v>
+        <v>1875</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>OGIxODU3NTgtMGQwNS00YjNmLThmYTMtMDI1ZjZlNWM0OTMzOjU3MDE2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>375</v>
+        <v>1875</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3513,78 +3706,82 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MjFiNmI2MzctZGJjZS00NmYyLWI2YTQtMGU0NjE1NjgzZWFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
+          <t>OTlhNzk3NzYtZGMzZC00MzBjLTlkY2MtNTQ4YzQ4MGE2YWQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.152e+16</v>
+        <v>300</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
+          <t>NzQ3ZWZjY2YtNzk1MC00ZTI3LWI0NjItOTJmYWQ2YmQzOTY4OjU3MDE2</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.152e+16</v>
+        <v>600</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>Mjk3ZTYxNWMtNGVjYy00MjQ4LWEwNmYtZDY1NTBjMDg1NGYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
+          <t>MTc3NWUyYTAtZjAxNy00NWQwLTg2ZTMtYWFiZjYzMzZhOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>168</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>680</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3593,38 +3790,42 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
+          <t>NGMwNTQyYWMtNGNjZC00NjljLThlZWItMDYxMjg2NzkzMmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>700</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>350</v>
+        <v>855</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3633,38 +3834,42 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmE3ZThjNjktMTIyMy00MWQzLTk2N2QtNDc0Nzg4ZDJmYjAxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
+          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>350</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>18025</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>350</v>
+        <v>18025</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3673,38 +3878,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
+          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>85</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -3713,21 +3922,21 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
+          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
@@ -3740,11 +3949,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
+          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3760,14 +3969,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
+          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>18025</v>
+        <v>1365</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
@@ -3780,11 +3989,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>18025</v>
+        <v>1365</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3800,14 +4009,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
+          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>25625</v>
+        <v>375</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
@@ -3820,11 +4029,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>25625</v>
+        <v>375</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3840,14 +4049,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
+          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>182225</v>
+        <v>1.152e+16</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
@@ -3860,11 +4069,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
+          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>182225</v>
+        <v>1.152e+16</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3880,14 +4089,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
+          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>9940000000000000</v>
+        <v>168</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
@@ -3900,15 +4109,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9940000000000000</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3920,14 +4129,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
+          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2073</v>
+        <v>700</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
@@ -3940,15 +4149,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3960,14 +4169,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
+          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
@@ -3980,11 +4189,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -4000,14 +4209,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
+          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1578</v>
+        <v>85</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -4020,11 +4229,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1578</v>
+        <v>85</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -4040,71 +4249,71 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
+          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
+          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>85</v>
+        <v>18025</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>85</v>
+        <v>18025</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -4113,38 +4322,38 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
+          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1365</v>
+        <v>25625</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1365</v>
+        <v>25625</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -4153,38 +4362,38 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
+          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>350</v>
+        <v>182225</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>350</v>
+        <v>182225</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -4193,38 +4402,38 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
+          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>375</v>
+        <v>9940000000000000</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>375</v>
+        <v>9940000000000000</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -4233,14 +4442,14 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
+          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4251,11 +4460,11 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4273,34 +4482,34 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
+          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -4313,38 +4522,38 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
+          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>85</v>
+        <v>1578</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>85</v>
+        <v>1578</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -4353,29 +4562,29 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
+          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4393,38 +4602,38 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
+          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -4433,38 +4642,38 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
+          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>350</v>
+        <v>1365</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>350</v>
+        <v>1365</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -4473,38 +4682,38 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
+          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -4513,38 +4722,38 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
+          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2073</v>
+        <v>375</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2073</v>
+        <v>375</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -4553,38 +4762,38 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2502</v>
+        <v>2073</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2502</v>
+        <v>2073</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4593,21 +4802,21 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>6325</v>
+        <v>9</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
@@ -4620,11 +4829,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6325</v>
+        <v>9</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4640,31 +4849,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
+          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1793</v>
+        <v>85</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1793</v>
+        <v>85</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4673,38 +4882,34 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
+          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>350</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4717,38 +4922,38 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
+          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2841</v>
+        <v>375</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2841</v>
+        <v>375</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4757,38 +4962,38 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YmUzOThhOTAtNGYyYi00YmViLWJmYzUtNDJmYTA2NDg0OGRhOjU3MDE2</t>
+          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>660525</v>
+        <v>350</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MGY5YWI3Y2UtNWJiMC00ZWMwLTgyZjktNzU4Zjc0YmUyZDg3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>660525</v>
+        <v>350</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4797,38 +5002,38 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>350</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>350</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4837,38 +5042,38 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>18025</v>
+        <v>2073</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>18025</v>
+        <v>2073</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4877,23 +5082,347 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2502</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2502</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6325</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6325</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1793</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1793</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>350</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>350</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2841</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>YmUzOThhOTAtNGYyYi00YmViLWJmYzUtNDJmYTA2NDg0OGRhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>660525</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MGY5YWI3Y2UtNWJiMC00ZWMwLTgyZjktNzU4Zjc0YmUyZDg3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>660525</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>350</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>350</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
         <v>1700</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -4901,126 +5430,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="E56" t="n">
         <v>2</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H56" t="n">
         <v>1700</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
         <v>47370</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>2</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H57" t="n">
         <v>47370</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
         <v>1050</v>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
         <v>3</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H58" t="n">
         <v>1050</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
         <v>494677</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5038,429 +5567,101 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E59" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="H59" t="n">
         <v>494677</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>350</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>6</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>350</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>6</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>6</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>6</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>375</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>6</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>375</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>680</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>680</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>855</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>3</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>855</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>43</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>43</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>350</v>
+        <v>2073</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>350</v>
+        <v>2073</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5469,42 +5670,38 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>7375</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10000</v>
+        <v>7375</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5513,38 +5710,38 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>9</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5553,38 +5750,38 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>6325</v>
+        <v>375</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6325</v>
+        <v>375</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5593,118 +5790,126 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>375</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>350</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>350</v>
+        <v>855</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2502</v>
+        <v>43</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2502</v>
+        <v>43</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5713,38 +5918,38 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>8399999999999999</v>
+        <v>85</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8399999999999999</v>
+        <v>85</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5753,38 +5958,38 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5793,38 +5998,42 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>85</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>85</v>
+        <v>10000</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5833,21 +6042,21 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>700</v>
+        <v>9</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -5860,15 +6069,15 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5880,119 +6089,111 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>680</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>6325</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>680</v>
+        <v>6325</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>855</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>855</v>
+        <v>375</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -6001,38 +6202,38 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>6000000000000001</v>
+        <v>2502</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6000000000000001</v>
+        <v>2502</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -6041,38 +6242,38 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>3.8825e+16</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>3.8825e+16</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6081,38 +6282,38 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>2.1e+16</v>
+        <v>2073</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2.1e+16</v>
+        <v>2073</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6121,38 +6322,38 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>3e+16</v>
+        <v>85</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3e+16</v>
+        <v>85</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6161,38 +6362,38 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>47370</v>
+        <v>700</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>47370</v>
+        <v>350</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -6201,67 +6402,395 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>855</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>855</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>96</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>48</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
         <v>1700</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -6269,46 +6798,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="E89" t="n">
         <v>2</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H81" t="n">
+      <c r="H89" t="n">
         <v>1700</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
         <v>494677</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -6326,473 +6855,141 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="E90" t="n">
         <v>3</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H82" t="n">
+      <c r="H90" t="n">
         <v>494677</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
-        <v>3</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>6</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>375</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>6</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>375</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
-        <v>6</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>YjljMTRhODUtYzlmZC00ZjBhLWExZjMtYmExMTY2YzMzZWFiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>350</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>6</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>350</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ZWM2ZTEzNTktN2U5My00MjJiLWEwNmYtZmQ3ZTIxNTg1ZWNhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>6</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>5</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>823</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>310Km</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>5</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>70</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Enviado por Sedex10 de SP para DF</t>
-        </is>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>43</v>
+        <v>1050</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
+          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>908</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>350</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
+          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>6000000000000001</v>
+        <v>375</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6000000000000001</v>
+        <v>375</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -6801,38 +6998,38 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MTE2ZmIzMDUtYWVlNC00N2M1LWI2YWEtYmQ4ZmZmNDMyY2M5OjU3MDE2</t>
+          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>8399999999999999</v>
+        <v>7375</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>8399999999999999</v>
+        <v>7375</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -6841,78 +7038,78 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>M2E2MGI3YzMtNmIxZi00NGM4LWEyMzctNWUyNzcxODM0ZWM5OjU3MDE2</t>
+          <t>YjljMTRhODUtYzlmZC00ZjBhLWExZjMtYmExMTY2YzMzZWFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>YTQ3NzcxODMtYTBkNS00ZWUzLWJlYTQtYjMyNzI5MTRmODhhOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NGI5MDNkYWQtNzdhZC00NTM4LTgxNGItNzE4NDRjZWNlYmYxOjU3MDE2</t>
+          <t>ZWM2ZTEzNTktN2U5My00MjJiLWEwNmYtZmQ3ZTIxNTg1ZWNhOjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>9000000000000001</v>
+        <v>2073</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3e+16</v>
+        <v>2073</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -6921,38 +7118,38 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NTM1MTUxMDQtZGQxYi00ODQ4LWE2YmYtNGZkNDgxY2RlOWU2OjU3MDE2</t>
+          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>825</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
+          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>825</v>
+        <v>3.2215e+16</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -6961,78 +7158,86 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NTQ5YjVkYWItMzYyOS00ODg5LWIwOWEtODVjZDhlMWY3N2FkOjU3MDE2</t>
+          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>717</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>823</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>310Km</t>
+        </is>
+      </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>OWQzZDUyMzctNGVhYS00ZDcwLWIxYzQtNjJjM2VjYTEzYjJmOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>717</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NWE2NzVhZjgtYTQ5OC00NjgxLTkxNmYtNzc4YWZhMjZjZTNlOjU3MDE2</t>
+          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Enviado por Sedex10 de SP para DF</t>
+        </is>
+      </c>
       <c r="E99" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>7375</v>
+        <v>43</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -7041,67 +7246,67 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NjM4Y2JlY2EtMTNjZS00ZmRkLWJjMTQtZTU2OTZkMGE1NTM2OjU3MDE2</t>
+          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>96</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>908</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>N2I3ZTkxNTUtMWY0NC00MjhhLWIxZDctYWMxZTFhZWYxOGYxOjU3MDE2</t>
+          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>43</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Troca do Balde via correio</t>
-        </is>
-      </c>
+        <v>6000000000000001</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
         <v>16</v>
       </c>
@@ -7112,11 +7317,11 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>43</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -783,7 +783,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -703,13 +703,21 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Edina K O Mishima</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/1774f003-3175-4be8-801c-c7e958af19a8/signatures/650d7c22-e91c-4757-9ac9-9ad5beab0def.png</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>2025-11-11T15:48:38.327Z</t>
@@ -742,7 +750,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3277,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MDQ3NjBjMzQtM2Y3ZS00M2JiLTljYTQtMjY1ZGQ2MTEwMjg4OjU3MDE2</t>
+          <t>MDU3Zjg5ODMtM2E3Mi00NDM4LWIyODctOGNkNDhiZTkyZjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3309,14 +3317,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>N2RkY2JhMTgtZTdiOC00MWVlLTkxOGYtMTNhNzUwYWIwMWNmOjU3MDE2</t>
+          <t>MDgwZWUyMTktODkzYi00ZTlmLTkwYmEtMjkzOTdiZDA0YWM1OjU3MDE2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -3329,11 +3337,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>YmVjYmU1OWUtZDQ0Zi00ZWNlLTgxZWMtNDA5MDk3NjNlMGM0OjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3349,14 +3357,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OTA4NmRmOTktNTYwOS00NzIwLWI5YzAtNjI5MTU0NTZhZGE0OjU3MDE2</t>
+          <t>MGE0MDEzNzktZGQyZi00NTllLWIwMmMtOWVmZDEwODUyZmU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2.52e+16</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
@@ -3369,11 +3377,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NDRhZmYxYjItOTQxZi00NTQ1LTk2M2MtMzEzYzY2ODdjODgyOjU3MDE2</t>
+          <t>YmVjYmU1OWUtZDQ0Zi00ZWNlLTgxZWMtNDA5MDk3NjNlMGM0OjU3MDE2</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.52e+16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3389,14 +3397,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YjliMTk0ZmItMjE1NS00ZThlLTllZmQtZGE2YzJjMzlhZjhkOjU3MDE2</t>
+          <t>NmI4ZjZmNGQtODZhYi00YmRkLTk5NWEtNjk3YjdkOTA4YmRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>2.52e+16</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -3409,11 +3417,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>NDRhZmYxYjItOTQxZi00NTQ1LTk2M2MtMzEzYzY2ODdjODgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2.52e+16</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3429,14 +3437,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YzhjOTU5ZmQtZGI4NS00ODE3LWEzOGYtYzNmODQwYmIyZjk0OjU3MDE2</t>
+          <t>OWVmOTBjMjAtMDY3Zi00YWEyLWFjMjEtNGE3YmRkMjY3ZWQ5OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>350</v>
+        <v>204</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
@@ -3449,15 +3457,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZTg2MzY3YjMtNGQ4Ni00MjViLWJhODQtNzk5OWM5NDgwY2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>350</v>
+        <v>204</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3469,14 +3477,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZGE1ZTU2ZDgtMTE3OC00OTZhLTg2ZmYtM2QzMDBkODIxMjlmOjU3MDE2</t>
+          <t>ZDU2NGE2M2EtYmE1OS00ZjRmLThhNDgtMjIxMjYzNzliNDZhOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -3489,15 +3497,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ZTg2MzY3YjMtNGQ4Ni00MjViLWJhODQtNzk5OWM5NDgwY2Q3OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3509,7 +3517,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZGU0YThiMzgtYjY1ZC00Y2I2LWI3MWItZjlkYjllN2Y1MzQ3OjU3MDE2</t>
+          <t>ZTZlYTVkODUtZTkwMy00MWE0LWJiNmYtYTM0NGM4NGM2YTkyOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="n">

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,20 +1643,113 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SYHCI3OLWE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FRANCESCO DE TOMMASO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-11-24T15:13:20.559Z</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2025-11-17T15:14:20.735Z</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1665,7 +1758,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1674,106 +1767,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1783,20 +1787,20 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1817,7 +1821,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1829,36 +1833,40 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1868,27 +1876,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1906,7 +1910,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1918,32 +1922,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1953,7 +1961,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1966,12 +1974,12 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1991,7 +1999,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2003,40 +2011,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2059,10 +2059,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2080,7 +2084,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2092,36 +2096,40 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2131,7 +2139,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2144,14 +2152,10 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2169,7 +2173,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2181,70 +2185,66 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2252,88 +2252,92 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2341,44 +2345,44 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2387,46 +2391,42 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2444,67 +2444,79 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-09-04T16:07:52.834Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2525,75 +2537,67 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2614,74 +2618,78 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2699,32 +2707,117 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2732,7 +2825,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2740,106 +2833,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2849,7 +2853,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2862,10 +2866,14 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2883,7 +2891,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -2895,22 +2903,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BKODRN5YZX</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2919,12 +2927,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2934,27 +2942,23 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:36.746Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-11-06T15:27:46.917Z</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2972,7 +2976,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2984,22 +2988,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SYSJ0HARXL</t>
+          <t>BKODRN5YZX</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RIO 40 BANQUETERIA &amp; SERVICOS DE LOGISTICA LTDA</t>
+          <t>MAQUINA 03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Necessário a troca da fonte, diagnostico realizado pelo Eduardo Delphino.</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -3008,12 +3012,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2123.15</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3023,7 +3027,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-11-04T13:33:37.491Z</t>
+          <t>2025-11-13T15:27:36.746Z</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -3036,10 +3040,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-10-28T14:06:21.222Z</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+          <t>2025-11-06T15:27:46.917Z</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -3057,105 +3065,12 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>NDgyMTM3Mjo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
           <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SJH_RHL1BL</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>08857771741 - VIKTOR CHAGAS Orçamento para balde TFK 2Kg</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Faremos o envio de um novo balde e componentes para TFK 2kg</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>511.65999999999997</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>511.65999999999997</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Aprovada</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2025-11-10T14:43:09.194Z</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Viktor Chagas</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/cd11dd30-d3a2-4b5d-86e1-b7227ae83528/signatures/a288c6fe-a015-4ab6-8ff4-5716e239b3f1.png</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>2025-11-03T15:08:36.141Z</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>MzkzMzA3Mjo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>approved</t>
         </is>
       </c>
     </row>
@@ -5421,16 +5336,296 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>MTY2NjMxNTAtYWUyMi00YzY2LTgwNDYtYTkzZTgzODgxNGQ4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>350</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>350</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MWM2N2JjOTQtYTFlYy00YjM5LTg5MjctNThkNjNhNGVkNWRkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1086</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NjYzOTVlNjEtODVjOC00YmY4LTljNjEtODljNGZjNDM5OWY2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>350</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>350</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NmY5NWU4YjctMTU4NC00NzJiLTgwODctMjkyYjg3NGY5ODU3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3795</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3795</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Yzg5MTQ4NTgtZjZhZS00M2VjLWI2OGItNGY0ZTA3YzYwM2E4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ZGI4ODAzMmQtZTAzYS00YmQ5LWJmMjUtNjk1ZGUwODliNzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.68e+16</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ZjQ5NjJjZjctN2U2ZS00ZWE3LTkwY2ItZWIxNjFlODE2YzNkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
         <v>1700</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -5438,126 +5633,126 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="E63" t="n">
         <v>2</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="H63" t="n">
         <v>1700</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
         <v>47370</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
         <v>2</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="H64" t="n">
         <v>47370</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
         <v>1050</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="H65" t="n">
         <v>1050</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
         <v>494677</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5575,389 +5770,101 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>494677</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>350</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>6</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>350</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>6</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>6</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>6</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>375</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>6</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>375</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>680</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>680</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>855</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
       <c r="E66" t="n">
         <v>3</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>855</v>
+        <v>494677</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5966,38 +5873,38 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>350</v>
+        <v>7375</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>350</v>
+        <v>7375</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6006,42 +5913,38 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>10000</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6050,38 +5953,38 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6090,118 +5993,126 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>6325</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>6325</v>
+        <v>680</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>375</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>375</v>
+        <v>855</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -6210,38 +6121,38 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>2502</v>
+        <v>85</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2502</v>
+        <v>85</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -6250,38 +6161,38 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6290,38 +6201,42 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2073</v>
+        <v>10000</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6330,21 +6245,21 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -6357,11 +6272,11 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6377,14 +6292,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>700</v>
+        <v>6325</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
@@ -6397,15 +6312,15 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>350</v>
+        <v>6325</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6417,119 +6332,111 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>680</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>680</v>
+        <v>375</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>855</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>855</v>
+        <v>350</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>96</v>
+        <v>2502</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>48</v>
+        <v>2502</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6538,38 +6445,38 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>6000000000000001</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>6000000000000001</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6578,38 +6485,38 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>3.8825e+16</v>
+        <v>2073</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3.8825e+16</v>
+        <v>2073</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6618,38 +6525,38 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>2.1e+16</v>
+        <v>85</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2.1e+16</v>
+        <v>85</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6658,78 +6565,82 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>3e+16</v>
+        <v>700</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3e+16</v>
+        <v>350</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>47370</v>
+        <v>680</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6738,67 +6649,351 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>96</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>48</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6000000000000001</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>6</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3.8825e+16</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3e+16</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
         <v>1700</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -6806,46 +7001,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="E96" t="n">
         <v>2</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H89" t="n">
+      <c r="H96" t="n">
         <v>1700</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
         <v>494677</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -6863,345 +7058,61 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="E97" t="n">
         <v>3</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="H97" t="n">
         <v>494677</v>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>3</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="n">
-        <v>6</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>375</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="n">
-        <v>6</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>375</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="n">
-        <v>6</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>YjljMTRhODUtYzlmZC00ZjBhLWExZjMtYmExMTY2YzMzZWFiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>350</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="n">
-        <v>6</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>350</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ZWM2ZTEzNTktN2U5My00MjJiLWEwNmYtZmQ3ZTIxNTg1ZWNhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MTQxOTJiNWMtNDEzNy00OGRjLWI0MTAtYzVmNjc5MzMxMTc0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="n">
-        <v>5</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>YzE3ODc3ODEtMmY2MC00ZTQzLWI4MjgtYThhOTUwNDcwOTg3OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>3.2215e+16</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>YjVlY2MzNWMtYmFjNS00ZjE4LWE3MGItMTliMzcxNjBlZGUwOjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>823</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>310Km</t>
-        </is>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1050</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -7210,42 +7121,38 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ZGVmNWU3MTktM2EyZC00YzU1LTk5NjAtMDgwMzBlMzllMTQ1OjU3MDE2</t>
+          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>70</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Enviado por Sedex10 de SP para DF</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>43</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -7254,82 +7161,78 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ZjY0OGYwYmMtYjJhZS00OGU4LTlhZGYtOGExMjBjOTczMjFiOjU3MDE2</t>
+          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>908</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Y2NiZmExNzEtYmRiYy00Mzg3LWIyYjgtZjUzZDU0NGE1MGQzOjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MDBjZmRmOTktOTUwZC00YzM2LTg0N2MtZGNkNGNlZGQ5YWM4OjU3MDE2</t>
+          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>6000000000000001</v>
+        <v>7375</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>6000000000000001</v>
+        <v>7375</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -7338,7 +7241,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Y2QxMWRkMzAtZDNhMi00YjVkLTg2ZTEtYjcyMjdhZTgzNTI4OjU3MDE2</t>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
@@ -1736,20 +1736,110 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SKD1SV5XZX</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE ROSANA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Referente a  transformação de 1 maquina composteira no valor total de R$ 3.000,00, de tensão 380V- trifasico, para 220V/trifasico. 
+As outras 02 são 220v</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-11-25T21:47:25.554Z</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2025-11-18T21:53:35.934Z</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NjYwZjY1NTAtNjFmZS00N2NmLTlmZTktMzY2ZWVjNmViZGJmOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>NTgwMDkyOTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1758,7 +1848,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1767,106 +1857,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1876,20 +1877,20 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1910,7 +1911,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1922,36 +1923,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1961,27 +1966,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:27:17.728Z</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -1999,7 +2000,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2011,32 +2012,36 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2046,7 +2051,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2059,12 +2064,12 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2084,7 +2089,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2096,40 +2101,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2139,7 +2136,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2152,10 +2149,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2173,7 +2174,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2185,36 +2186,40 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2224,7 +2229,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2237,14 +2242,10 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2262,7 +2263,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2274,70 +2275,66 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2345,88 +2342,92 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2434,44 +2435,44 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2480,46 +2481,42 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2537,67 +2534,79 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-09-04T16:07:52.834Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2618,75 +2627,67 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2707,74 +2708,78 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2792,32 +2797,117 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2825,7 +2915,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2833,106 +2923,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2942,7 +2943,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2955,10 +2956,14 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2976,7 +2981,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2988,22 +2993,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BKODRN5YZX</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -3012,12 +3017,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3027,48 +3032,133 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:36.746Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BKODRN5YZX</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Autorizado por João</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>490.38</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>490.38</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-11-13T15:27:36.746Z</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>2025-11-06T15:27:46.917Z</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -5616,16 +5706,60 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>MzkwMmU1MjMtZGQ5ZC00ZjEzLWIxZjItNTM4MThiODRhODY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Transformaçao 380V- trifasico, para 220V/trifasico</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NDk0NTM0YTgtOGM0MC00ZTYwLWJhNDAtMzMxNDRiZjA3ZGY4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
         <v>1700</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -5633,61 +5767,21 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1700</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>47370</v>
+        <v>1700</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5696,38 +5790,38 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+          <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1050</v>
+        <v>47370</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1050</v>
+        <v>47370</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5736,23 +5830,63 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
         <v>494677</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5770,84 +5904,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="E67" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="H67" t="n">
         <v>494677</v>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>350</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>6</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>350</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -5860,15 +5954,15 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5880,14 +5974,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>7375</v>
+        <v>2073</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
@@ -5900,11 +5994,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7375</v>
+        <v>2073</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5920,14 +6014,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>8399999999999999</v>
+        <v>7375</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -5940,11 +6034,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>8399999999999999</v>
+        <v>7375</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5960,14 +6054,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -5980,11 +6074,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6000,62 +6094,58 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>680</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>680</v>
+        <v>375</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -6068,11 +6158,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6088,54 +6178,58 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>43</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>43</v>
+        <v>855</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -6148,11 +6242,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -6168,14 +6262,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -6188,11 +6282,11 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6208,35 +6302,31 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6245,38 +6335,42 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>10000</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6285,21 +6379,21 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>6325</v>
+        <v>9</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
@@ -6312,11 +6406,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>6325</v>
+        <v>9</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -6332,14 +6426,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>375</v>
+        <v>6325</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
@@ -6352,11 +6446,11 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>375</v>
+        <v>6325</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -6372,14 +6466,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
@@ -6392,11 +6486,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -6412,14 +6506,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>2502</v>
+        <v>350</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
@@ -6432,11 +6526,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2502</v>
+        <v>350</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6452,14 +6546,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>8399999999999999</v>
+        <v>2502</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
@@ -6472,11 +6566,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>8399999999999999</v>
+        <v>2502</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6492,14 +6586,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>2073</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
@@ -6512,11 +6606,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>2073</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6532,14 +6626,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -6552,11 +6646,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6572,14 +6666,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>700</v>
+        <v>85</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
@@ -6592,15 +6686,15 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6612,35 +6706,31 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>680</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6649,25 +6739,25 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -6680,11 +6770,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>855</v>
+        <v>680</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6700,54 +6790,58 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>96</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>48</v>
+        <v>855</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>6000000000000001</v>
+        <v>96</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
@@ -6760,11 +6854,11 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>6000000000000001</v>
+        <v>48</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -6780,14 +6874,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>3.8825e+16</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
@@ -6800,11 +6894,11 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3.8825e+16</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -6820,14 +6914,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>2.1e+16</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
@@ -6840,11 +6934,11 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2.1e+16</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6860,14 +6954,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>3e+16</v>
+        <v>2.1e+16</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
@@ -6880,11 +6974,11 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>3e+16</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -6900,100 +6994,140 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>47370</v>
+        <v>3e+16</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>47370</v>
+        <v>3e+16</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>47370</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
         <v>2</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>47370</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
         <v>1700</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -7001,46 +7135,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="E97" t="n">
         <v>2</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="H97" t="n">
         <v>1700</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
         <v>494677</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -7058,46 +7192,6 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>3</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>494677</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
         <v>3</v>
       </c>
@@ -7108,15 +7202,15 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1050</v>
+        <v>494677</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7128,54 +7222,54 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>8399999999999999</v>
+        <v>1050</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>8399999999999999</v>
+        <v>1050</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
+          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
@@ -7188,11 +7282,11 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>375</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -7208,14 +7302,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ODI1NWRlYjYtYTg0Yy00ZDhlLTk0MmEtZjNkYWEzZWYyYTVjOjU3MDE2</t>
+          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>7375</v>
+        <v>375</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
@@ -7228,11 +7322,11 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>7375</v>
+        <v>375</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1689,7 +1689,11 @@
           <t>2025-11-24T15:13:20.559Z</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-11-24T14:45:19.000Z</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
@@ -1729,7 +1733,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>refused</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1775,7 +1775,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -2016,22 +2016,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>HJCRTZS--G</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
+          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -2040,42 +2040,46 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>484</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>484</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-12-08T12:21:25.404Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>douglas simao</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/6b2b07ff-cb70-450b-bc03-538da26b5fb0/signatures/82045e1d-cc6f-45af-a3f3-2c6a0906455d.png</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-12-01T12:28:02.404Z</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2093,44 +2097,48 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDUwNzM2Mzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2140,7 +2148,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2153,12 +2161,12 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2178,7 +2186,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2190,40 +2198,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2246,10 +2246,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2267,7 +2271,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2279,36 +2283,40 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2318,7 +2326,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2331,14 +2339,10 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2356,7 +2360,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2368,70 +2372,66 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2439,88 +2439,92 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2528,44 +2532,44 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2574,46 +2578,42 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2631,67 +2631,79 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-09-04T16:07:52.834Z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2712,75 +2724,67 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2801,74 +2805,78 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2886,32 +2894,117 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SK7IYQDNA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Expirada</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-09-12T20:48:10.536Z</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2024-09-05T20:49:15.417Z</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>NDIxMTExMTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>HJE6OUN5LE</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2919,7 +3012,7 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -2927,106 +3020,17 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3036,7 +3040,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-09-15T21:48:09.008Z</t>
+          <t>2025-09-09T13:53:17.012Z</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -3049,10 +3053,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+          <t>2025-09-02T14:01:32.021Z</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -3070,7 +3078,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3082,22 +3090,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BKODRN5YZX</t>
+          <t>BYOHBAHQXX</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -3106,12 +3114,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3121,27 +3129,23 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:36.746Z</t>
+          <t>2025-09-15T21:48:09.008Z</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-11-06T15:27:46.917Z</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-09-08T21:59:15.256Z</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -3159,7 +3163,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -5841,31 +5845,35 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+          <t>NzVmMDU4ODAtZTJiMi00MmFlLTgzZmItYTJlYmYwY2EyNTgxOjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C66" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>67Km de distancia</t>
+        </is>
+      </c>
       <c r="E66" t="n">
         <v>3</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1050</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5874,23 +5882,107 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>ZDQ0NDkzNjgtNjE2MS00YjRkLWEyNWUtOTdkOGFiMjFiMjVjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>350</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Visita técnica</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NWVmNmQ0MDEtNzBmMy00Yzg3LWFlZDAtYzJiYTM1MTc4OWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>350</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
         <v>494677</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5908,124 +6000,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="E69" t="n">
         <v>3</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="H69" t="n">
         <v>494677</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>350</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>6</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>350</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>6</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -6038,15 +6050,15 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6058,14 +6070,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>8399999999999999</v>
+        <v>2073</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -6078,11 +6090,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>8399999999999999</v>
+        <v>2073</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6098,14 +6110,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>375</v>
+        <v>7375</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
@@ -6118,11 +6130,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>375</v>
+        <v>7375</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6138,182 +6150,182 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>680</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>680</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>855</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>855</v>
+        <v>375</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>43</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>43</v>
+        <v>680</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>85</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>85</v>
+        <v>855</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -6326,11 +6338,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6346,35 +6358,31 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>10000</v>
+        <v>85</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6383,38 +6391,38 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -6423,38 +6431,42 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>6325</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>6325</v>
+        <v>10000</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -6463,21 +6475,21 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>375</v>
+        <v>9</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
@@ -6490,11 +6502,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>375</v>
+        <v>9</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -6510,14 +6522,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>350</v>
+        <v>6325</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
@@ -6530,11 +6542,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>350</v>
+        <v>6325</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6550,14 +6562,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>2502</v>
+        <v>375</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
@@ -6570,11 +6582,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2502</v>
+        <v>375</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6590,14 +6602,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
@@ -6610,11 +6622,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>8399999999999999</v>
+        <v>350</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6630,14 +6642,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>2073</v>
+        <v>2502</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -6650,11 +6662,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2073</v>
+        <v>2502</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6670,14 +6682,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>85</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
@@ -6690,11 +6702,11 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>85</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6710,14 +6722,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>700</v>
+        <v>2073</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
@@ -6730,15 +6742,15 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>350</v>
+        <v>2073</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6750,79 +6762,71 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>680</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>855</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>855</v>
+        <v>350</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -6831,101 +6835,109 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>96</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>48</v>
+        <v>680</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>6000000000000001</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>6000000000000001</v>
+        <v>855</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>3.8825e+16</v>
+        <v>96</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
@@ -6938,11 +6950,11 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3.8825e+16</v>
+        <v>48</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6958,14 +6970,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>2.1e+16</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
@@ -6978,11 +6990,11 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>2.1e+16</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -6998,14 +7010,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>3e+16</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
@@ -7018,11 +7030,11 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3e+16</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -7038,75 +7050,71 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>47370</v>
+        <v>2.1e+16</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>47370</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>3e+16</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>3e+16</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -7115,23 +7123,107 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ORCAMENTO REALIZADO PELO BLING</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
         <v>1700</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -7139,46 +7231,46 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E97" t="n">
+      <c r="E99" t="n">
         <v>2</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="H99" t="n">
         <v>1700</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
         <v>494677</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -7196,150 +7288,70 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="E100" t="n">
         <v>3</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H98" t="n">
+      <c r="H100" t="n">
         <v>494677</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="n">
-        <v>3</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>NTdmZWE4N2QtMTU1Zi00OWNhLWJlMTItOGM0NDlhOGEzM2I0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="n">
-        <v>6</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NjdlODg4ZTMtZThiOC00MjM3LWE4ZGUtNjk4MWVlYzhiZDk4OjU3MDE2</t>
+          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>375</v>
+        <v>1050</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>375</v>
+        <v>1050</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>YjAxZDM1OWMtMzEzYi00NzFkLWFlNmEtOTQ2NmY4N2NiZGU2OjU3MDE2</t>
+          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,42 +1024,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RYUVNWH3EG</t>
+          <t>SKYBOA3Z-G</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>FRANCESCO DE TOMMASO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>988.85</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>988.85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-10-09T21:18:04.630Z</t>
+          <t>2025-12-09T21:20:29.860Z</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1072,12 +1080,12 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-10-02T21:19:25.794Z</t>
+          <t>2025-12-02T21:20:54.686Z</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1097,88 +1105,72 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>NDcxNTkzODo1NzAxNg==</t>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HJ0GXQO2EG</t>
+          <t>RYUVNWH3EG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JOANA DARC OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Orçamento  para reforma de TFK 02 kg</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Reforma</t>
-        </is>
-      </c>
+          <t>GARANTIA/61012019000142 - ASSOCIAÇÃO BRASILEIRA IJCSUD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2167.29</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-10-06T13:42:48.402Z</t>
+          <t>2025-10-09T21:18:04.630Z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joana D’Arc Oliveira </t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-09-29T15:17:10.234Z</t>
+          <t>2025-10-02T21:19:25.794Z</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
+          <t>OGUzZjA5OGMtMTdlNy00MDY3LTllYjQtMzhmMWNhZGM4NjNmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1198,72 +1190,88 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MzM3ODI5ODo1NzAxNg==</t>
+          <t>NDcxNTkzODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HYTE7IDHEX</t>
+          <t>HJ0GXQO2EG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAQUINA 02</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>JOANA DARC OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Orçamento  para reforma de TFK 02 kg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Reforma</t>
+        </is>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>979.73</t>
+          <t>2167.29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-10-06T18:41:42.725Z</t>
+          <t>2025-10-06T13:42:48.402Z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joana D’Arc Oliveira </t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/336279a3-e397-43dd-b3ef-8d0f677e97af/signatures/e23e6b48-ded8-4f36-a055-55d66d4bbb0d.png</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-09-29T18:42:56.833Z</t>
+          <t>2025-09-29T15:17:10.234Z</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>YTExMmFkNDktMjYyZi00NWVhLWE0Y2YtMjIyZGY1MDc0MjJhOjU3MDE2</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1283,29 +1291,29 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzM3ODI5ODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SYLVG8O3EG</t>
+          <t>HYTE7IDHEX</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>MAQUINA 02</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1315,12 +1323,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>979.73</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1330,7 +1338,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-10-06T18:34:31.188Z</t>
+          <t>2025-10-06T18:41:42.725Z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1343,7 +1351,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-09-29T18:38:37.635Z</t>
+          <t>2025-09-29T18:42:56.833Z</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1380,17 +1388,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJFPMUNTXG</t>
+          <t>SYLVG8O3EG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1400,12 +1408,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1415,7 +1423,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-10-15T21:09:42.233Z</t>
+          <t>2025-10-06T18:34:31.188Z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1428,12 +1436,12 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-10-08T21:12:33.362Z</t>
+          <t>2025-09-29T18:38:37.635Z</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1453,7 +1461,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NDgzNDc2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1465,17 +1473,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SY9I6QSJBE</t>
+          <t>BJFPMUNTXG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>45246402000532 - CENTER NORTE S/A CONSTRUCA</t>
+          <t>MIX SOLUCOES AMBIENTAIS LTDA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1485,12 +1493,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>660.525</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>660.525</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1500,7 +1508,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-11-14T16:10:10.258Z</t>
+          <t>2025-10-15T21:09:42.233Z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1513,12 +1521,12 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-11-07T16:26:09.914Z</t>
+          <t>2025-10-08T21:12:33.362Z</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>ZjA3NDk4MWMtM2JiMy00YjVkLTliNTgtYjE3ODFjNjczYmQzOjU3MDE2</t>
+          <t>OTUxMWZiNzEtYjliOC00NTg4LWE5MTAtZmI2ZmQxZmZlZmNlOjU3MDE2</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1538,7 +1546,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>NDE3MTYzNjo1NzAxNg==</t>
+          <t>NDgzNDc2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1550,40 +1558,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BYCZRKIPEL</t>
+          <t>SY9I6QSJBE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GARANTIA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>garantia</t>
-        </is>
-      </c>
+          <t>45246402000532 - CENTER NORTE S/A CONSTRUCA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>660.525</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>660.525</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-10-17T12:48:39.389Z</t>
+          <t>2025-11-14T16:10:10.258Z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1606,12 +1606,12 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-10-10T13:07:18.487Z</t>
+          <t>2025-11-07T16:26:09.914Z</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+          <t>ZjA3NDk4MWMtM2JiMy00YjVkLTliNTgtYjE3ODFjNjczYmQzOjU3MDE2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>NDgyMzMyODo1NzAxNg==</t>
+          <t>NDE3MTYzNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1643,27 +1643,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SYHCI3OLWE</t>
+          <t>BYCZRKIPEL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
+          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+          <t>GARANTIA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+          <t>garantia</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -1671,29 +1671,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-11-24T15:13:20.559Z</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-11-24T14:45:19.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-17T12:48:39.389Z</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
@@ -1703,12 +1699,12 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-11-17T15:14:20.735Z</t>
+          <t>2025-10-10T13:07:18.487Z</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1728,122 +1724,219 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>NDgyMzMyODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SYHCI3OLWE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FRANCESCO DE TOMMASO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Recusada</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-11-24T15:13:20.559Z</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-11-24T14:45:19.000Z</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2025-11-17T15:14:20.735Z</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>SKD1SV5XZX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>PREFEITURA MUNICIPAL DE ROSANA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Referente a  transformação de 1 maquina composteira no valor total de R$ 3.000,00, de tensão 380V- trifasico, para 220V/trifasico. 
 As outras 02 são 220v</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="b">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2025-11-25T21:47:25.554Z</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>2025-11-18T21:53:35.934Z</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>NjYwZjY1NTAtNjFmZS00N2NmLTlmZTktMzY2ZWVjNmViZGJmOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>NTgwMDkyOTo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1852,7 +1945,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1861,106 +1954,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1970,20 +1974,20 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2004,7 +2008,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2016,67 +2020,63 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HJCRTZS--G</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-12-08T12:21:25.404Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>douglas simao</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/6b2b07ff-cb70-450b-bc03-538da26b5fb0/signatures/82045e1d-cc6f-45af-a3f3-2c6a0906455d.png</t>
-        </is>
-      </c>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-12-01T12:28:02.404Z</t>
+          <t>2025-08-08T18:27:17.728Z</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -2097,34 +2097,34 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDUwNzM2Mzo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>HJCRTZS--G</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
+          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2133,42 +2133,46 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>484</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>484</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-12-08T12:21:25.404Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>douglas simao</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/6b2b07ff-cb70-450b-bc03-538da26b5fb0/signatures/82045e1d-cc6f-45af-a3f3-2c6a0906455d.png</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-12-01T12:28:02.404Z</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2186,44 +2190,48 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDUwNzM2Mzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>OUTBACK MORUMBI</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reforma de Estufa Airflow danificada</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2233,7 +2241,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2246,12 +2254,12 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2271,7 +2279,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2283,40 +2291,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2339,10 +2339,14 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2360,7 +2364,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2372,36 +2376,40 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2411,7 +2419,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2424,14 +2432,10 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2449,7 +2453,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2461,70 +2465,66 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2532,88 +2532,92 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2621,44 +2625,44 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2667,46 +2671,42 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2724,67 +2724,79 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BKMVCD56XX</t>
+          <t>S1SWKWAKXG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40.894999999999996</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-10-20T12:54:09.917Z</t>
+          <t>2025-09-04T16:07:52.834Z</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>rffccfc</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-10-13T13:10:02.576Z</t>
+          <t>2025-08-28T16:10:11.398Z</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2805,75 +2817,67 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HYICEAM_GE</t>
+          <t>BKMVCD56XX</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
+          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>40.894999999999996</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-20T12:54:09.917Z</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-08-08T18:23:10.037Z</t>
+          <t>2025-10-13T13:10:02.576Z</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2894,74 +2898,78 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyNTIyNjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SK7IYQDNA</t>
+          <t>HYICEAM_GE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Compressores Salobo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Substituição de 3 compressores</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Recusada</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2024-09-12T20:48:10.536Z</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>2025-08-15T18:20:20.020Z</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2025-08-08T18:24:47.000Z</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
+          <t>RAFAEL BARBOZA</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2024-09-05T20:49:15.417Z</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Zjc2MWE3MWQtNDExOS00NDVmLWFkZmUtNzNlY2M3NmMwNGEyOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-08T18:23:10.037Z</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2979,196 +2987,12 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>NDIxMTExMTo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HJE6OUN5LE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Bayer Uberlandia</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Cliente informa: equipamento nao gela
-Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
-Diagnostico do  tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo do  nitrogenio que vai utlizado + laudo de garrafa  maçarico e caneta (laudo )  para poder entrar com esses produtos para realizaçao do atendimento 
-senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Cliente informa: equipamento nao gela
-Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
-Diagnostico tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo nitrogenio, maçarico (laudo da garrafa) e caneta para poder entrar com esses produtos para realizaçao do atendimento 
-senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
-        </is>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2025-09-09T13:53:17.012Z</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:01:32.021Z</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>MTk4MjI5MTUtMDk1NC00NWFhLWE0NmEtMWJlMWZkYzdjMGVmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BYOHBAHQXX</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>OUTBACK MORUMBI</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Reforma de Estufa Airflow danificada</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>5996.77</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>5996.77</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2025-09-15T21:48:09.008Z</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>2025-09-08T21:59:15.256Z</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>expired</t>
+          <t>refused</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3686,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
+          <t>Mzc3ZTNkYTUtZTdkZC00YjBlLWFmMjEtMjhhMDkzNDk0YzY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3871,17 +3695,13 @@
       <c r="C17" t="n">
         <v>18025</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TROCADO EM GARANTIA</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3899,14 +3719,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
+          <t>Njc1OGZkOTMtZmI5Ny00NDJiLWI1NzItOWE5OTYxYTgzMzE3OjU3MDE2</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3915,17 +3735,13 @@
       <c r="C18" t="n">
         <v>350</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>TROCADO EM GARANTIA</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3943,38 +3759,38 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
+          <t>ZGZmZDFlYzMtNGE2Yi00YzFhLWI3YmYtM2Y5ZjBhMjhlMTIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>1086</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>50</v>
+        <v>1086</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3983,78 +3799,82 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
+          <t>ZjRkMzBkN2ItMTVhNC00MGI0LWI0N2MtYzcyM2QzM2U3ZDkyOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1365</v>
+        <v>350</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1365</v>
+        <v>350</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MmVmNGI5OTItYjEwZC00ZTQyLTg5MTgtMDViOTJhNTc1MTI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
+          <t>NGRlMTM3N2EtNzUwNC00YmUyLThmZjItMDQxZTc1ZDNjODRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>375</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>18025</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>375</v>
+        <v>18025</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4063,38 +3883,42 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
+          <t>NmQ1MDliODYtNGYyYy00YTNiLTk1YWEtYmM0MTZhNDBkNTY1OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1.152e+16</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TROCADO EM GARANTIA</t>
+        </is>
+      </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.152e+16</v>
+        <v>350</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4103,21 +3927,21 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
+          <t>MzIzZWEzMjQtNDVjMi00Zjg5LTg0NmUtYzBiZjYwMTE4NjhiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
+          <t>MDFmODQ2OWUtMmMyMC00NzEwLWE4NTEtMmFkOWFjYjRlYjQ2OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
@@ -4130,15 +3954,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+          <t>NDUwZmFlOTEtODg1My00ZTcwLWIwOTgtZWM2Nzc3MzgzNjgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4150,14 +3974,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
+          <t>MjhmNDNmYjAtZjgzMi00MThiLWEyNTAtZWVlODc0ZjQxYzliOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>700</v>
+        <v>1365</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
@@ -4170,15 +3994,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>350</v>
+        <v>1365</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4190,14 +4014,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
+          <t>MmQyOGU2OWYtM2IzOS00ZjYwLWJmYTctYmViYTY2M2UxNzdjOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
@@ -4210,11 +4034,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -4230,14 +4054,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
+          <t>MzVjNDRmYjctMTI1My00NDg3LThlNmUtOWZhN2YyYWMyNjg3OjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>85</v>
+        <v>1.152e+16</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -4250,11 +4074,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>NDM0MjA4NTAtZjAwOC00YzMyLWJlM2QtODFlMzljMjE0OTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>85</v>
+        <v>1.152e+16</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -4270,14 +4094,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
+          <t>NDNkMGNjZmMtMjFmMS00NjQyLWI4OWYtYTk4ODg2NjkxMjcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C27" t="n">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
@@ -4290,15 +4114,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4310,14 +4134,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
+          <t>NDRlYzI5NjAtMTZmYi00MzM3LWEzZTEtNGJmOTg0Y2Y1MzFhOjU3MDE2</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>18025</v>
+        <v>700</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
@@ -4330,15 +4154,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4350,14 +4174,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
+          <t>N2NjNjliYTAtNTVlZi00NjNmLThkMmUtZGMzYzIyZjRhM2FiOjU3MDE2</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>25625</v>
+        <v>350</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
@@ -4370,11 +4194,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>25625</v>
+        <v>350</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -4390,14 +4214,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
+          <t>OTg0ZDY5MWUtZTJiZS00NmM0LTg1OGMtNDQ1ZTMwMmY2MWE3OjU3MDE2</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>182225</v>
+        <v>85</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
@@ -4410,11 +4234,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>182225</v>
+        <v>85</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -4430,14 +4254,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
+          <t>OWRkMWJkNWQtMjE5Yy00OTY0LWExNzYtZTI4YzkyN2Q4ODdlOjU3MDE2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>9940000000000000</v>
+        <v>72</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
@@ -4450,11 +4274,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
+          <t>Y2FjZGRiY2YtOTQ5NS00NDIyLWE4ODctYjk4ZGUxNjU1MzMyOjU3MDE2</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9940000000000000</v>
+        <v>18</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -4470,14 +4294,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
+          <t>YTAxNDZjNzgtMDljZi00ZGQ4LTkwOTItZmM5N2QyNzM3MGEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2073</v>
+        <v>18025</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
@@ -4490,11 +4314,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2073</v>
+        <v>18025</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -4510,14 +4334,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
+          <t>YTM1YmFkNmQtN2EzNS00Njk0LTliNTMtNmZiMjAwNzQ5NzFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>25625</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
@@ -4530,11 +4354,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
+          <t>MTdjYWQ5ZTAtMmQ3YS00OTM0LWIyOGEtYzMxYjY1ODZkNDIzOjU3MDE2</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>25625</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -4550,14 +4374,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
+          <t>YzFlYTExODctMmJkNy00N2RhLThiMTQtZTVjMTY0NWY1Y2Y5OjU3MDE2</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1578</v>
+        <v>182225</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
@@ -4570,11 +4394,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
+          <t>OWU3NmYwYWEtZWNhZi00YTBiLWE2NTUtNjE5NTkwNDIwZDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1578</v>
+        <v>182225</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -4590,71 +4414,71 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
+          <t>YzRiYzAxZjEtOWY2Zi00ZWQ0LWJmMjgtZmYxY2RjNjY1OTBiOjU3MDE2</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>350</v>
+        <v>9940000000000000</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>OWMxNWU5ZjUtOWI3Ny00ZmYyLWExMWYtM2RkYzA3ZWFjYzU5OjU3MDE2</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>350</v>
+        <v>9940000000000000</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
+          <t>ZGMxMDhlMDAtNmY3Ni00OWE1LTg0MDMtZjVmNjUyZGVkNzZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>85</v>
+        <v>2073</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -4663,38 +4487,38 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
+          <t>ZjczNzc1Y2UtNGU2Mi00NGEzLTk5NWUtYzRlZmRjMzFhMTI2OjU3MDE2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>1365</v>
+        <v>36</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
+          <t>ZmQ5YTY2ZWEtZDM4NS00MWMwLWI0NWYtODI3ZjAxNzRjNzE1OjU3MDE2</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1365</v>
+        <v>9</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -4703,38 +4527,38 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
+          <t>ZmQ3OWNiYjEtZmY3Yi00MjVkLWJhODgtYjA3NjQyZWY1MzYwOjU3MDE2</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>350</v>
+        <v>1578</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>Y2I2NzA1MTItNDc5NS00ZWVmLWJkOTktY2JlZmJiZTNmNTFlOjU3MDE2</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>350</v>
+        <v>1578</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -4743,21 +4567,21 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
+          <t>MzM2Mjc5YTMtZTM5Ny00M2RkLWIzZWYtOGQwZjY3N2U5N2FmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
+          <t>MTE0NDUwMGUtM2ZiMi00OWQ1LWFmY2EtMzNjNzZmNjBhMTVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
@@ -4770,15 +4594,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4790,14 +4614,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
+          <t>NWM5YzAxYzktMTIwMS00ZjhkLWJjOGMtN2U3NDlmOTlmMzRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2073</v>
+        <v>85</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
@@ -4810,11 +4634,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2073</v>
+        <v>85</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4830,31 +4654,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
+          <t>NjRmMDVhODItNmU2Mi00ZDRhLTk5NmItNzM2ODI0YjE2MjRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>1365</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>NTU4NzNjNDctNjRiZS00YmQ3LWI0MjQtYTU3OTAxNmE0MzQzOjU3MDE2</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>1365</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4863,38 +4687,38 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
+          <t>OGUzMjVkZDYtOTA3Yi00MjFjLWFjYzgtOWVlMGI3MjJkNjIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4903,78 +4727,78 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
+          <t>Yjk2YzIwMDktMzVkMy00ZGRjLWIwOTYtOTJjOWFlMjZiM2FhOjU3MDE2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
+          <t>ZTA0MDdkOTgtNjJjMi00ZTgyLWFmMzEtYzg4MzdkYzhjYmMzOjU3MDE2</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>375</v>
+        <v>2073</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>375</v>
+        <v>2073</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4983,21 +4807,21 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
+          <t>M2UzNjc5MDgtNWI5Yy00MzNkLWFjMjEtZTMzZWU5NDhkZDNmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
+          <t>MDhmZjQ1YWQtNTY2Yi00YTlkLWIyMWEtZDI5Y2RkYThlODAwOjU3MDE2</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
@@ -5010,11 +4834,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -5030,14 +4854,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
+          <t>N2EyYTQzZjktNzgxZi00Mzk2LWEyNzMtODM0NmViMTE4MWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>8399999999999999</v>
+        <v>85</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
@@ -5050,11 +4874,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8399999999999999</v>
+        <v>85</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -5070,14 +4894,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
+          <t>OWIyYjYwOTktYTg5MC00ZjRhLWEzOGMtNDI3YTE2MTA1NTI1OjU3MDE2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>2073</v>
+        <v>700</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
@@ -5090,15 +4914,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2073</v>
+        <v>350</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5110,14 +4934,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
+          <t>YTJjM2ExNTAtOWExYi00Mzk1LWE1N2MtM2JkYTU3MDBiMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2502</v>
+        <v>375</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
@@ -5130,11 +4954,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2502</v>
+        <v>375</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -5150,14 +4974,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
+          <t>YTYxMjU3ODEtZjY4ZS00MDQyLTg5YmItYzg1YTA3YTdmZmY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>6325</v>
+        <v>350</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
@@ -5170,11 +4994,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6325</v>
+        <v>350</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -5190,31 +5014,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
+          <t>YTg1ZmQyOGMtNDZkOC00YTgwLWJhODUtOGI5OTA5ZDliZjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1793</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1793</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -5223,82 +5047,78 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
+          <t>YTlhNDQ1NWItMWI4OS00ZGM0LThiOTgtMzZlOTcxNTE0NzcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>350</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>350</v>
+        <v>2073</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
+          <t>ZTZmYzJiNjEtYzBjNS00NjM2LWI0YmEtNzZlMGE1NWI2ODIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2841</v>
+        <v>2502</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2841</v>
+        <v>2502</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5307,38 +5127,38 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>YmUzOThhOTAtNGYyYi00YmViLWJmYzUtNDJmYTA2NDg0OGRhOjU3MDE2</t>
+          <t>ZWQ1NDY3MTUtZjAxMC00OTM2LTljZDctNzBmMjRlZjVhYTQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>660525</v>
+        <v>6325</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MGY5YWI3Y2UtNWJiMC00ZWMwLTgyZjktNzU4Zjc0YmUyZDg3OjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>660525</v>
+        <v>6325</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5347,38 +5167,38 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
+          <t>M2Y2OThhZjYtNWNmYi00NTAxLWE2OGMtMjVkMjAyM2I0MTk5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+          <t>NjA1ZWIxZDMtNWMxMC00NGE2LWEzZjEtYTZkZjM1MWVhNjQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>350</v>
+        <v>1793</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NjdjMzI5NDAtMmU1Mi00MjQ1LTgxNGQtNjUyNWI3ZTQyNDU4OjU3MDE2</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>350</v>
+        <v>1793</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5387,78 +5207,82 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+          <t>OTFkMjc2ZDEtOTkxOC00OGZlLWEyMWYtZGEwNDg3MDFiNzkxOjU3MDE2</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>18025</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MTY2NjMxNTAtYWUyMi00YzY2LTgwNDYtYTkzZTgzODgxNGQ4OjU3MDE2</t>
+          <t>YTlhMGVhYzMtYjJhZS00OWUwLTg5YWQtNjdjYzIyMWUyZDZmOjU3MDE2</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>350</v>
+        <v>2841</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MGQ3YTYzZmEtOGQyZS00YWNiLTljMWYtNTNiM2JkMzRmOTYwOjU3MDE2</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>350</v>
+        <v>2841</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5467,38 +5291,38 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NTUzNzQwNTMtYmRmMC00ZDAxLWI5ZjgtOGMyOTQzNjMyZDRmOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MWM2N2JjOTQtYTFlYy00YjM5LTg5MjctNThkNjNhNGVkNWRkOjU3MDE2</t>
+          <t>YmUzOThhOTAtNGYyYi00YmViLWJmYzUtNDJmYTA2NDg0OGRhOjU3MDE2</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1086</v>
+        <v>660525</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>MGY5YWI3Y2UtNWJiMC00ZWMwLTgyZjktNzU4Zjc0YmUyZDg3OjU3MDE2</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1086</v>
+        <v>660525</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5507,14 +5331,14 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NWU0M2UwNjgtNTI4MS00M2VmLWE5OTQtM2U2NWMzZjA4MDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NjYzOTVlNjEtODVjOC00YmY4LTljNjEtODljNGZjNDM5OWY2OjU3MDE2</t>
+          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -5525,16 +5349,16 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -5542,43 +5366,43 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NmY5NWU4YjctMTU4NC00NzJiLTgwODctMjkyYjg3NGY5ODU3OjU3MDE2</t>
+          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>3795</v>
+        <v>18025</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3795</v>
+        <v>18025</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5587,21 +5411,21 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Yzg5MTQ4NTgtZjZhZS00M2VjLWI2OGItNGY0ZTA3YzYwM2E4OjU3MDE2</t>
+          <t>MTY2NjMxNTAtYWUyMi00YzY2LTgwNDYtYTkzZTgzODgxNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
@@ -5614,11 +5438,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5634,14 +5458,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZGI4ODAzMmQtZTAzYS00YmQ5LWJmMjUtNjk1ZGUwODliNzI1OjU3MDE2</t>
+          <t>MWM2N2JjOTQtYTFlYy00YjM5LTg5MjctNThkNjNhNGVkNWRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1.68e+16</v>
+        <v>1086</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
@@ -5654,11 +5478,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2.1e+16</v>
+        <v>1086</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5674,14 +5498,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ZjQ5NjJjZjctN2U2ZS00ZWE3LTkwY2ItZWIxNjFlODE2YzNkOjU3MDE2</t>
+          <t>NjYzOTVlNjEtODVjOC00YmY4LTljNjEtODljNGZjNDM5OWY2OjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
@@ -5694,15 +5518,15 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5714,60 +5538,220 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MzkwMmU1MjMtZGQ5ZC00ZjEzLWIxZjItNTM4MThiODRhODY0OjU3MDE2</t>
+          <t>NmY5NWU4YjctMTU4NC00NzJiLTgwODctMjkyYjg3NGY5ODU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Transformaçao 380V- trifasico, para 220V/trifasico</t>
-        </is>
-      </c>
+        <v>3795</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>NDk0NTM0YTgtOGM0MC00ZTYwLWJhNDAtMzMxNDRiZjA3ZGY4OjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3000</v>
+        <v>3795</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Yzg5MTQ4NTgtZjZhZS00M2VjLWI2OGItNGY0ZTA3YzYwM2E4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ZGI4ODAzMmQtZTAzYS00YmQ5LWJmMjUtNjk1ZGUwODliNzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.68e+16</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ZjQ5NjJjZjctN2U2ZS00ZWE3LTkwY2ItZWIxNjFlODE2YzNkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MzkwMmU1MjMtZGQ5ZC00ZjEzLWIxZjItNTM4MThiODRhODY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Transformaçao 380V- trifasico, para 220V/trifasico</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NDk0NTM0YTgtOGM0MC00ZTYwLWJhNDAtMzMxNDRiZjA3ZGY4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
         <v>1700</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -5775,214 +5759,214 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="E68" t="n">
         <v>2</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="H68" t="n">
         <v>1700</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>47370</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>NzVmMDU4ODAtZTJiMi00MmFlLTgzZmItYTJlYmYwY2EyNTgxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>67</v>
-      </c>
-      <c r="C66" t="n">
-        <v>134</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>67Km de distancia</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ZDQ0NDkzNjgtNjE2MS00YjRkLWEyNWUtOTdkOGFiMjFiMjVjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>350</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Visita técnica</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>3</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>NWVmNmQ0MDEtNzBmMy00Yzg3LWFlZDAtYzJiYTM1MTc4OWNlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>350</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NzVmMDU4ODAtZTJiMi00MmFlLTgzZmItYTJlYmYwY2EyNTgxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>67</v>
+      </c>
+      <c r="C70" t="n">
+        <v>134</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>67Km de distancia</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ZDQ0NDkzNjgtNjE2MS00YjRkLWEyNWUtOTdkOGFiMjFiMjVjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>350</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Visita técnica</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NWVmNmQ0MDEtNzBmMy00Yzg3LWFlZDAtYzJiYTM1MTc4OWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>350</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
         <v>494677</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -6000,204 +5984,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="E73" t="n">
         <v>3</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="H73" t="n">
         <v>494677</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>350</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>6</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>350</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2073</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>6</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>2073</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>7375</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>6</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>8399999999999999</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -6210,15 +6034,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6230,119 +6054,111 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>680</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>680</v>
+        <v>2073</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>855</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>7375</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>855</v>
+        <v>7375</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>43</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>43</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6351,38 +6167,38 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6391,122 +6207,126 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>350</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>350</v>
+        <v>680</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -6515,38 +6335,38 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>6325</v>
+        <v>85</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>6325</v>
+        <v>85</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6555,38 +6375,38 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6595,38 +6415,42 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>350</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6635,21 +6459,21 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>2502</v>
+        <v>9</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -6662,11 +6486,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2502</v>
+        <v>9</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6682,14 +6506,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>8399999999999999</v>
+        <v>6325</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
@@ -6702,11 +6526,11 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>8399999999999999</v>
+        <v>6325</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6722,14 +6546,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>2073</v>
+        <v>375</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
@@ -6742,11 +6566,11 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2073</v>
+        <v>375</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6762,14 +6586,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
@@ -6782,11 +6606,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6802,14 +6626,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>700</v>
+        <v>2502</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
@@ -6822,15 +6646,15 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>350</v>
+        <v>2502</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6842,119 +6666,111 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>680</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>8399999999999999</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>680</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>855</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>855</v>
+        <v>2073</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6963,141 +6779,149 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>6000000000000001</v>
+        <v>700</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6000000000000001</v>
+        <v>350</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>3.8825e+16</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3.8825e+16</v>
+        <v>680</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1e+16</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2.1e+16</v>
+        <v>855</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>3e+16</v>
+        <v>96</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
@@ -7110,11 +6934,11 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3e+16</v>
+        <v>48</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -7130,75 +6954,71 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>47370</v>
+        <v>6000000000000001</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>47370</v>
+        <v>6000000000000001</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>YjM4ZTVhZWEtZWNmYi00NjFjLTljYzAtYmU1YjRmMjcyNzA2OjU3MDE2</t>
+          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>ORCAMENTO REALIZADO PELO BLING</t>
-        </is>
-      </c>
+        <v>3.8825e+16</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>YTU2NzBmZGYtNDUwYi00MDk3LWIwMzUtZGQ2YjI0Y2JiNGFkOjU3MDE2</t>
+          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3.8825e+16</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -7207,102 +7027,78 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>OWZmMDlmMTgtMGU0Ny00NDgxLTkxY2MtZTgyYmNiODI2NDAwOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Y2ZkYjU0ZGMtZmNlOC00MzBjLWFlNWQtZGRmMzdjYWQzNWUxOjU3MDE2</t>
+          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Cliente informa: equipamento nao gela
-Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
-Diagnostico tecnico micro vazamento e necessario fazer a carga de gas , e necessario laudo nitrogenio, maçarico (laudo da garrafa) e caneta para poder entrar com esses produtos para realizaçao do atendimento 
-senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
-        </is>
-      </c>
+        <v>2.1e+16</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
+          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1700</v>
+        <v>2.1e+16</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>YTdiMzIyZmItN2E3NS00Mzc4LThiNzYtZWFlNDkxZTE2YzczOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>YTE2ZjAyY2UtYWNjZi00ODVkLTgxOWMtMDQ2ZjhmNWFiY2JhOjU3MDE2</t>
+          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>494677</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
-B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
-B527034 - MANTA ISOL FIBRA CERAMICA  ALUM 3810X610X38MM 2.32 M³ P/ROLO Qtd = 0,2 M2
-B538109 - TERMINAL C/ ISOLACAO CABO 1,5 - 2,5MM OLHAL AZUL TP2,5-4 - INTELLI Qtd = 6 PC
-B538119 - LUVA C/ ISOLACAO CABO 1,5 / 2,5 (EMENDA AZUL) INTELLI LEP-22 Qtd = 2 PC
-B538121 - CONJ.TERMOSTATO CAEM TU HC 120°C 30A 5MMX080MM 980MM 3/8CBP Qtd = 1 PC
-B538233 - INTERRUPTOR DE TECLA MARGIRUS 30223 M2FT1DE3Q/197 BIP. 10A VERDE Qtd = 1 PC
-B538345 - CABO ELETRICO FLEX. 1,5MM SILICONE C/ FIBRA DE VIDRO 200º Qtd = 2 MT
-B538683 - CABO PP C/PLUG CABO INJETADO 90º10A(3.0X1.5X2000MM) Qtd = 1 PC
-B538806 - TERMINAL DE ENCAIXE FEMEA "FASTON" C/ ISOL. (AZUL 1,5 - 2,5MM) Qtd = 4 PC
-B538A84 - PRENSA CABO BSP 1/2 LP+P/UV-LT-PA-40 DAN KRAUS MULLER Qtd = 1 PC
-B538I97 - ESPELHO PLASTICO CAEM PRETO Qtd = 1 PC
-B546053 - MICROVENT. LINEAR 110/220V 60HZ MOD. MINILINE Qtd = 1 PC
-B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
-        </is>
-      </c>
+        <v>3e+16</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
+          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>494677</v>
+        <v>3e+16</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -7311,38 +7107,38 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ZDBmMzE2ZjMtOGE3NS00Mzk5LWI3OWMtZjc1ODM0MmU3MDY5OjU3MDE2</t>
+          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1050</v>
+        <v>47370</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1050</v>
+        <v>47370</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -7351,7 +7147,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>YTdlZmE0OWItMzc1YS00OThlLWEyZWEtNzllZjM4MTJlNzFmOjU3MDE2</t>
+          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,42 +2291,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>RKGEPXYF-E</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>60478583000192 - FUNDACAO ANGLO BRAS. DE EDUC. E CULT SP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Referente orçamento : Composteira - St Pauls</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>1756.6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>1756.6</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-12-11T14:05:43.837Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2339,12 +2343,12 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-12-04T15:21:12.082Z</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>Y2NjZDRjMTgtOWYwOC00YjUwLWFiNzktOGU0NGNhZTQzMTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2364,52 +2368,44 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzUzMTEwNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2419,7 +2415,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2432,10 +2428,14 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2465,36 +2465,40 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2504,7 +2508,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2517,14 +2521,10 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2554,70 +2554,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2625,88 +2621,92 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1298.9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-11-13T15:27:58.539Z</t>
+          <t>2023-06-07T21:55:05.692Z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-11-06T15:28:06.348Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2714,44 +2714,44 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S1SWKWAKXG</t>
+          <t>BJ0FAVCKBL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>MAQUINA 01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Reclamaçao do cliente: nao atinge temperatura, abaixo segue link</t>
+          <t>Autorizado por João</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2760,46 +2760,42 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1298.9</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-09-04T16:07:52.834Z</t>
+          <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>rffccfc</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/970cf169-2b55-4eed-b7bc-c418d38522f4/signatures/7a22a671-9310-4602-ba1e-f1006682889f.png</t>
-        </is>
-      </c>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-08-28T16:10:11.398Z</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+          <t>2025-11-06T15:28:06.348Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2817,182 +2813,12 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>approved</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BKMVCD56XX</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>MARCOS ROBINSON MARTINS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>40.894999999999996</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>40.894999999999996</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2025-10-20T12:54:09.917Z</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>2025-10-13T13:10:02.576Z</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>NDgyNTIyNjo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
           <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HYICEAM_GE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Compressores Salobo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Substituição de 3 compressores</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>47370</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>47370</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Recusada</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2025-08-15T18:20:20.020Z</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:24:47.000Z</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>RAFAEL BARBOZA</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>2025-08-08T18:23:10.037Z</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>refused</t>
         </is>
       </c>
     </row>
@@ -6014,7 +5840,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
+          <t>MTU2MjFmZWMtYWZjYi00MTg4LThjMmItNTM5ZWExYmYyYjM2OjU3MDE2</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -6025,16 +5851,16 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>MzYyZjJjODUtNDVjYS00NmU3LWEwYzUtMzhmZDc3ZjM5NTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -6047,38 +5873,38 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
+          <t>MjdkOWFjYmEtM2RiMi00NjA5LWE5ZjQtMDc0MmQyOThiNzk5OjU3MDE2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>2073</v>
+        <v>168</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MWU3ZGQ4MmMtYTg0Zi00ZDM2LWIxNDgtNjBhZDljYjYwZTliOjU3MDE2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2073</v>
+        <v>8400000000000001</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -6087,38 +5913,38 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>Mzk5MTdiNmEtZmE3Ni00NWExLWFiODctOTIwNTY4YmViNGMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>7375</v>
+        <v>190</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>OGEzODdhOTUtNmU2Ni00NWQ0LWFhMzgtNzQzMGI2MWY4MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>7375</v>
+        <v>95</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6127,38 +5953,38 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>NDllNDg4ZDAtZjJkNi00ZDcwLWJmMzMtNTIxMzJjMmEyMzJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>8399999999999999</v>
+        <v>1289</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>NjliMThkYjktMTc0Yy00OTg4LTg3OWMtNzEyZThiNjgyM2QzOjU3MDE2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>8399999999999999</v>
+        <v>6445</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -6167,38 +5993,38 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>OTI4NWJmNDgtODU3Yi00NzAxLWJlZTgtNzA4NmVhYjZiZDNhOjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>MjFjZDdjOWYtMWMyZS00YmU2LWEyYjAtOWZlMjMyM2I0ZmY3OjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>375</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -6207,166 +6033,162 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>OTMyOTYwZTktMDBhZS00MTg0LWFkY2QtM2YyZTI2YTA2MGRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>680</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>ZDM1MmRmY2UtNTk2NC00Nzk1LTgzZDEtMTIxZDI0ZmI3MjkyOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>680</v>
+        <v>1225</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>OTVkNjI2ZmMtZGE1NC00NmE4LWExOTMtZjE0ODJmYjZiNzQ5OjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>855</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>1.1895e+16</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>YzM4NzY3MzktYzQzZS00Zjk3LTgxYjQtMzAxZWE0ZTk3NWY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>855</v>
+        <v>1.1895e+16</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>YWI3ZTg3NDUtMzNmNi00ZjExLTg3ZWUtZjExNzBkOGFlNDFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>ZDU3OGQ2MTktZGJkYy00YjEyLTkzMzItNTExYTlkYjlkZTVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>85</v>
+        <v>12525</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>NTViMThiNzUtNWVmNy00ZDU1LWIxNzMtOGY5NjZhYTE4ZWMwOjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>85</v>
+        <v>12525</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6375,14 +6197,14 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6393,16 +6215,16 @@
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -6410,47 +6232,43 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>10000</v>
+        <v>2073</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6459,38 +6277,38 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>7375</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>9</v>
+        <v>7375</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6499,38 +6317,38 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>6325</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>6325</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6539,14 +6357,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6557,11 +6375,11 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6579,118 +6397,126 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>350</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>350</v>
+        <v>680</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>2502</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>855</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
+        </is>
+      </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2502</v>
+        <v>855</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>8399999999999999</v>
+        <v>43</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>8399999999999999</v>
+        <v>43</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -6699,38 +6525,38 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>2073</v>
+        <v>85</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2073</v>
+        <v>85</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -6739,38 +6565,38 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6779,166 +6605,162 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ZjY2ZjQxZmYtODllOC00ZTcyLTg2YmYtZDRmYWYxMzdmZGIzOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>2</v>
       </c>
-      <c r="C93" t="n">
-        <v>700</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="n">
-        <v>10</v>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NTMwYmZhMDQtZGU2Ny00ZmFlLWE2NmItNmM5YzMxODdiZTgwOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>680</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>680</v>
+        <v>9</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ZTFiNzY1Y2MtNTVhMS00NDU4LTliMmMtMTU3MzM1ZjU5ZTA4OjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>855</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>6325</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>855</v>
+        <v>6325</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>OTcwY2YxNjktMmI1NS00ZWVkLWI3YmMtYzQxOGQzODUyMmY0OjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NGM4MjM2YzAtZWJkZC00NTY1LWFkNGEtNjBiYzEwYzVlMjM5OjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ODcwZTI1ZDEtMTRkNC00M2IyLTk0MTItOGJhNDdiYzIzMjg1OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -6947,38 +6769,38 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NmJjNjE2Y2UtOGFjZi00OTdiLTgyMWEtYTI4NmMzMDA1MjViOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>6000000000000001</v>
+        <v>350</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>OTgxYjZlMTAtNGZiMy00YjAwLWI4OTYtMTcxNGM5MTg2Y2NiOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>6000000000000001</v>
+        <v>350</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -6987,38 +6809,38 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>YTYwMTIwMzItNGMzNy00MGYyLThiMjktY2FhNjAzZTljY2YyOjU3MDE2</t>
+          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>3.8825e+16</v>
+        <v>2502</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>YTQ4MzMzNDUtNWU2Yy00YmVmLWE4OWYtY2Y4ZWNkNjI2ZjM5OjU3MDE2</t>
+          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3.8825e+16</v>
+        <v>2502</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -7027,38 +6849,38 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>YTk2NmJhMzgtNDJkYS00OTQ3LWJlZWYtNzVlOGQzOTA4NjM4OjU3MDE2</t>
+          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>2.1e+16</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>YmU4MzA1YWYtMThkMC00ODhkLTk0NTMtMzE3MGVkYjI2NGFiOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>2.1e+16</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -7067,38 +6889,38 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ZTI4OGEyZDItNTQ3Ni00MmVjLWFlZTMtZDk4N2U3OGU3ODJmOjU3MDE2</t>
+          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>3e+16</v>
+        <v>2073</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>MWI1OWUzZTYtMTQxYi00NjY4LWFjZjAtNGI1OGE2Mjk3Nzk4OjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>3e+16</v>
+        <v>2073</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -7107,47 +6929,47 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>OTc4YTljYTItZGQ1Ni00MDIyLWEyMTItYWQwZWY4M2VkNWYxOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MGJhYTRiMGQtYmU3NS00YjhhLTkwYTQtY2M0M2Y0MDVmOTY3OjU3MDE2</t>
+          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>47370</v>
+        <v>85</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>47370</v>
+        <v>85</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>OWRiNmYxNDMtZmIxMC00YThjLTllMTQtYTAxZGM4MjE4NjBkOjU3MDE2</t>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,50 +1643,46 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BYCZRKIPEL</t>
+          <t>SJB-BNEZBL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
+          <t>71089640315 - MARCUS VINICIUS MORENO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GARANTIA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>garantia</t>
-        </is>
-      </c>
+          <t>referente orçamento do raspador</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>179.29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>530.25</t>
+          <t>179.29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-10-17T12:48:39.389Z</t>
+          <t>2025-12-15T20:05:35.735Z</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1699,12 +1695,12 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-10-10T13:07:18.487Z</t>
+          <t>2025-12-08T20:11:36.676Z</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
+          <t>M2EzOTI5YTItODc3Zi00NTJlLTk1NDktMmU5YWRiMWMwZmQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1724,39 +1720,39 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NDgyMzMyODo1NzAxNg==</t>
+          <t>NDgzNTU4Mzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SYHCI3OLWE</t>
+          <t>BYCZRKIPEL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FRANCESCO DE TOMMASO</t>
+          <t>62730134620 - FRANCISCO DE LUCCA JUNIOR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+          <t>GARANTIA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+          <t>garantia</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -1764,29 +1760,25 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1047.65</t>
+          <t>530.25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Recusada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-11-24T15:13:20.559Z</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-11-24T14:45:19.000Z</t>
-        </is>
-      </c>
+          <t>2025-10-17T12:48:39.389Z</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
@@ -1796,12 +1788,12 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-11-17T15:14:20.735Z</t>
+          <t>2025-10-10T13:07:18.487Z</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+          <t>NGNkMDM2YWEtZDRlMy00NjIwLThiOGMtYmVmNGM1MGMyN2ZkOjU3MDE2</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1821,122 +1813,219 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>MzI2OTMyNjo1NzAxNg==</t>
+          <t>NDgyMzMyODo1NzAxNg==</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>refused</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SYHCI3OLWE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FRANCESCO DE TOMMASO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>descriçao do problema:maquinba de 02 kilos, chegou com os conectores da resistencia queimados, comprometendo o aquecimento.</t>
+        </is>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1047.65</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Recusada</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-11-24T15:13:20.559Z</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-11-24T14:45:19.000Z</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2025-11-17T15:14:20.735Z</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ODZlODFiMWItM2FiOC00YmY2LWJiOTktMTExOWE5YzVjMDBjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>MzI2OTMyNjo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>refused</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>SKD1SV5XZX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>PREFEITURA MUNICIPAL DE ROSANA</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Referente a  transformação de 1 maquina composteira no valor total de R$ 3.000,00, de tensão 380V- trifasico, para 220V/trifasico. 
 As outras 02 são 220v</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="b">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>2025-11-25T21:47:25.554Z</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Adriana Vieira Masini</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>2025-11-18T21:53:35.934Z</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>NjYwZjY1NTAtNjFmZS00N2NmLTlmZTktMzY2ZWVjNmViZGJmOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>NTgwMDkyOTo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>HYS55O45GG</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Bayer Uberlandia</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1945,7 +2034,7 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -1954,106 +2043,17 @@
 OBSERVAÇAO IMPORTANTE : TECNICO NA UNIDADE PODEMOS REALIZAR O SERVIÇO HOJE</t>
         </is>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Expirada</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2025-09-09T14:06:34.278Z</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:09:17.339Z</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>NDgyMzQxNzo1NzAxNg==</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SKRTB67OEL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Salobo 2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2063,20 +2063,20 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-08-15T18:25:59.379Z</t>
+          <t>2025-09-09T14:06:34.278Z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>RAFAEL BARBOZA</t>
+          <t>Adriana Vieira Masini</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-08-08T18:27:17.728Z</t>
+          <t>2025-09-02T14:09:17.339Z</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NDgzNTE2OTo1NzAxNg==</t>
+          <t>NDgyMzQxNzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2109,67 +2109,63 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HJCRTZS--G</t>
+          <t>SKRTB67OEL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
+          <t>Salobo 2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-12-08T12:21:25.404Z</t>
+          <t>2025-08-15T18:25:59.379Z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>douglas simao</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/6b2b07ff-cb70-450b-bc03-538da26b5fb0/signatures/82045e1d-cc6f-45af-a3f3-2c6a0906455d.png</t>
-        </is>
-      </c>
+          <t>RAFAEL BARBOZA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-12-01T12:28:02.404Z</t>
+          <t>2025-08-08T18:27:17.728Z</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -2190,34 +2186,34 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NDUwNzM2Mzo1NzAxNg==</t>
+          <t>NDgzNTE2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>HJCRTZS--G</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
+          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2226,42 +2222,46 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>484</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5996.77</t>
+          <t>484</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Aprovada</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-09-15T22:01:12.237Z</t>
+          <t>2025-12-08T12:21:25.404Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>douglas simao</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Adriana Vieira Masini</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>Kaue Teixeira Caldeira Venâncio</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/6b2b07ff-cb70-450b-bc03-538da26b5fb0/signatures/82045e1d-cc6f-45af-a3f3-2c6a0906455d.png</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-09-08T22:01:45.251Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-12-01T12:28:02.404Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2279,34 +2279,34 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDIwNTU3Mjo1NzAxNg==</t>
+          <t>NDUwNzM2Mzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>approved</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RKGEPXYF-E</t>
+          <t>SJBLZ0HQLG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>60478583000192 - FUNDACAO ANGLO BRAS. DE EDUC. E CULT SP</t>
+          <t>OUTBACK MORUMBI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Referente orçamento : Composteira - St Pauls</t>
+          <t>Reforma de Estufa Airflow danificada</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2315,22 +2315,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1756.6</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1756.6</t>
+          <t>5996.77</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-12-11T14:05:43.837Z</t>
+          <t>2025-09-15T22:01:12.237Z</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2343,12 +2343,12 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-12-04T15:21:12.082Z</t>
+          <t>2025-09-08T22:01:45.251Z</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Y2NjZDRjMTgtOWYwOC00YjUwLWFiNzktOGU0NGNhZTQzMTg3OjU3MDE2</t>
+          <t>ODA0YmUwYWMtMjQ5Ny00MGM4LTgxY2ItYzE2NjBhYzk4MmQxOjU3MDE2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2368,54 +2368,58 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MzUzMTEwNTo1NzAxNg==</t>
+          <t>NDIwNTU3Mjo1NzAxNg==</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B1VS7ID2GL</t>
+          <t>RKGEPXYF-E</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAQUINA 03</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>60478583000192 - FUNDACAO ANGLO BRAS. DE EDUC. E CULT SP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Referente orçamento : Composteira - St Pauls</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>1756.6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>490.38</t>
+          <t>1756.6</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Expirada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-10-06T18:43:16.449Z</t>
+          <t>2025-12-11T14:05:43.837Z</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2428,12 +2432,12 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-09-29T18:44:47.397Z</t>
+          <t>2025-12-04T15:21:12.082Z</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+          <t>Y2NjZDRjMTgtOWYwOC00YjUwLWFiNzktOGU0NGNhZTQzMTg3OjU3MDE2</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2453,52 +2457,44 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MzU0MDM4MDo1NzAxNg==</t>
+          <t>MzUzMTEwNTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>expired</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKHV0XAFEG</t>
+          <t>B1VS7ID2GL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Orçamento teste</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Reclamaçao do cliente :nao atinge temperatura</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
-        </is>
-      </c>
+          <t>MAQUINA 03</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>490.38</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2508,7 +2504,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-09-04T16:01:06.048Z</t>
+          <t>2025-10-06T18:43:16.449Z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2521,10 +2517,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-08-28T16:05:56.490Z</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+          <t>2025-09-29T18:44:47.397Z</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>NDIzOTk2OTo1NzAxNg==</t>
+          <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2554,36 +2554,40 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R1R8PTIYBL</t>
+          <t>BKHV0XAFEG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
+          <t>Orçamento teste</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>orçamento</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>Reclamaçao do cliente :nao atinge temperatura</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Link do Relatório: https://app.fieldcontrol.com.br/relacionamento-cliente/#/relatorio/657fd93e-b9fd-457f-9f3a-db4c162fa0d7</t>
+        </is>
+      </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2593,7 +2597,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-11-10T19:48:40.136Z</t>
+          <t>2025-09-04T16:01:06.048Z</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2606,14 +2610,10 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-11-03T19:49:41.839Z</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
-        </is>
-      </c>
+          <t>2025-08-28T16:05:56.490Z</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NDgyMzkyMzo1NzAxNg==</t>
+          <t>NDIzOTk2OTo1NzAxNg==</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2643,70 +2643,66 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HK9JZSR83</t>
+          <t>R1R8PTIYBL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>76500180001376 - COMPANHIA PROVIDENCIA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>orçamento</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>478</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Expirada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2023-06-07T21:55:05.692Z</t>
+          <t>2025-11-10T19:48:40.136Z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>jose da silva</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>HENRIQUE</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-05-31T21:56:50.448Z</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>2025-11-03T19:49:41.839Z</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>MGIyNGUzMWQtMDM4OS00ZDc1LTg5MGEtYmNiNzViYTNjNGFiOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2714,109 +2710,202 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>MzE2ODMzNTo1NzAxNg==</t>
+          <t>NDgyMzkyMzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>expired</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BJ0FAVCKBL</t>
+          <t>HK9JZSR83</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MAQUINA 01</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Autorizado por João</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2023-06-07T21:55:05.692Z</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>jose da silva</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>HENRIQUE</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>accounts/57016/quotations/913c656d-9e89-4cee-bb63-5297f22057c5/signatures/a8215aae-2f41-4179-a1ba-a923278bb210.png</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2023-05-31T21:56:50.448Z</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>MzE2ODMzNTo1NzAxNg==</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BJ0FAVCKBL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MAQUINA 01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Autorizado por João</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1298.9</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>1298.9</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Expirada</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>2025-11-13T15:27:58.539Z</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Kaue Teixeira Caldeira Venâncio</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
         <is>
           <t>2025-11-06T15:28:06.348Z</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>NzdmMmMwZTItZWIyMy00ODUzLWJiZTgtM2Y3YTgzNGM0YzRmOjU3MDE2</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>MzU0MDM4MDo1NzAxNg==</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>expired</t>
         </is>
@@ -5164,31 +5253,31 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
+          <t>MWU4ZjYwNjMtYmU4Ny00NmViLTgzMDktMjdiZGY4ZDE4YWFjOjU3MDE2</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NGRmMmViOWYtOTI1ZC00YTAwLWI3MTUtNDAzNDkwMDVmOTg4OjU3MDE2</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5197,38 +5286,38 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
+          <t>NjdjM2U1ZTYtNWY1Yy00NmE0LWEyMjQtYTNlM2IwZmJhYmE3OjU3MDE2</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>18025</v>
+        <v>2929</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>18025</v>
+        <v>43</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5237,38 +5326,38 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MTY2NjMxNTAtYWUyMi00YzY2LTgwNDYtYTkzZTgzODgxNGQ4OjU3MDE2</t>
+          <t>NzQxMzc1Y2MtOThhMi00OTI1LTk5YjktMmM3OGEwMTE5YjBkOjU3MDE2</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>350</v>
+        <v>825</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>OTUzMmM4MTUtMjYxYy00ZjI2LThkMDAtMjc0MzkyYjRjYjY2OjU3MDE2</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>350</v>
+        <v>825</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5277,38 +5366,38 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MWM2N2JjOTQtYTFlYy00YjM5LTg5MjctNThkNjNhNGVkNWRkOjU3MDE2</t>
+          <t>YThjMDk1MjQtOTllNS00YTg3LWIxOTAtZTE0M2M5YWIxYzA3OjU3MDE2</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1086</v>
+        <v>375</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
+          <t>YjdlYTg0N2QtNTZkMS00MTg1LTk0MDgtYjUwOTg3MTcyNWE4OjU3MDE2</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1086</v>
+        <v>375</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5317,14 +5406,14 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjI1YjU4N2MtMmQ0My00OWRjLTlhMzEtZDk3MTlmNGM5NTk0OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NjYzOTVlNjEtODVjOC00YmY4LTljNjEtODljNGZjNDM5OWY2OjU3MDE2</t>
+          <t>MjA0Mzk0M2ItOWI2Ni00Y2NkLWJlNjgtOTUwNjdmMjVkM2Y3OjU3MDE2</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -5335,16 +5424,16 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5352,43 +5441,43 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NmY5NWU4YjctMTU4NC00NzJiLTgwODctMjkyYjg3NGY5ODU3OjU3MDE2</t>
+          <t>NDUwYmZhOGUtMTA3Ni00MmY2LWFhMjgtNWY5YzNmNzMzMWQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>3795</v>
+        <v>18025</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3795</v>
+        <v>18025</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5397,21 +5486,21 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+          <t>NjJlMTYyODUtMGFiYi00NTE5LWE3ZTItYTJmNzNiOGU4OTE1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Yzg5MTQ4NTgtZjZhZS00M2VjLWI2OGItNGY0ZTA3YzYwM2E4OjU3MDE2</t>
+          <t>MTY2NjMxNTAtYWUyMi00YzY2LTgwNDYtYTkzZTgzODgxNGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
@@ -5424,11 +5513,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>18025</v>
+        <v>350</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -5444,14 +5533,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ZGI4ODAzMmQtZTAzYS00YmQ5LWJmMjUtNjk1ZGUwODliNzI1OjU3MDE2</t>
+          <t>MWM2N2JjOTQtYTFlYy00YjM5LTg5MjctNThkNjNhNGVkNWRkOjU3MDE2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1.68e+16</v>
+        <v>1086</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -5464,11 +5553,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+          <t>ZTg4NmFmNzYtZDE1OS00MWU1LWE3MjItYmFiYzg4MjcxM2Q3OjU3MDE2</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2.1e+16</v>
+        <v>1086</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5484,14 +5573,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ZjQ5NjJjZjctN2U2ZS00ZWE3LTkwY2ItZWIxNjFlODE2YzNkOjU3MDE2</t>
+          <t>NjYzOTVlNjEtODVjOC00YmY4LTljNjEtODljNGZjNDM5OWY2OjU3MDE2</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -5504,15 +5593,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>4050000000000001</v>
+        <v>350</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5524,60 +5613,220 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MzkwMmU1MjMtZGQ5ZC00ZjEzLWIxZjItNTM4MThiODRhODY0OjU3MDE2</t>
+          <t>NmY5NWU4YjctMTU4NC00NzJiLTgwODctMjkyYjg3NGY5ODU3OjU3MDE2</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Transformaçao 380V- trifasico, para 220V/trifasico</t>
-        </is>
-      </c>
+        <v>3795</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NDk0NTM0YTgtOGM0MC00ZTYwLWJhNDAtMzMxNDRiZjA3ZGY4OjU3MDE2</t>
+          <t>YTk2YTY5MTAtZjgyNy00YTNjLWIzNGYtZTg1NDljMTRkMGE0OjU3MDE2</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3000</v>
+        <v>3795</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>Yzg5MTQ4NTgtZjZhZS00M2VjLWI2OGItNGY0ZTA3YzYwM2E4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>18025</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MWNjNzU5N2QtZWQ0ZC00MmZmLWI0ODQtMDRhMzJjMTAyYzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>18025</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ZGI4ODAzMmQtZTAzYS00YmQ5LWJmMjUtNjk1ZGUwODliNzI1OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.68e+16</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NTE3OTY1NTMtNjNjYi00YjM4LWJhZTctOTI3OTNkNmRkZTUzOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2.1e+16</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ZjQ5NjJjZjctN2U2ZS00ZWE3LTkwY2ItZWIxNjFlODE2YzNkOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NjhhMzA2MDktZmIwZC00YzgxLWFiZmEtZGI0YTk1MzJjNWNiOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4050000000000001</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NjJlZTc1ZWItYTk4ZS00YmEzLWIwYmMtYjIzMzQ5OGJhZDNlOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MzkwMmU1MjMtZGQ5ZC00ZjEzLWIxZjItNTM4MThiODRhODY0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Transformaçao 380V- trifasico, para 220V/trifasico</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NDk0NTM0YTgtOGM0MC00ZTYwLWJhNDAtMzMxNDRiZjA3ZGY4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NjQxYmI0ZjMtNTE3YS00NjM4LTg0NjktY2Y5ZGExODcxMzc4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>YzM2MGY4YjEtODQ0Ny00MGFkLThjNDEtYzNlN2Q5ZjAyODExOjU3MDE2</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
         <v>1700</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Cliente informa: equipamento nao gela
 Conseguimos um tecnico para atendimento dentro da Bayer que dificil acesso para entrar
@@ -5585,214 +5834,214 @@
 senao vamos ter que pagar carreto + peça +Mao de obra para fazer serviço em oficina, custo menor pagar laudo e fazer na Bayer</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="E72" t="n">
         <v>2</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>MzE0YzQ5OTYtNGFlMy00NzkyLWJiYmYtZTY4NzJkNDcwNDIzOjU3MDE2</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="H72" t="n">
         <v>1700</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>service</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>NjRhMDExNzktM2U5Zi00ODkzLTljNTQtMDczYzVmNzA2MjY0OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>47370</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>47370</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>NzVmMDU4ODAtZTJiMi00MmFlLTgzZmItYTJlYmYwY2EyNTgxOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>67</v>
-      </c>
-      <c r="C70" t="n">
-        <v>134</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>67Km de distancia</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>3</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ZDQ0NDkzNjgtNjE2MS00YjRkLWEyNWUtOTdkOGFiMjFiMjVjOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>350</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Visita técnica</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>3</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NWVmNmQ0MDEtNzBmMy00Yzg3LWFlZDAtYzJiYTM1MTc4OWNlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>350</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>3</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>1050</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>NTMxNmNjMTEtNGYzNi00NjE5LTliZGMtMWNmYWJkNDlkNGJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>47370</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NDNkODJkODMtNWM3NC00NjAyLWI2MzEtYWIyYWVjMGI4NTJhOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>47370</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NjZkZDVhODgtZDIwMy00MTg5LWEwNGQtODg3ODU1YmM2ZWE2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NzVmMDU4ODAtZTJiMi00MmFlLTgzZmItYTJlYmYwY2EyNTgxOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>67</v>
+      </c>
+      <c r="C74" t="n">
+        <v>134</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>67Km de distancia</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Zjc3ODdmZmQtNzZiNy00ZjNmLThmNjQtNjdjOGIyOGYxYzUwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ZDQ0NDkzNjgtNjE2MS00YjRkLWEyNWUtOTdkOGFiMjFiMjVjOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>350</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Visita técnica</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NWVmNmQ0MDEtNzBmMy00Yzg3LWFlZDAtYzJiYTM1MTc4OWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>350</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MjE4NjI1MWMtYzQ0OC00NWUwLTk4NjUtMWUyNTYyYmM4MWNlOjU3MDE2</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NTdmNWI0NDEtMWQxOC00M2E2LWE0ODEtODQyZDhlNDk0YzA0OjU3MDE2</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>M2ZjODg2ZTctOTVmYS00ZWE0LWJlZDItZDdlYzVkZDJjMjE5OjU3MDE2</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
         <v>494677</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
 B523034 - TELA PENEIRA DE INOX C/ FIO DE 0.35MM E ABERTURA DE 1.50MM (TELAS CUPECE) Qtd = 0,1 M2
@@ -5810,204 +6059,44 @@
 B560251 - RESISTENCIA INOX ALETADA DE 800W X 220V (ESTUFA FRY WARMER) Qtd = 2 PC</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="E77" t="n">
         <v>3</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>NTRjZjNjM2MtODlhYy00OTEzLTg0ZjEtYjZhYzY5NTRjMGY0OjU3MDE2</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="H77" t="n">
         <v>494677</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MTU2MjFmZWMtYWZjYi00MTg4LThjMmItNTM5ZWExYmYyYjM2OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>350</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>10</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>MzYyZjJjODUtNDVjYS00NmU3LWEwYzUtMzhmZDc3ZjM5NTc0OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>350</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MjdkOWFjYmEtM2RiMi00NjA5LWE5ZjQtMDc0MmQyOThiNzk5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>20</v>
-      </c>
-      <c r="C75" t="n">
-        <v>168</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>10</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>MWU3ZGQ4MmMtYTg0Zi00ZDM2LWIxNDgtNjBhZDljYjYwZTliOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>8400000000000001</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Mzk5MTdiNmEtZmE3Ni00NWExLWFiODctOTIwNTY4YmViNGMwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>190</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>10</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>OGEzODdhOTUtNmU2Ni00NWQ0LWFhMzgtNzQzMGI2MWY4MTcwOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>95</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>NDllNDg4ZDAtZjJkNi00ZDcwLWJmMzMtNTIxMzJjMmEyMzJmOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1289</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>10</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>NjliMThkYjktMTc0Yy00OTg4LTg3OWMtNzEyZThiNjgyM2QzOjU3MDE2</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>6445</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OTI4NWJmNDgtODU3Yi00NzAxLWJlZTgtNzA4NmVhYjZiZDNhOjU3MDE2</t>
+          <t>MTU2MjFmZWMtYWZjYi00MTg4LThjMmItNTM5ZWExYmYyYjM2OjU3MDE2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -6020,15 +6109,15 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MjFjZDdjOWYtMWMyZS00YmU2LWEyYjAtOWZlMjMyM2I0ZmY3OjU3MDE2</t>
+          <t>MzYyZjJjODUtNDVjYS00NmU3LWEwYzUtMzhmZDc3ZjM5NTc0OjU3MDE2</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>4.2e+16</v>
+        <v>350</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6040,14 +6129,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>OTMyOTYwZTktMDBhZS00MTg0LWFkY2QtM2YyZTI2YTA2MGRiOjU3MDE2</t>
+          <t>MjdkOWFjYmEtM2RiMi00NjA5LWE5ZjQtMDc0MmQyOThiNzk5OjU3MDE2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>1225</v>
+        <v>168</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
@@ -6060,11 +6149,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ZDM1MmRmY2UtNTk2NC00Nzk1LTgzZDEtMTIxZDI0ZmI3MjkyOjU3MDE2</t>
+          <t>MWU3ZGQ4MmMtYTg0Zi00ZDM2LWIxNDgtNjBhZDljYjYwZTliOjU3MDE2</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1225</v>
+        <v>8400000000000001</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -6080,14 +6169,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OTVkNjI2ZmMtZGE1NC00NmE4LWExOTMtZjE0ODJmYjZiNzQ5OjU3MDE2</t>
+          <t>Mzk5MTdiNmEtZmE3Ni00NWExLWFiODctOTIwNTY4YmViNGMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1895e+16</v>
+        <v>190</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
@@ -6100,11 +6189,11 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>YzM4NzY3MzktYzQzZS00Zjk3LTgxYjQtMzAxZWE0ZTk3NWY0OjU3MDE2</t>
+          <t>OGEzODdhOTUtNmU2Ni00NWQ0LWFhMzgtNzQzMGI2MWY4MTcwOjU3MDE2</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1.1895e+16</v>
+        <v>95</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -6120,20 +6209,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YWI3ZTg3NDUtMzNmNi00ZjExLTg3ZWUtZjExNzBkOGFlNDFkOjU3MDE2</t>
+          <t>NDllNDg4ZDAtZjJkNi00ZDcwLWJmMzMtNTIxMzJjMmEyMzJmOjU3MDE2</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>700</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Hora de trabalho ECO</t>
-        </is>
-      </c>
+        <v>1289</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
         <v>10</v>
       </c>
@@ -6144,15 +6229,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
+          <t>NjliMThkYjktMTc0Yy00OTg4LTg3OWMtNzEyZThiNjgyM2QzOjU3MDE2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>350</v>
+        <v>6445</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6164,14 +6249,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ZDU3OGQ2MTktZGJkYy00YjEyLTkzMzItNTExYTlkYjlkZTVmOjU3MDE2</t>
+          <t>OTI4NWJmNDgtODU3Yi00NzAxLWJlZTgtNzA4NmVhYjZiZDNhOjU3MDE2</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>12525</v>
+        <v>42</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
@@ -6184,11 +6269,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>NTViMThiNzUtNWVmNy00ZDU1LWIxNzMtOGY5NjZhYTE4ZWMwOjU3MDE2</t>
+          <t>MjFjZDdjOWYtMWMyZS00YmU2LWEyYjAtOWZlMjMyM2I0ZmY3OjU3MDE2</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>12525</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6204,71 +6289,71 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
+          <t>OTMyOTYwZTktMDBhZS00MTg0LWFkY2QtM2YyZTI2YTA2MGRiOjU3MDE2</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>350</v>
+        <v>1225</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
+          <t>ZDM1MmRmY2UtNTk2NC00Nzk1LTgzZDEtMTIxZDI0ZmI3MjkyOjU3MDE2</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>350</v>
+        <v>1225</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
+          <t>OTVkNjI2ZmMtZGE1NC00NmE4LWExOTMtZjE0ODJmYjZiNzQ5OjU3MDE2</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>2073</v>
+        <v>1.1895e+16</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>YzM4NzY3MzktYzQzZS00Zjk3LTgxYjQtMzAxZWE0ZTk3NWY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>2073</v>
+        <v>1.1895e+16</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6277,78 +6362,82 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
+          <t>YWI3ZTg3NDUtMzNmNi00ZjExLTg3ZWUtZjExNzBkOGFlNDFkOjU3MDE2</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>7375</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Hora de trabalho ECO</t>
+        </is>
+      </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
+          <t>ODY3OTE5NTMtMDdjZi00YzM1LThkN2QtNDc5NzNmNzVkMGY0OjU3MDE2</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>7375</v>
+        <v>350</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
+          <t>ZDU3OGQ2MTktZGJkYy00YjEyLTkzMzItNTExYTlkYjlkZTVmOjU3MDE2</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>8399999999999999</v>
+        <v>12525</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>NTViMThiNzUtNWVmNy00ZDU1LWIxNzMtOGY5NjZhYTE4ZWMwOjU3MDE2</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>8399999999999999</v>
+        <v>12525</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6357,21 +6446,21 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
+          <t>NmU2NTU0ZTktZDBiNy00YzNiLTkyZjgtYWIzZjQ2YzE0MDg5OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
+          <t>MGYzOGViYmMtMzAzZS00YTQwLTkwYmYtYmU1NzBjNDFhNmEyOjU3MDE2</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
@@ -6384,15 +6473,15 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>YmJmNjhlOWMtMWYyMS00MTVlLWI5MzctN2NmMDNhNDY5OWFkOjU3MDE2</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6404,119 +6493,111 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
+          <t>OGJlZDhhMDktNjc5Ny00ZTAzLTllNTctMjE2OTRjMmIyYjU5OjU3MDE2</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>680</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
-        </is>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
+          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>680</v>
+        <v>2073</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
+          <t>YzllZjAzNWYtNTBiZi00ZjhhLTgyZGQtZTRkNjE5NmJlYWZlOjU3MDE2</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>855</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
-        </is>
-      </c>
+        <v>7375</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
+          <t>ZGRlNDk5MWMtYjg3Ny00N2MzLWE2MDgtNjc3MWVhODJjYjlhOjU3MDE2</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>855</v>
+        <v>7375</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
+          <t>ZTY4MjlkMDUtNTM3ZC00MmM2LWE2MDgtZjVkZmE0YzNhY2RjOjU3MDE2</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>43</v>
+        <v>8399999999999999</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
+          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>43</v>
+        <v>8399999999999999</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -6525,38 +6606,38 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
+          <t>ZmI1OWM5MTktNzVjYi00ZTYzLWE4MDAtMjkzNjA2OGY4NGQ4OjU3MDE2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -6565,122 +6646,126 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzFkMWQwZWMtMDUwYi00ZjBhLThhYmItMTFmNDJjZmYyMTk4OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
+          <t>NTIzYmQ3M2MtMzQwOC00ZTM3LWJhYzctZDM2YzZjYjg0NjY5OjU3MDE2</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>350</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>WRVT.00021 REALIZADO SERVIÇO LIMPEZA E CARGA DE GAS  R$680,00</t>
+        </is>
+      </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>NWIwZWFlMmYtYjVkOC00NTU0LTkzZmYtZGM2ZGIwM2E1ZmEwOjU3MDE2</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>350</v>
+        <v>680</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
+          <t>NjU4NTlmOGEtZWM4NC00NGE1LTliMmQtNzcwMzRkOTI0ZDMwOjU3MDE2</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+          <t>WRVT.00020  REALIZADO RECUPERAÇAO DA ESTAÇAO MICRO MOTOR  E REALIZADO LIMPEZA  NO SISTEMA E CARGA DE GAS</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
+          <t>MWY3MGI1MWUtZWEwMC00YWEyLTgzZTItNDgwYzc2NzE1OTJkOjU3MDE2</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
+          <t>NzZhZGQwNGUtMmU5ZS00NjM5LTkzYzgtNWQxOTc3OGJlYWRlOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
+          <t>YjRlNDcxNDUtMmEwZi00ZmEzLTlhODktMGYzNDdiZWFkNWEwOjU3MDE2</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
+          <t>MTZhMTdiZDUtYWI4OC00NjYwLTk2OGUtOWE4YmRiY2JmYTcyOjU3MDE2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -6689,38 +6774,38 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
+          <t>Y2IyMzg4Y2YtNDk4Yy00YjdmLWIwNzEtMmZhZGY1Mzk3YzRmOjU3MDE2</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>6325</v>
+        <v>85</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
+          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>6325</v>
+        <v>85</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -6729,38 +6814,38 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
+          <t>Y2Y0OGNkYzUtMGU3NS00MWM4LThkNzYtZDhhMDEyYjQ3NDNjOjU3MDE2</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -6769,38 +6854,42 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OGM2YTZkZjgtMmVjYS00MjA3LTk3YTktMDkzNTU0MDMzNDNiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
+          <t>M2FhZjdjZGYtYzBiNi00NjU1LWFjODAtMGViN2NhY2QzZWVjOjU3MDE2</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>350</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>REFRIGERADOR HORIZONTAL TOPEMA - GENÉRICO</t>
+        </is>
+      </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
+          <t>MjE5MDBkYzItODI3ZS00YjYwLWJiNjgtYjQ0NWVlMDExOWUzOjU3MDE2</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -6809,21 +6898,21 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>OTJkZTMyZDMtOWUxMi00NzVlLWEyMmEtMTBhMjdkYWFlZWU3OjU3MDE2</t>
+          <t>OTEzYzY1NmQtOWU4OS00Y2VlLWJiNjMtNTI5N2YyMjA1N2M1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>YjJmN2E4MGUtODk1MC00OWQ0LTlhODMtOTMwYmVmNTRmNmIyOjU3MDE2</t>
+          <t>MGE2M2VmNWItNjRiZS00NjI4LTg1NjYtN2ZkNDY0NDJjMzhlOjU3MDE2</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>2502</v>
+        <v>9</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
@@ -6836,11 +6925,11 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>YjRiNzk0MjYtYzkxMi00MTA0LWJkZTgtMmExNTJhMTJlYWNkOjU3MDE2</t>
+          <t>YjEzMmNlNWQtOGU2Ny00NmIwLWJiYzMtNDk0Zjg1YzMyNGIyOjU3MDE2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>2502</v>
+        <v>9</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -6856,14 +6945,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Y2Y3MmE5YTctNjc4MS00ZTMyLWE1OTctNDhmMmI0MWI2ZWYyOjU3MDE2</t>
+          <t>MmRkOWE2OTYtMzQyNy00Y2M5LWJkNDMtNjNlMDNjYjQ2MDcyOjU3MDE2</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>8399999999999999</v>
+        <v>6325</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
@@ -6876,11 +6965,11 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MmY2Nzk2OGUtMDNlOC00MzZlLTk0ZjAtZTE1ODNmMDk3OTJiOjU3MDE2</t>
+          <t>Y2QzOGQ2YTYtNmYwMi00NGI3LTg1NmQtOTc2MjE0MzI0YmJhOjU3MDE2</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>8399999999999999</v>
+        <v>6325</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -6896,14 +6985,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ZDNhMWQ1YmItYjhjNy00MjA3LWI0YzgtNjU0NDJjZWQ0ZTZjOjU3MDE2</t>
+          <t>NjM3YjhiNTEtYzE0Ni00MTFlLTk0YmYtNzJlOGU5NGM2ZDA1OjU3MDE2</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>2073</v>
+        <v>375</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
@@ -6916,11 +7005,11 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>YWZlNTgwOGEtNGJiZi00MDc3LTg1ZGMtMDBiNGU3MDcwNDgyOjU3MDE2</t>
+          <t>MWFlNGQzYzItOWIxNC00YmQ1LTk2MmUtOWIwYjU2MmQ1OGQ1OjU3MDE2</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>2073</v>
+        <v>375</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -6936,14 +7025,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ZjE0ZTc0MjQtNTIzOC00ODE2LTkzMzYtNjhlZjU3Zjg3MTcwOjU3MDE2</t>
+          <t>N2VhYTkxZjQtMDU2ZC00MWE2LWIzMmYtMmFlYjVjZjMxMDhiOjU3MDE2</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
@@ -6956,11 +7045,11 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ZmJiMmM5MWQtMmQ1My00ZmUzLTljNjAtZjNiOTljZDMzZDc3OjU3MDE2</t>
+          <t>ODgyNmUxMWUtNWIyYy00NWFjLWE1ZWMtZDY3ZjVkNDg3M2E1OjU3MDE2</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2198,70 +2198,71 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
+          <t>NjdmNGZjZTctNzE3Yi00MGQyLThlMTctYWJhYzkwYmIwMjQwOjU3MDE2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HJCRTZS--G</t>
+          <t>BYMKBBIZWX</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
+          <t>PREFEITURA MUNICIPAL DE IBIUNA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Referente a transformação de 1 maquina composteira no valor total de R$ 3.000,00, de tensão 380V- trifasico, para
+220V/trifasico.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE IBIUNA</t>
+        </is>
+      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Aprovada</t>
+          <t>Pendente</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-12-08T12:21:25.404Z</t>
+          <t>2025-12-16T20:19:12.508Z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>douglas simao</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Kaue Teixeira Caldeira Venâncio</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>accounts/57016/quotations/6b2b07ff-cb70-450b-bc03-538da26b5fb0/signatures/82045e1d-cc6f-45af-a3f3-2c6a0906455d.png</t>
-        </is>
-      </c>
+          <t>Adriana Vieira Masini</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-12-01T12:28:02.404Z</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+          <t>2025-12-09T20:21:45.714Z</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>MzIyOGRmMDAtMThlNi00NTc3LTk2MzctYmVjM2QxYmZlOWYwOjU3MDE2</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>percentage</t>
@@ -2279,34 +2280,34 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NDUwNzM2Mzo1NzAxNg==</t>
+          <t>NTg1NDM3Nzo1NzAxNg==</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NmM0Y2U5ZmItMzc5OC00MDMyLTkwMmUtZTA4OWZmMTBlNTA4OjU3MDE2</t>
+          <t>NmIyYjA3ZmYtY2I3MC00NTBiLWJjMDMtNTM4ZGEyNmI1ZmIwOjU3MDE2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SJBLZ0HQLG</t>
+          <t>HJCRTZS--G</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OUTBACK MORUMBI</t>
+          <t>31415680817 - DOUGLAS HIROMITSU TFK 2Kg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Reforma de Estufa Airflow danificada</t>
+          <t>Parafuso (Pino) que sustenta raspador quebrou, iremos fazer uma visita técnica para descobrir se há mais defeitos. 11 96619-3370</t>
  